--- a/carriers_source_analyses/lng.carrier.xlsx
+++ b/carriers_source_analyses/lng.carrier.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
-    <sheet name="Research data" sheetId="13" r:id="rId3"/>
-    <sheet name="Sources" sheetId="15" r:id="rId4"/>
-    <sheet name="Notes" sheetId="16" r:id="rId5"/>
-    <sheet name="Exchange_rates" sheetId="17" r:id="rId6"/>
+    <sheet name="nl_fce" sheetId="18" r:id="rId3"/>
+    <sheet name="Research data" sheetId="13" r:id="rId4"/>
+    <sheet name="Sources" sheetId="15" r:id="rId5"/>
+    <sheet name="Notes" sheetId="16" r:id="rId6"/>
+    <sheet name="Exchange_rates" sheetId="17" r:id="rId7"/>
+    <sheet name="fce_notes" sheetId="19" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="193">
   <si>
     <t>Source</t>
   </si>
@@ -175,9 +178,6 @@
   </si>
   <si>
     <t>EUR/MJ</t>
-  </si>
-  <si>
-    <t>Source 4</t>
   </si>
   <si>
     <t>Page</t>
@@ -413,25 +413,290 @@
   <si>
     <t>Duinn, CNSS</t>
   </si>
+  <si>
+    <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
+  </si>
+  <si>
+    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
+  </si>
+  <si>
+    <t>Fuel Chain Emissions (only for NL)</t>
+  </si>
+  <si>
+    <t>co2_exploration_per_mj</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions per MJ final carrier</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1623</t>
+  </si>
+  <si>
+    <t>co2_extraction_per_mj</t>
+  </si>
+  <si>
+    <t>co2_treatment_per_mj</t>
+  </si>
+  <si>
+    <t>co2_transportation_per_mj</t>
+  </si>
+  <si>
+    <t>start_value</t>
+  </si>
+  <si>
+    <t>ton/MWh</t>
+  </si>
+  <si>
+    <t>ton/MJ</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>ethane</t>
+  </si>
+  <si>
+    <t>propane</t>
+  </si>
+  <si>
+    <t>mol C/kg</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>butane</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Carbon content</t>
+  </si>
+  <si>
+    <t>kg CO2/kg</t>
+  </si>
+  <si>
+    <t>kg CO2/MJ</t>
+  </si>
+  <si>
+    <t>Molar mass</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Energy content</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>from qatar</t>
+  </si>
+  <si>
+    <t>nl_fce</t>
+  </si>
+  <si>
+    <t>CE_delft_Toelichting_bij_ketenkentallen_opgesteld_voor_het_energietransitiemodel</t>
+  </si>
+  <si>
+    <t>GIIGNL: The LNG Industry in 2013</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/2003</t>
+  </si>
+  <si>
+    <t>http://www.giignl.org/sites/default/files/PUBLIC_AREA/Publications/giignl_the_lng_industry_fv.pdf</t>
+  </si>
+  <si>
+    <t>co2_purification_per_mj</t>
+  </si>
+  <si>
+    <t>co2_liquefaction_per_mj</t>
+  </si>
+  <si>
+    <t>co2_distribution_per_mj</t>
+  </si>
+  <si>
+    <t>CE_delft</t>
+  </si>
+  <si>
+    <t>GIIGNL</t>
+  </si>
+  <si>
+    <t>TNO</t>
+  </si>
+  <si>
+    <t>from norway</t>
+  </si>
+  <si>
+    <t>Source LNG characteristics: GIIGNL</t>
+  </si>
+  <si>
+    <t>from trinidad</t>
+  </si>
+  <si>
+    <t>from algeria</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Distance to ROT</t>
+  </si>
+  <si>
+    <t>nautical miles</t>
+  </si>
+  <si>
+    <t>kg CO2 / MJ</t>
+  </si>
+  <si>
+    <t>Source: TNO 18</t>
+  </si>
+  <si>
+    <t>Emissions scaled to Qatar's</t>
+  </si>
+  <si>
+    <t>Source: GIIGNL 22</t>
+  </si>
+  <si>
+    <t>Q-NL</t>
+  </si>
+  <si>
+    <t>Q-UK</t>
+  </si>
+  <si>
+    <t>T-NL</t>
+  </si>
+  <si>
+    <t>N-NL</t>
+  </si>
+  <si>
+    <t>A-UK</t>
+  </si>
+  <si>
+    <t>n miles</t>
+  </si>
+  <si>
+    <t>A-NL</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Algeria Skikda</t>
+  </si>
+  <si>
+    <t>Algeria Bethioua</t>
+  </si>
+  <si>
+    <t>Algeria Arzew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon content (%) </t>
+  </si>
+  <si>
+    <t>Found by combing TNO   and GIIGNL</t>
+  </si>
+  <si>
+    <t>CE Delft</t>
+  </si>
+  <si>
+    <t>TNO &amp; GIIGNL</t>
+  </si>
+  <si>
+    <t>TNO_Environmental_and_Economic_aspects_of_using_LNG_as_a_fuel_for_shipping_in_the_Netherlands.pdf</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/2006</t>
+  </si>
+  <si>
+    <t>https://www.tno.nl/en/focus-area/energy/maritime-offshore/clean-ships/lng-as-fuel-for-shipping/</t>
+  </si>
+  <si>
+    <t>scaled</t>
+  </si>
+  <si>
+    <t>Souce: GIIGNL 8</t>
+  </si>
+  <si>
+    <t>Start value</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Hydrocarbon</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Assumption: all C4+ is butane</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -642,6 +907,24 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -729,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1085,626 +1368,834 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="29" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="28" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="26" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="489">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1965,6 +2456,145 @@
     <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2146,8 +2776,8 @@
       <xdr:rowOff>176695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>146878</xdr:rowOff>
     </xdr:to>
@@ -2185,7 +2815,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>607392</xdr:colOff>
+      <xdr:colOff>99392</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>61844</xdr:rowOff>
     </xdr:to>
@@ -2222,8 +2852,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>441740</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>640523</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>193261</xdr:rowOff>
     </xdr:to>
@@ -2244,6 +2874,315 @@
         <a:xfrm>
           <a:off x="7443305" y="17890435"/>
           <a:ext cx="10336696" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12166600" y="4241800"/>
+          <a:ext cx="8445500" cy="8661400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="12458700"/>
+          <a:ext cx="3111500" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="16103600"/>
+          <a:ext cx="5321300" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32597</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513503</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722197" y="16497300"/>
+          <a:ext cx="5052906" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461000" y="15862300"/>
+          <a:ext cx="5308600" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="15544800"/>
+          <a:ext cx="2641600" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="16827500"/>
+          <a:ext cx="2425700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5738446" y="18580100"/>
+          <a:ext cx="10911254" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2374,6 +3313,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2381,6 +3321,143 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="nl_fce"/>
+      <sheetName val="Research data"/>
+      <sheetName val="Sources"/>
+      <sheetName val="Notes"/>
+      <sheetName val="Exchange_rates"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="16">
+          <cell r="G16">
+            <v>3.3995999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>8.8163000000000005E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>0.153</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28">
+            <v>0.124</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32">
+            <v>1.0756399999999999E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>1.5815200000000001E-3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41">
+            <v>3.6559299999999999E-3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42">
+            <v>8.0710999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43">
+            <v>2.1007E-4</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>8.7446399999999994E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>1.1964799999999999E-2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>2.0680500000000001E-3</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>2.4298000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>9.9245600000000003E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2744,10 +3821,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2756,7 +3833,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2784,13 +3861,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="130"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="131"/>
+      <c r="D10" s="129"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -2800,7 +3877,7 @@
       <c r="C11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="129"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
@@ -2808,7 +3885,7 @@
       <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="129"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
@@ -2816,7 +3893,7 @@
       <c r="C13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="129"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -2824,13 +3901,13 @@
       <c r="C14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="129"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
-      <c r="D15" s="131"/>
+      <c r="D15" s="129"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -2840,7 +3917,7 @@
       <c r="C16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -2848,7 +3925,7 @@
       <c r="C17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="131"/>
+      <c r="D17" s="129"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -2856,7 +3933,7 @@
       <c r="C18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="131"/>
+      <c r="D18" s="129"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -2864,7 +3941,7 @@
       <c r="C19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="131"/>
+      <c r="D19" s="129"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -2872,7 +3949,7 @@
       <c r="C20" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="129"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -2880,7 +3957,7 @@
       <c r="C21" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="131"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -2888,19 +3965,19 @@
       <c r="C22" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="131"/>
+      <c r="D22" s="129"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="131"/>
+      <c r="D23" s="129"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="132"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2920,7 +3997,9 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2944,28 +4023,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="155" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="157"/>
+      <c r="B2" s="192" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -3018,7 +4097,7 @@
     <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -3045,7 +4124,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="136" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="42"/>
@@ -3065,15 +4144,15 @@
       <c r="F11" s="34"/>
       <c r="G11" s="103"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="139" t="s">
-        <v>76</v>
+      <c r="I11" s="137" t="s">
+        <v>75</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="23"/>
       <c r="C12" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>42</v>
@@ -3085,28 +4164,28 @@
       <c r="F12" s="34"/>
       <c r="G12" s="103"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="139" t="s">
-        <v>108</v>
+      <c r="I12" s="137" t="s">
+        <v>107</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="23"/>
-      <c r="C13" s="135" t="s">
-        <v>58</v>
+      <c r="C13" s="133" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="123">
+        <v>49</v>
+      </c>
+      <c r="E13" s="121">
         <f>'Research data'!G9</f>
         <v>0.432</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="103"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="139" t="s">
-        <v>108</v>
+      <c r="I13" s="137" t="s">
+        <v>107</v>
       </c>
       <c r="J13" s="42"/>
     </row>
@@ -3118,15 +4197,15 @@
       <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="121">
         <f>'Research data'!G10</f>
         <v>5.5899999999999998E-2</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="103"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="139" t="s">
-        <v>108</v>
+      <c r="I14" s="137" t="s">
+        <v>107</v>
       </c>
       <c r="J14" s="42"/>
     </row>
@@ -3189,20 +4268,945 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="153"/>
+      <c r="B2" s="192" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="153"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="153"/>
+      <c r="B4" s="201" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="153"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="156"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="41"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="153"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="160"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="153"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="158"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="160"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1">
+      <c r="A10" s="153"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="160"/>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1">
+      <c r="A11" s="153">
+        <v>3</v>
+      </c>
+      <c r="B11" s="157"/>
+      <c r="C11" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="163">
+        <f>'Research data'!G14</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="161"/>
+      <c r="I11" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="160"/>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1">
+      <c r="A12" s="153"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="163">
+        <f>'Research data'!G15</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="161"/>
+      <c r="I12" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="160"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1">
+      <c r="A13" s="153"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="163">
+        <f>'Research data'!G16+'Research data'!G17</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="161"/>
+      <c r="I13" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="160"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1">
+      <c r="A14" s="153"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="163">
+        <f>'Research data'!G18+'Research data'!G19</f>
+        <v>2.4836063016690064E-3</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="161"/>
+      <c r="I14" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="160"/>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1">
+      <c r="A15" s="153"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="163">
+        <f>'Research data'!G20</f>
+        <v>5.5564771409599999E-2</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="161"/>
+      <c r="I15" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="160"/>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1">
+      <c r="A16" s="153"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="163">
+        <f>'Research data'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="161"/>
+      <c r="I16" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="160"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="153"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="160"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1">
+      <c r="A18" s="153"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="160"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1">
+      <c r="A19" s="153"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="163">
+        <f>'Research data'!G25</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="161"/>
+      <c r="I19" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="160"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1">
+      <c r="A20" s="153"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="163">
+        <f>'Research data'!G26</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="161"/>
+      <c r="I20" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="160"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1">
+      <c r="A21" s="153"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="163">
+        <f>'Research data'!G27+'Research data'!G28</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="161"/>
+      <c r="I21" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="160"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1">
+      <c r="A22" s="153"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="163">
+        <f>'Research data'!G29 + 'Research data'!G30</f>
+        <v>1.4229293401965373E-3</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="161"/>
+      <c r="I22" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="160"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1">
+      <c r="A23" s="153"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="163">
+        <f>'Research data'!G31</f>
+        <v>5.5495958933970364E-2</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="161"/>
+      <c r="I23" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="160"/>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1">
+      <c r="A24" s="153"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="163">
+        <f>'Research data'!G32</f>
+        <v>0.41509433962264147</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="161"/>
+      <c r="I24" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="160"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="153"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="160"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1">
+      <c r="A26" s="153"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="160"/>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1">
+      <c r="A27" s="153"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="163">
+        <f>'Research data'!G36</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="161"/>
+      <c r="I27" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="160"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" thickBot="1">
+      <c r="A28" s="153"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="163">
+        <f>'Research data'!G37</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="161"/>
+      <c r="I28" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="160"/>
+    </row>
+    <row r="29" spans="1:10" ht="17" thickBot="1">
+      <c r="A29" s="153"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="191" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="163">
+        <f>'Research data'!G38+'Research data'!G39</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="161"/>
+      <c r="I29" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="160"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1">
+      <c r="A30" s="153"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="163">
+        <f>'Research data'!G40+'Research data'!G41</f>
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="161"/>
+      <c r="I30" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="160"/>
+    </row>
+    <row r="31" spans="1:10" ht="17" thickBot="1">
+      <c r="A31" s="153"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="163">
+        <f>'Research data'!G42</f>
+        <v>5.5666643949681481E-2</v>
+      </c>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="161"/>
+      <c r="I31" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="160"/>
+    </row>
+    <row r="32" spans="1:10" ht="17" thickBot="1">
+      <c r="A32" s="153"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="163">
+        <f>'Research data'!G43</f>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="161"/>
+      <c r="I32" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="160"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="153"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="160"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" thickBot="1">
+      <c r="A34" s="153"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="160"/>
+    </row>
+    <row r="35" spans="1:10" ht="17" thickBot="1">
+      <c r="A35" s="153"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="163">
+        <f>'Research data'!G47</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="161"/>
+      <c r="I35" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="160"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickBot="1">
+      <c r="A36" s="153"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="191" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="163">
+        <f>'Research data'!G48</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="161"/>
+      <c r="I36" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="160"/>
+    </row>
+    <row r="37" spans="1:10" ht="17" thickBot="1">
+      <c r="A37" s="153"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="191" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="163">
+        <f>'Research data'!G49+'Research data'!G50</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="161"/>
+      <c r="I37" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" s="160"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1">
+      <c r="A38" s="153"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="191" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="163">
+        <f>'Research data'!G51+'Research data'!G52</f>
+        <v>1.5606748659728791E-3</v>
+      </c>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="161"/>
+      <c r="I38" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" s="160"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" thickBot="1">
+      <c r="A39" s="153"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="163">
+        <f>'Research data'!G53</f>
+        <v>5.5452212002454322E-2</v>
+      </c>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="161"/>
+      <c r="I39" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="160"/>
+    </row>
+    <row r="40" spans="1:10" ht="17" thickBot="1">
+      <c r="A40" s="153"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="191" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="163">
+        <f>'Research data'!G54</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="161"/>
+      <c r="I40" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="160"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="153"/>
+      <c r="B41" s="157"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="J41" s="160"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="153"/>
+      <c r="B42" s="157"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="J42" s="160"/>
+    </row>
+    <row r="43" spans="1:10" ht="17" thickBot="1">
+      <c r="A43" s="153"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="160"/>
+    </row>
+    <row r="44" spans="1:10" ht="17" thickBot="1">
+      <c r="A44" s="153"/>
+      <c r="J44" s="169"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="153"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="153"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="153"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="153"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="153"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="153"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="153"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="153"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="153"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="153"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="153"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="153"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="153"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="153"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="153"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="153"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="153"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="153"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="153"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="153"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="153"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="153"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="153"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="153"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="153"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="153"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="153"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:W103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="65" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="65" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="65" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="65" customWidth="1"/>
@@ -3214,14 +5218,20 @@
     <col min="12" max="12" width="3.125" style="66" customWidth="1"/>
     <col min="13" max="13" width="11.75" style="66" customWidth="1"/>
     <col min="14" max="14" width="2.625" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.625" style="66" customWidth="1"/>
-    <col min="17" max="17" width="60" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="65"/>
+    <col min="15" max="15" width="13.875" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="66" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="65" customWidth="1"/>
+    <col min="18" max="18" width="3" style="65" customWidth="1"/>
+    <col min="19" max="20" width="10.625" style="65"/>
+    <col min="21" max="21" width="51.375" style="65" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:23" ht="16" thickBot="1">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+    </row>
+    <row r="2" spans="2:23">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -3237,9 +5247,13 @@
       <c r="N2" s="69"/>
       <c r="O2" s="69"/>
       <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
-    </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70"/>
+    </row>
+    <row r="3" spans="2:23" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="96" t="s">
         <v>29</v>
@@ -3254,26 +5268,34 @@
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="P3" s="63"/>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="63"/>
+      <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:23">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -3287,14 +5309,18 @@
       <c r="L4" s="94"/>
       <c r="M4" s="93"/>
       <c r="N4" s="95"/>
-      <c r="O4" s="93"/>
+      <c r="O4" s="95"/>
       <c r="P4" s="95"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:23" ht="16" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -3309,9 +5335,13 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="16" thickBot="1">
       <c r="B6" s="71"/>
       <c r="C6" s="105" t="s">
         <v>35</v>
@@ -3335,11 +5365,15 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>36</v>
@@ -3365,21 +5399,25 @@
         <v>5.5418815369054873E-3</v>
       </c>
       <c r="L7" s="17"/>
-      <c r="M7" s="153">
+      <c r="M7" s="151">
         <f>Notes!F94</f>
         <v>5.9595959595959589E-3</v>
       </c>
       <c r="N7" s="17"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="152" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="150" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="129" t="s">
-        <v>54</v>
+      <c r="C8" s="127" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="106" t="s">
         <v>41</v>
@@ -3404,26 +5442,30 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="114"/>
-    </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="114"/>
+    </row>
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
       <c r="F9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="122">
+        <v>49</v>
+      </c>
+      <c r="G9" s="120">
         <f>I9</f>
         <v>0.432</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="122">
+      <c r="I9" s="120">
         <f>Notes!F24</f>
         <v>0.432</v>
       </c>
@@ -3432,11 +5474,15 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="107" t="s">
         <v>37</v>
@@ -3450,12 +5496,12 @@
       <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G10" s="121">
         <f>I10</f>
         <v>5.5899999999999998E-2</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="123">
+      <c r="I10" s="121">
         <f>Notes!F27</f>
         <v>5.5899999999999998E-2</v>
       </c>
@@ -3464,27 +5510,2007 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="121"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:23" ht="16" thickBot="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:23" ht="16" thickBot="1">
+      <c r="B12" s="157"/>
+      <c r="C12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="119"/>
+    </row>
+    <row r="13" spans="2:23" ht="16" thickBot="1">
+      <c r="B13" s="157"/>
+      <c r="C13" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="66"/>
+    </row>
+    <row r="14" spans="2:23" ht="16" thickBot="1">
+      <c r="B14" s="157"/>
+      <c r="C14" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="163">
+        <f>'[3]Research data'!G16</f>
+        <v>3.3995999999999999E-4</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="177">
+        <f>O14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="175"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="17"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="179">
+        <v>0</v>
+      </c>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="66"/>
+    </row>
+    <row r="15" spans="2:23" ht="16" thickBot="1">
+      <c r="B15" s="157"/>
+      <c r="C15" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="163">
+        <f>'[3]Research data'!G17</f>
+        <v>8.8163000000000005E-2</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="177">
+        <f>O15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="175"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="17"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="180">
+        <v>0</v>
+      </c>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="66"/>
+    </row>
+    <row r="16" spans="2:23" ht="16" thickBot="1">
+      <c r="B16" s="157"/>
+      <c r="C16" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="163">
+        <f>'[3]Research data'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="177">
+        <f>Q16</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H16" s="175"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="17"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="179">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="66"/>
+    </row>
+    <row r="17" spans="2:22" ht="16" thickBot="1">
+      <c r="B17" s="157"/>
+      <c r="C17" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="163">
+        <f>'[3]Research data'!G19</f>
+        <v>0.153</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="177">
+        <f t="shared" ref="G17" si="0">Q17</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="H17" s="175"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="17"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="179">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="66"/>
+    </row>
+    <row r="18" spans="2:22" ht="16" thickBot="1">
+      <c r="B18" s="157"/>
+      <c r="C18" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="163">
+        <f>'[3]Research data'!G20</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="177">
+        <f>S18</f>
+        <v>1.5836063016690064E-3</v>
+      </c>
+      <c r="H18" s="175"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="179">
+        <f>fce_notes!H53</f>
+        <v>1.5836063016690064E-3</v>
+      </c>
+      <c r="T18" s="153"/>
+      <c r="U18" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="V18" s="66"/>
+    </row>
+    <row r="19" spans="2:22" ht="16" thickBot="1">
+      <c r="B19" s="157"/>
+      <c r="C19" s="162" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="163">
+        <f>'[3]Research data'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="177">
+        <f>Q19</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H19" s="175"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="17"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="179">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="66"/>
+    </row>
+    <row r="20" spans="2:22" ht="16" thickBot="1">
+      <c r="B20" s="157"/>
+      <c r="C20" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="163">
+        <f>'[3]Research data'!G22</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="177">
+        <f>S20</f>
+        <v>5.5564771409599999E-2</v>
+      </c>
+      <c r="H20" s="175"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="17"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="179">
+        <f>fce_notes!J10</f>
+        <v>5.5564771409599999E-2</v>
+      </c>
+      <c r="T20" s="153"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="66"/>
+    </row>
+    <row r="21" spans="2:22" ht="16" thickBot="1">
+      <c r="B21" s="157"/>
+      <c r="C21" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="165">
+        <f>'[3]Research data'!G22</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="177">
+        <f>fce_notes!E104</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="175"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="17"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="177">
+        <v>0</v>
+      </c>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="66"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="157"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="17"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="178"/>
+      <c r="V22" s="66"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="157"/>
+      <c r="C23" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="66"/>
+    </row>
+    <row r="24" spans="2:22" ht="16" thickBot="1">
+      <c r="B24" s="157"/>
+      <c r="C24" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="66"/>
+    </row>
+    <row r="25" spans="2:22" ht="16" thickBot="1">
+      <c r="B25" s="157"/>
+      <c r="C25" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="163">
+        <f>'[3]Research data'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="177">
+        <f>O25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="175"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="17"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="179">
+        <v>0</v>
+      </c>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="66"/>
+    </row>
+    <row r="26" spans="2:22" ht="16" thickBot="1">
+      <c r="B26" s="157"/>
+      <c r="C26" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="163">
+        <f>'[3]Research data'!G28</f>
+        <v>0.124</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="177">
+        <f>O26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="175"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="17"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="180">
+        <v>0</v>
+      </c>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="66"/>
+    </row>
+    <row r="27" spans="2:22" ht="16" thickBot="1">
+      <c r="B27" s="157"/>
+      <c r="C27" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="163">
+        <f>'[3]Research data'!G29</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="177">
+        <f>Q27</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H27" s="175"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="179">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="66"/>
+    </row>
+    <row r="28" spans="2:22" ht="16" thickBot="1">
+      <c r="B28" s="157"/>
+      <c r="C28" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="163">
+        <f>'[3]Research data'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="177">
+        <f t="shared" ref="G28" si="1">Q28</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="H28" s="175"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="17"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="179">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="178"/>
+      <c r="V28" s="66"/>
+    </row>
+    <row r="29" spans="2:22" ht="16" thickBot="1">
+      <c r="B29" s="157"/>
+      <c r="C29" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="163">
+        <f>'[3]Research data'!G31</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="177">
+        <f>S29</f>
+        <v>5.2292934019653728E-4</v>
+      </c>
+      <c r="H29" s="175"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="17"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="153"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="179">
+        <f>fce_notes!H54</f>
+        <v>5.2292934019653728E-4</v>
+      </c>
+      <c r="T29" s="153"/>
+      <c r="U29" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="V29" s="66"/>
+    </row>
+    <row r="30" spans="2:22" ht="16" thickBot="1">
+      <c r="B30" s="157"/>
+      <c r="C30" s="162" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="163">
+        <f>'[3]Research data'!G32</f>
+        <v>1.0756399999999999E-2</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="177">
+        <f>Q30</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H30" s="175"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="17"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="179">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="66"/>
+    </row>
+    <row r="31" spans="2:22" ht="16" thickBot="1">
+      <c r="B31" s="157"/>
+      <c r="C31" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="163">
+        <f>'[3]Research data'!G33</f>
+        <v>1.5815200000000001E-3</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="177">
+        <f>S31</f>
+        <v>5.5495958933970364E-2</v>
+      </c>
+      <c r="H31" s="175"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="17"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="179">
+        <f>fce_notes!J17</f>
+        <v>5.5495958933970364E-2</v>
+      </c>
+      <c r="T31" s="153"/>
+      <c r="U31" s="178"/>
+      <c r="V31" s="66"/>
+    </row>
+    <row r="32" spans="2:22" ht="16" thickBot="1">
+      <c r="B32" s="157"/>
+      <c r="C32" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="165">
+        <f>'[3]Research data'!G33</f>
+        <v>1.5815200000000001E-3</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="177">
+        <f>fce_notes!E105</f>
+        <v>0.41509433962264147</v>
+      </c>
+      <c r="H32" s="175"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="17"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="177">
+        <v>0.05</v>
+      </c>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="66"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="157"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="17"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="178"/>
+      <c r="V33" s="66"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="157"/>
+      <c r="C34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="178"/>
+      <c r="V34" s="66"/>
+    </row>
+    <row r="35" spans="2:22" ht="16" thickBot="1">
+      <c r="B35" s="157"/>
+      <c r="C35" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="153"/>
+      <c r="R35" s="153"/>
+      <c r="S35" s="153"/>
+      <c r="T35" s="153"/>
+      <c r="U35" s="178"/>
+      <c r="V35" s="66"/>
+    </row>
+    <row r="36" spans="2:22" ht="16" thickBot="1">
+      <c r="B36" s="157"/>
+      <c r="C36" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="163">
+        <f>'[3]Research data'!G38</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="177">
+        <f>O36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="175"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="17"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="179">
+        <v>0</v>
+      </c>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="178"/>
+      <c r="V36" s="66"/>
+    </row>
+    <row r="37" spans="2:22" ht="16" thickBot="1">
+      <c r="B37" s="157"/>
+      <c r="C37" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="163">
+        <f>'[3]Research data'!G39</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="177">
+        <f>O37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="175"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="17"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="180">
+        <v>0</v>
+      </c>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="178"/>
+      <c r="V37" s="66"/>
+    </row>
+    <row r="38" spans="2:22" ht="16" thickBot="1">
+      <c r="B38" s="157"/>
+      <c r="C38" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="163">
+        <f>'[3]Research data'!G40</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="177">
+        <f>Q38</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H38" s="175"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="17"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="179">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="178"/>
+      <c r="V38" s="66"/>
+    </row>
+    <row r="39" spans="2:22" ht="16" thickBot="1">
+      <c r="B39" s="157"/>
+      <c r="C39" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="163">
+        <f>'[3]Research data'!G41</f>
+        <v>3.6559299999999999E-3</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="177">
+        <f t="shared" ref="G39" si="2">Q39</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="H39" s="175"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="17"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="179">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R39" s="153"/>
+      <c r="S39" s="153"/>
+      <c r="T39" s="153"/>
+      <c r="U39" s="178"/>
+      <c r="V39" s="66"/>
+    </row>
+    <row r="40" spans="2:22" ht="16" thickBot="1">
+      <c r="B40" s="157"/>
+      <c r="C40" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="163">
+        <f>'[3]Research data'!G42</f>
+        <v>8.0710999999999999E-4</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="177">
+        <f>S40</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H40" s="175"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="17"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="153"/>
+      <c r="R40" s="153"/>
+      <c r="S40" s="179">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="T40" s="153"/>
+      <c r="U40" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="V40" s="66"/>
+    </row>
+    <row r="41" spans="2:22" ht="16" thickBot="1">
+      <c r="B41" s="157"/>
+      <c r="C41" s="162" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="163">
+        <f>'[3]Research data'!G43</f>
+        <v>2.1007E-4</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="177">
+        <f>Q41</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H41" s="175"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="17"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="179">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R41" s="153"/>
+      <c r="T41" s="153"/>
+      <c r="U41" s="178"/>
+      <c r="V41" s="66"/>
+    </row>
+    <row r="42" spans="2:22" ht="16" thickBot="1">
+      <c r="B42" s="157"/>
+      <c r="C42" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="163">
+        <f>'[3]Research data'!G44</f>
+        <v>8.7446399999999994E-2</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="177">
+        <f>S42</f>
+        <v>5.5666643949681481E-2</v>
+      </c>
+      <c r="H42" s="175"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="17"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="153"/>
+      <c r="R42" s="153"/>
+      <c r="S42" s="179">
+        <f>fce_notes!J25</f>
+        <v>5.5666643949681481E-2</v>
+      </c>
+      <c r="T42" s="153"/>
+      <c r="U42" s="178"/>
+      <c r="V42" s="66"/>
+    </row>
+    <row r="43" spans="2:22" ht="16" thickBot="1">
+      <c r="B43" s="157"/>
+      <c r="C43" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="165">
+        <f>'[3]Research data'!G44</f>
+        <v>8.7446399999999994E-2</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="177">
+        <f>fce_notes!E106</f>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="H43" s="175"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="17"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="177">
+        <v>0</v>
+      </c>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="153"/>
+      <c r="R43" s="153"/>
+      <c r="S43" s="153"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="178"/>
+      <c r="V43" s="66"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="157"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="17"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="153"/>
+      <c r="Q44" s="153"/>
+      <c r="R44" s="153"/>
+      <c r="S44" s="153"/>
+      <c r="T44" s="153"/>
+      <c r="U44" s="178"/>
+      <c r="V44" s="66"/>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" s="157"/>
+      <c r="C45" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="153"/>
+      <c r="T45" s="153"/>
+      <c r="U45" s="178"/>
+      <c r="V45" s="66"/>
+    </row>
+    <row r="46" spans="2:22" ht="16" thickBot="1">
+      <c r="B46" s="157"/>
+      <c r="C46" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
+      <c r="N46" s="153"/>
+      <c r="O46" s="153"/>
+      <c r="P46" s="153"/>
+      <c r="Q46" s="153"/>
+      <c r="R46" s="153"/>
+      <c r="S46" s="153"/>
+      <c r="T46" s="153"/>
+      <c r="U46" s="178"/>
+      <c r="V46" s="66"/>
+    </row>
+    <row r="47" spans="2:22" ht="16" thickBot="1">
+      <c r="B47" s="157"/>
+      <c r="C47" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="190">
+        <f>'[3]Research data'!G49</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="177">
+        <f>O47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="175"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="17"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="153"/>
+      <c r="O47" s="179">
+        <v>0</v>
+      </c>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="153"/>
+      <c r="R47" s="153"/>
+      <c r="S47" s="153"/>
+      <c r="T47" s="153"/>
+      <c r="U47" s="178"/>
+      <c r="V47" s="66"/>
+    </row>
+    <row r="48" spans="2:22" ht="16" thickBot="1">
+      <c r="B48" s="157"/>
+      <c r="C48" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="190">
+        <f>'[3]Research data'!G50</f>
+        <v>1.1964799999999999E-2</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="177">
+        <f>O48</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="175"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="17"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
+      <c r="N48" s="153"/>
+      <c r="O48" s="180">
+        <v>0</v>
+      </c>
+      <c r="P48" s="153"/>
+      <c r="Q48" s="153"/>
+      <c r="R48" s="153"/>
+      <c r="S48" s="153"/>
+      <c r="T48" s="153"/>
+      <c r="U48" s="178"/>
+      <c r="V48" s="66"/>
+    </row>
+    <row r="49" spans="2:22" ht="16" thickBot="1">
+      <c r="B49" s="157"/>
+      <c r="C49" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="190">
+        <f>'[3]Research data'!G51</f>
+        <v>2.0680500000000001E-3</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="177">
+        <f>Q49</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H49" s="175"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="17"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="179">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="178"/>
+      <c r="V49" s="66"/>
+    </row>
+    <row r="50" spans="2:22" ht="16" thickBot="1">
+      <c r="B50" s="157"/>
+      <c r="C50" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="190">
+        <f>'[3]Research data'!G52</f>
+        <v>2.4298000000000001E-4</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="177">
+        <f t="shared" ref="G50" si="3">Q50</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="H50" s="175"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="17"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="153"/>
+      <c r="Q50" s="179">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R50" s="153"/>
+      <c r="S50" s="153"/>
+      <c r="T50" s="153"/>
+      <c r="U50" s="178"/>
+      <c r="V50" s="66"/>
+    </row>
+    <row r="51" spans="2:22" ht="16" thickBot="1">
+      <c r="B51" s="157"/>
+      <c r="C51" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="190">
+        <f>'[3]Research data'!G53</f>
+        <v>9.9245600000000003E-2</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="177">
+        <f>S51</f>
+        <v>6.6067486597287922E-4</v>
+      </c>
+      <c r="H51" s="175"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="17"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="153"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="153"/>
+      <c r="R51" s="153"/>
+      <c r="S51" s="179">
+        <f>fce_notes!H56</f>
+        <v>6.6067486597287922E-4</v>
+      </c>
+      <c r="T51" s="153"/>
+      <c r="U51" s="178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="16" thickBot="1">
+      <c r="B52" s="157"/>
+      <c r="C52" s="162" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="190">
+        <f>'[3]Research data'!G54</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="177">
+        <f>Q52</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H52" s="175"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="17"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="179">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R52" s="153"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="178"/>
+    </row>
+    <row r="53" spans="2:22" ht="16" thickBot="1">
+      <c r="B53" s="157"/>
+      <c r="C53" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="190">
+        <f>'[3]Research data'!G55</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="177">
+        <f>S53</f>
+        <v>5.5452212002454322E-2</v>
+      </c>
+      <c r="H53" s="175"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="17"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="153"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="153"/>
+      <c r="R53" s="153"/>
+      <c r="S53" s="179">
+        <f>AVERAGE(fce_notes!J32, fce_notes!J40, fce_notes!J47)</f>
+        <v>5.5452212002454322E-2</v>
+      </c>
+      <c r="T53" s="153"/>
+      <c r="U53" s="178"/>
+    </row>
+    <row r="54" spans="2:22" ht="16" thickBot="1">
+      <c r="B54" s="157"/>
+      <c r="C54" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="165">
+        <f>'[3]Research data'!G55</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="177">
+        <f>fce_notes!E107</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="175"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="17"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="153"/>
+      <c r="N54" s="153"/>
+      <c r="O54" s="177">
+        <v>0</v>
+      </c>
+      <c r="P54" s="153"/>
+      <c r="Q54" s="153"/>
+      <c r="R54" s="153"/>
+      <c r="S54" s="153"/>
+      <c r="T54" s="153"/>
+      <c r="U54" s="178"/>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="157"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="175"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="17"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
+      <c r="N55" s="153"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="153"/>
+      <c r="Q55" s="153"/>
+      <c r="R55" s="153"/>
+      <c r="S55" s="153"/>
+      <c r="T55" s="153"/>
+      <c r="U55" s="178"/>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="153"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="175"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="17"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="153"/>
+      <c r="Q56" s="153"/>
+      <c r="R56" s="153"/>
+      <c r="S56" s="153"/>
+      <c r="T56" s="153"/>
+      <c r="U56" s="178"/>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="P57" s="65"/>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="P58" s="65"/>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="P59" s="65"/>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="P60" s="65"/>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="P61" s="65"/>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="P62" s="65"/>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="P63" s="65"/>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="P64" s="65"/>
+    </row>
+    <row r="65" spans="3:16">
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="P65" s="65"/>
+    </row>
+    <row r="66" spans="3:16">
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="P66" s="65"/>
+    </row>
+    <row r="67" spans="3:16">
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="P67" s="65"/>
+    </row>
+    <row r="68" spans="3:16">
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="P68" s="65"/>
+    </row>
+    <row r="69" spans="3:16">
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="P69" s="65"/>
+    </row>
+    <row r="70" spans="3:16">
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="P70" s="65"/>
+    </row>
+    <row r="71" spans="3:16">
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="P71" s="65"/>
+    </row>
+    <row r="72" spans="3:16">
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="P72" s="65"/>
+    </row>
+    <row r="73" spans="3:16">
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="P73" s="65"/>
+    </row>
+    <row r="74" spans="3:16">
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="P74" s="65"/>
+    </row>
+    <row r="75" spans="3:16">
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="P75" s="65"/>
+    </row>
+    <row r="76" spans="3:16">
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="P76" s="65"/>
+    </row>
+    <row r="77" spans="3:16">
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="65"/>
+      <c r="P77" s="65"/>
+    </row>
+    <row r="78" spans="3:16">
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="65"/>
+      <c r="P78" s="65"/>
+    </row>
+    <row r="79" spans="3:16">
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
+      <c r="P79" s="65"/>
+    </row>
+    <row r="80" spans="3:16">
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="P80" s="65"/>
+    </row>
+    <row r="81" spans="3:16">
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="65"/>
+      <c r="P81" s="65"/>
+    </row>
+    <row r="82" spans="3:16">
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="P82" s="65"/>
+    </row>
+    <row r="83" spans="3:16">
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="P83" s="65"/>
+    </row>
+    <row r="84" spans="3:16">
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="P84" s="65"/>
+    </row>
+    <row r="85" spans="3:16">
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="P85" s="65"/>
+    </row>
+    <row r="86" spans="3:16">
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="P86" s="65"/>
+    </row>
+    <row r="87" spans="3:16">
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="65"/>
+      <c r="P87" s="65"/>
+    </row>
+    <row r="88" spans="3:16">
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="P88" s="65"/>
+    </row>
+    <row r="89" spans="3:16">
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
+      <c r="P89" s="65"/>
+    </row>
+    <row r="90" spans="3:16">
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
+      <c r="P90" s="65"/>
+    </row>
+    <row r="91" spans="3:16">
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+      <c r="P91" s="65"/>
+    </row>
+    <row r="92" spans="3:16">
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="P92" s="65"/>
+    </row>
+    <row r="93" spans="3:16">
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
+      <c r="P93" s="65"/>
+    </row>
+    <row r="94" spans="3:16">
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
+      <c r="N94" s="65"/>
+      <c r="P94" s="65"/>
+    </row>
+    <row r="95" spans="3:16">
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="P95" s="65"/>
+    </row>
+    <row r="96" spans="3:16">
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="P96" s="65"/>
+    </row>
+    <row r="97" spans="3:16">
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="65"/>
+      <c r="P97" s="65"/>
+    </row>
+    <row r="98" spans="3:16">
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="65"/>
+      <c r="N98" s="65"/>
+      <c r="P98" s="65"/>
+    </row>
+    <row r="99" spans="3:16">
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
+      <c r="P99" s="65"/>
+    </row>
+    <row r="100" spans="3:16">
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="P100" s="65"/>
+    </row>
+    <row r="101" spans="3:16">
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="P101" s="65"/>
+    </row>
+    <row r="102" spans="3:16">
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
+      <c r="P102" s="65"/>
+    </row>
+    <row r="103" spans="3:16">
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3497,15 +7523,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3610,32 +7636,32 @@
     <row r="7" spans="2:12">
       <c r="B7" s="50"/>
       <c r="C7" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="58"/>
-      <c r="E7" s="136" t="s">
-        <v>66</v>
+      <c r="E7" s="134" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -3654,7 +7680,7 @@
     <row r="9" spans="2:12">
       <c r="B9" s="50"/>
       <c r="C9" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="108"/>
@@ -3684,26 +7710,26 @@
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="111"/>
       <c r="G11" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="L11" s="122" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -3711,25 +7737,25 @@
       <c r="C12" s="113"/>
       <c r="D12" s="62"/>
       <c r="E12" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>99</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -3737,6 +7763,73 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="50"/>
+      <c r="C14" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="45">
+        <v>2011</v>
+      </c>
+      <c r="I14" s="45">
+        <v>2011</v>
+      </c>
+      <c r="J14" s="173">
+        <v>42309</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="E15" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="45">
+        <v>2014</v>
+      </c>
+      <c r="I15" s="45">
+        <v>2013</v>
+      </c>
+      <c r="J15" s="173">
+        <v>42309</v>
+      </c>
+      <c r="K15" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="45">
+        <v>2011</v>
+      </c>
+      <c r="I16" s="45">
+        <v>2011</v>
+      </c>
+      <c r="J16" s="173">
+        <v>42309</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3749,12 +7842,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y219"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3763,9 +7856,13 @@
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
     <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="98"/>
+    <col min="7" max="7" width="7.125" style="98" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="7" style="98"/>
+    <col min="9" max="17" width="7" style="98"/>
+    <col min="18" max="18" width="9.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="7" style="98"/>
+    <col min="22" max="22" width="9.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="16" thickBot="1"/>
@@ -3775,7 +7872,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="102"/>
       <c r="F2" s="102" t="s">
@@ -3821,8 +7918,8 @@
     </row>
     <row r="4" spans="2:25" customFormat="1" ht="16">
       <c r="B4" s="99"/>
-      <c r="C4" s="136" t="s">
-        <v>66</v>
+      <c r="C4" s="134" t="s">
+        <v>65</v>
       </c>
       <c r="D4" s="108"/>
       <c r="E4" s="108"/>
@@ -3878,8 +7975,8 @@
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
       <c r="E6" s="108"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="109"/>
       <c r="I6" s="108"/>
       <c r="J6" s="108"/>
@@ -3903,9 +8000,9 @@
       <c r="B7" s="99"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="109"/>
       <c r="I7" s="108"/>
       <c r="J7" s="108"/>
@@ -3929,9 +8026,9 @@
       <c r="B8" s="99"/>
       <c r="C8" s="108"/>
       <c r="D8" s="108"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="127"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="125"/>
       <c r="H8" s="109"/>
       <c r="I8" s="108"/>
       <c r="J8" s="108"/>
@@ -3955,9 +8052,9 @@
       <c r="B9" s="99"/>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="109"/>
       <c r="I9" s="108"/>
       <c r="J9" s="108"/>
@@ -3982,8 +8079,8 @@
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
       <c r="E10" s="108"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="108"/>
       <c r="I10" s="108"/>
       <c r="J10" s="108"/>
@@ -4034,8 +8131,8 @@
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="109"/>
       <c r="I12" s="108"/>
       <c r="J12" s="108"/>
@@ -4059,9 +8156,9 @@
       <c r="B13" s="99"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="109"/>
       <c r="I13" s="108"/>
       <c r="J13" s="108"/>
@@ -4085,9 +8182,9 @@
       <c r="B14" s="99"/>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="127"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="109"/>
       <c r="I14" s="108"/>
       <c r="J14" s="108"/>
@@ -4111,9 +8208,9 @@
       <c r="B15" s="99"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="109"/>
       <c r="J15" s="108"/>
       <c r="K15" s="108"/>
@@ -4137,8 +8234,8 @@
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="108"/>
       <c r="J16" s="108"/>
       <c r="K16" s="108"/>
@@ -4162,8 +8259,8 @@
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="109"/>
       <c r="I17" s="108"/>
       <c r="J17" s="108"/>
@@ -4187,9 +8284,9 @@
       <c r="B18" s="99"/>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="109"/>
       <c r="I18" s="108"/>
       <c r="J18" s="108"/>
@@ -4213,9 +8310,9 @@
       <c r="B19" s="99"/>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="127"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="109"/>
       <c r="I19" s="108"/>
       <c r="J19" s="108"/>
@@ -4239,9 +8336,9 @@
       <c r="B20" s="99"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="109"/>
       <c r="J20" s="108"/>
       <c r="K20" s="108"/>
@@ -4265,8 +8362,8 @@
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
       <c r="E21" s="108"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="108"/>
       <c r="J21" s="108"/>
       <c r="K21" s="108"/>
@@ -4291,14 +8388,14 @@
       <c r="D22" s="108">
         <v>7</v>
       </c>
-      <c r="F22" s="127">
+      <c r="F22" s="125">
         <v>49.5</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="109" t="s">
         <v>46</v>
-      </c>
-      <c r="H22" s="109" t="s">
-        <v>47</v>
       </c>
       <c r="J22" s="108"/>
       <c r="K22" s="108"/>
@@ -4321,14 +8418,14 @@
       <c r="B23" s="99"/>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
-      <c r="F23" s="137">
+      <c r="F23" s="135">
         <v>432</v>
       </c>
-      <c r="G23" s="127" t="s">
-        <v>65</v>
+      <c r="G23" s="125" t="s">
+        <v>64</v>
       </c>
       <c r="H23" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="108"/>
       <c r="K23" s="108"/>
@@ -4351,15 +8448,15 @@
       <c r="B24" s="99"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
-      <c r="F24" s="137">
+      <c r="F24" s="135">
         <f>F23/1000</f>
         <v>0.432</v>
       </c>
-      <c r="G24" s="127" t="s">
-        <v>50</v>
+      <c r="G24" s="125" t="s">
+        <v>49</v>
       </c>
       <c r="H24" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="108"/>
       <c r="K24" s="108"/>
@@ -4382,15 +8479,15 @@
       <c r="B25" s="99"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
-      <c r="F25" s="127">
+      <c r="F25" s="125">
         <f>F22*F24</f>
         <v>21.384</v>
       </c>
-      <c r="G25" s="127" t="s">
-        <v>48</v>
+      <c r="G25" s="125" t="s">
+        <v>47</v>
       </c>
       <c r="H25" s="109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="108"/>
       <c r="K25" s="108"/>
@@ -4413,14 +8510,14 @@
       <c r="B26" s="99"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
-      <c r="F26" s="127">
+      <c r="F26" s="125">
         <v>55.9</v>
       </c>
-      <c r="G26" s="127" t="s">
-        <v>64</v>
+      <c r="G26" s="125" t="s">
+        <v>63</v>
       </c>
       <c r="H26" s="108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="108"/>
       <c r="K26" s="108"/>
@@ -4447,11 +8544,11 @@
         <f>F26/1000</f>
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="G27" s="127" t="s">
+      <c r="G27" s="125" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" s="108"/>
       <c r="K27" s="108"/>
@@ -4495,7 +8592,7 @@
       <c r="B29" s="99"/>
       <c r="D29" s="108"/>
       <c r="E29" s="108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J29" s="108"/>
     </row>
@@ -4503,7 +8600,7 @@
       <c r="B30" s="99"/>
       <c r="D30" s="108"/>
       <c r="E30" s="108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J30" s="108"/>
     </row>
@@ -4512,47 +8609,47 @@
     </row>
     <row r="32" spans="2:25" customFormat="1" ht="16">
       <c r="B32" s="99"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
       <c r="H32" s="109"/>
     </row>
-    <row r="33" spans="2:8" customFormat="1" ht="16">
+    <row r="33" spans="2:18" customFormat="1" ht="16">
       <c r="B33" s="99"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="127"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="125"/>
       <c r="H33" s="109"/>
     </row>
-    <row r="34" spans="2:8" customFormat="1" ht="16">
+    <row r="34" spans="2:18" customFormat="1" ht="16">
       <c r="B34" s="99"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="109"/>
     </row>
-    <row r="35" spans="2:8" customFormat="1" ht="16">
+    <row r="35" spans="2:18" customFormat="1" ht="16">
       <c r="B35" s="99"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="2:8" customFormat="1" ht="16">
+    <row r="36" spans="2:18" customFormat="1" ht="16">
       <c r="B36" s="99"/>
       <c r="F36">
         <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" customFormat="1" ht="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" customFormat="1" ht="16">
       <c r="B37" s="99"/>
       <c r="F37">
         <v>1000</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" customFormat="1" ht="16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" customFormat="1" ht="16">
       <c r="B38" s="99"/>
       <c r="E38" s="108"/>
       <c r="F38">
@@ -4560,10 +8657,10 @@
         <v>49500</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" customFormat="1" ht="16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" customFormat="1" ht="16">
       <c r="B39" s="99"/>
       <c r="E39" s="108"/>
       <c r="F39">
@@ -4571,68 +8668,303 @@
         <v>5.9595959595959598E-3</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" customFormat="1" ht="16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" customFormat="1" ht="16">
       <c r="B40" s="99"/>
-    </row>
-    <row r="41" spans="2:8" customFormat="1" ht="16">
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="98"/>
+    </row>
+    <row r="41" spans="2:18" customFormat="1" ht="16">
       <c r="B41" s="99"/>
-    </row>
-    <row r="42" spans="2:8" customFormat="1" ht="16">
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="98"/>
+    </row>
+    <row r="42" spans="2:18" customFormat="1" ht="16">
       <c r="B42" s="99"/>
-    </row>
-    <row r="43" spans="2:8" customFormat="1" ht="16">
+      <c r="G42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98"/>
+    </row>
+    <row r="43" spans="2:18" customFormat="1" ht="16">
       <c r="B43" s="99"/>
-    </row>
-    <row r="44" spans="2:8" customFormat="1" ht="16">
+      <c r="F43">
+        <f>F42*3600</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="98"/>
+    </row>
+    <row r="44" spans="2:18" customFormat="1" ht="16">
       <c r="B44" s="99"/>
-    </row>
-    <row r="45" spans="2:8" customFormat="1" ht="16">
+      <c r="F44">
+        <f>F43*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
+    </row>
+    <row r="45" spans="2:18" customFormat="1" ht="16">
       <c r="B45" s="99"/>
-    </row>
-    <row r="46" spans="2:8" customFormat="1" ht="16">
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="98"/>
+      <c r="R45" s="98"/>
+    </row>
+    <row r="46" spans="2:18" customFormat="1" ht="16">
       <c r="B46" s="99"/>
-    </row>
-    <row r="47" spans="2:8" customFormat="1" ht="16">
+      <c r="F46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G46">
+        <f>F46*3600*1000</f>
+        <v>54000</v>
+      </c>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+    </row>
+    <row r="47" spans="2:18" customFormat="1" ht="16">
       <c r="B47" s="99"/>
-    </row>
-    <row r="48" spans="2:8" customFormat="1" ht="16">
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+    </row>
+    <row r="48" spans="2:18" customFormat="1" ht="16">
       <c r="B48" s="99"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
     </row>
     <row r="49" spans="2:25" customFormat="1" ht="16">
       <c r="B49" s="99"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="98"/>
+      <c r="Q49" s="98"/>
+      <c r="R49" s="98"/>
     </row>
     <row r="50" spans="2:25" customFormat="1" ht="16">
       <c r="B50" s="99"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="98"/>
+      <c r="S50" s="98"/>
+      <c r="T50" s="98"/>
+      <c r="U50" s="98"/>
+      <c r="V50" s="98"/>
     </row>
     <row r="51" spans="2:25" customFormat="1" ht="16">
       <c r="B51" s="99"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
+      <c r="V51" s="98"/>
     </row>
     <row r="52" spans="2:25" customFormat="1" ht="16">
       <c r="B52" s="99"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="98"/>
     </row>
     <row r="53" spans="2:25" customFormat="1" ht="16">
       <c r="B53" s="99"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
     </row>
     <row r="54" spans="2:25" customFormat="1" ht="16">
       <c r="B54" s="99"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
     </row>
     <row r="55" spans="2:25" customFormat="1" ht="16">
       <c r="B55" s="99"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="98"/>
     </row>
     <row r="56" spans="2:25" customFormat="1" ht="16">
       <c r="B56" s="99"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="98"/>
     </row>
     <row r="57" spans="2:25" customFormat="1" ht="16">
       <c r="B57" s="99"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
+      <c r="R57" s="98"/>
     </row>
     <row r="58" spans="2:25" customFormat="1" ht="16">
       <c r="B58" s="99"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="98"/>
     </row>
     <row r="59" spans="2:25" customFormat="1" ht="16">
       <c r="B59" s="99"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
     </row>
     <row r="60" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B60" s="99"/>
@@ -4643,7 +8975,7 @@
         <v>24</v>
       </c>
       <c r="D61" s="102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" s="102"/>
       <c r="F61" s="102" t="s">
@@ -4668,7 +9000,7 @@
     <row r="62" spans="2:25" customFormat="1" ht="16">
       <c r="B62" s="99"/>
       <c r="C62" s="108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" s="108"/>
       <c r="E62" s="108"/>
@@ -4699,13 +9031,13 @@
     <row r="64" spans="2:25" customFormat="1" ht="16">
       <c r="B64" s="99"/>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F64">
         <v>6.55</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:9" customFormat="1" ht="16">
@@ -4714,25 +9046,25 @@
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65">
         <v>6.3</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:9" customFormat="1" ht="16">
       <c r="B66" s="99"/>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66">
         <v>6.41</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:9" customFormat="1" ht="16">
@@ -4742,7 +9074,7 @@
         <v>6.419999999999999</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:9" customFormat="1" ht="16">
@@ -4752,7 +9084,7 @@
         <v>6.084985927522225E-3</v>
       </c>
       <c r="G68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:9" customFormat="1" ht="16">
@@ -4760,46 +9092,46 @@
     </row>
     <row r="70" spans="2:9" customFormat="1" ht="16">
       <c r="B70" s="99"/>
-      <c r="D70" s="150"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150">
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148">
         <f>Exchange_rates!E9</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="G70" s="150" t="s">
-        <v>92</v>
+      <c r="G70" s="148" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:9" customFormat="1" ht="16">
       <c r="B71" s="99"/>
-      <c r="D71" s="150"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="150">
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148">
         <f>1/F70</f>
         <v>0.91074681238615662</v>
       </c>
-      <c r="G71" s="150" t="s">
-        <v>78</v>
+      <c r="G71" s="148" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="2:9" customFormat="1" ht="16">
       <c r="B72" s="99"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="149"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="146"/>
+      <c r="H72" s="147"/>
     </row>
     <row r="73" spans="2:9" customFormat="1" ht="16">
       <c r="B73" s="99"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="150">
+      <c r="D73" s="148"/>
+      <c r="E73" s="148"/>
+      <c r="F73" s="148">
         <f>F68*F71</f>
         <v>5.5418815369054873E-3</v>
       </c>
-      <c r="G73" s="150" t="s">
-        <v>79</v>
+      <c r="G73" s="148" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:9" customFormat="1" ht="16">
@@ -4810,7 +9142,7 @@
     </row>
     <row r="76" spans="2:9" customFormat="1" ht="16">
       <c r="B76" s="99"/>
-      <c r="I76" s="151"/>
+      <c r="I76" s="149"/>
     </row>
     <row r="77" spans="2:9" customFormat="1" ht="16">
       <c r="B77" s="99"/>
@@ -4842,7 +9174,7 @@
         <v>24</v>
       </c>
       <c r="D85" s="102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85" s="102"/>
       <c r="F85" s="102" t="s">
@@ -4892,8 +9224,8 @@
     </row>
     <row r="87" spans="2:25" customFormat="1" ht="16">
       <c r="B87" s="99"/>
-      <c r="C87" s="125" t="s">
-        <v>96</v>
+      <c r="C87" s="123" t="s">
+        <v>95</v>
       </c>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
@@ -4920,7 +9252,7 @@
     </row>
     <row r="88" spans="2:25" customFormat="1" ht="16">
       <c r="B88" s="99"/>
-      <c r="C88" s="124"/>
+      <c r="C88" s="122"/>
       <c r="D88" s="108"/>
       <c r="E88" s="108"/>
       <c r="F88" s="108"/>
@@ -4998,7 +9330,7 @@
     <row r="91" spans="2:25" customFormat="1" ht="16">
       <c r="B91" s="99"/>
       <c r="C91" s="108"/>
-      <c r="D91" s="126"/>
+      <c r="D91" s="124"/>
       <c r="F91" s="108"/>
       <c r="G91" s="108"/>
       <c r="O91" s="108"/>
@@ -5039,7 +9371,7 @@
         <v>295</v>
       </c>
       <c r="G93" s="108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O93" s="108"/>
       <c r="P93" s="108"/>
@@ -5062,7 +9394,7 @@
         <v>5.9595959595959589E-3</v>
       </c>
       <c r="G94" s="108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O94" s="108"/>
       <c r="P94" s="108"/>
@@ -5099,14 +9431,14 @@
       <c r="C96" s="108"/>
       <c r="D96" s="108"/>
       <c r="E96" s="108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F96" s="108">
         <f>AVERAGE(F94,F73)</f>
         <v>5.7507387482507236E-3</v>
       </c>
       <c r="G96" s="108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O96" s="108"/>
       <c r="P96" s="108"/>
@@ -6053,7 +10385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -6074,78 +10406,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="A1" s="138"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="140"/>
-      <c r="B2" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="192" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="140"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="140"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="140"/>
-      <c r="B6" s="142"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="143"/>
+      <c r="I6" s="141"/>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="41"/>
       <c r="B7" s="90"/>
       <c r="C7" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>4</v>
@@ -6157,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
@@ -6171,23 +10503,23 @@
     <row r="9" spans="1:9" ht="19" thickBot="1">
       <c r="A9" s="41"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="143">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F9" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="145">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="144" t="s">
+      <c r="G9" s="144">
+        <v>42221</v>
+      </c>
+      <c r="H9" s="145" t="s">
         <v>90</v>
-      </c>
-      <c r="G9" s="146">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="147" t="s">
-        <v>91</v>
       </c>
       <c r="I9" s="42"/>
     </row>
@@ -6202,4 +10534,1180 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
+      <c r="B2" s="36"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="90"/>
+      <c r="C3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="M4" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="125">
+        <v>12</v>
+      </c>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+    </row>
+    <row r="5" spans="2:16" ht="17" thickBot="1">
+      <c r="B5" s="23"/>
+      <c r="C5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="M5" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="125">
+        <v>1.008</v>
+      </c>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+    </row>
+    <row r="6" spans="2:16" ht="17" thickBot="1">
+      <c r="B6" s="23"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="120">
+        <v>96.78</v>
+      </c>
+      <c r="M6" s="171" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="171">
+        <v>16</v>
+      </c>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1">
+      <c r="B7" s="23"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="120">
+        <v>2.78</v>
+      </c>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+    </row>
+    <row r="8" spans="2:16" ht="17" thickBot="1">
+      <c r="B8" s="23"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0.37</v>
+      </c>
+      <c r="M8" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+    </row>
+    <row r="9" spans="2:16" ht="17" thickBot="1">
+      <c r="B9" s="23"/>
+      <c r="C9" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0.06</v>
+      </c>
+      <c r="M9" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="125">
+        <v>0.74850299399999998</v>
+      </c>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+    </row>
+    <row r="10" spans="2:16" ht="17" thickBot="1">
+      <c r="B10" s="23"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="22"/>
+      <c r="G10" s="121">
+        <f>F6*$N$9+F7*$N$10+F8*$N$11+F9*$N$12</f>
+        <v>75.012441402959993</v>
+      </c>
+      <c r="H10" s="121">
+        <f>G10*10/$N$4</f>
+        <v>62.510367835799997</v>
+      </c>
+      <c r="I10" s="121">
+        <f>H10*($N$4+2*$N$6)/1000</f>
+        <v>2.7504561847751998</v>
+      </c>
+      <c r="J10" s="112">
+        <f>I10/M$15</f>
+        <v>5.5564771409599999E-2</v>
+      </c>
+      <c r="M10" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="125">
+        <v>0.79872204499999999</v>
+      </c>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="23"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="M11" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="125">
+        <v>0.81699346399999995</v>
+      </c>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+    </row>
+    <row r="12" spans="2:16" ht="17" thickBot="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="M12" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="125">
+        <v>0.82644628099999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="120">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="17" thickBot="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="120">
+        <v>5.75</v>
+      </c>
+      <c r="M14" s="125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="17" thickBot="1">
+      <c r="B15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="120">
+        <v>1.31</v>
+      </c>
+      <c r="M15" s="125">
+        <f>'Research data'!G8</f>
+        <v>49.5</v>
+      </c>
+      <c r="N15" s="125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="17" thickBot="1">
+      <c r="B16" s="23"/>
+      <c r="C16" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="120">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1">
+      <c r="B17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="121">
+        <f>F13*$N$9+F14*$N$10+F15*$N$11+F16*$N$12</f>
+        <v>74.919544560860004</v>
+      </c>
+      <c r="H17" s="121">
+        <f>G17*10/$N$4</f>
+        <v>62.432953800716668</v>
+      </c>
+      <c r="I17" s="121">
+        <f>H17*($N$4+2*$N$6)/1000</f>
+        <v>2.7470499672315332</v>
+      </c>
+      <c r="J17" s="112">
+        <f>I17/M$15</f>
+        <v>5.5495958933970364E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="M18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="23"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="23"/>
+      <c r="C20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="120">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="17" thickBot="1">
+      <c r="B22" s="23"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="120">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="B23" s="23"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="120">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1">
+      <c r="B24" s="23"/>
+      <c r="C24" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="120">
+        <v>0.74</v>
+      </c>
+      <c r="K24" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="208"/>
+    </row>
+    <row r="25" spans="2:13" ht="17" thickBot="1">
+      <c r="B25" s="23"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="22"/>
+      <c r="G25" s="121">
+        <f>F21*$N$9+F22*$N$10+F23*$N$11+F24*$N$12</f>
+        <v>75.14996933207</v>
+      </c>
+      <c r="H25" s="121">
+        <f>G25*10/$N$4</f>
+        <v>62.624974443391665</v>
+      </c>
+      <c r="I25" s="121">
+        <f>H25*($N$4+2*$N$6)/1000</f>
+        <v>2.7554988755092333</v>
+      </c>
+      <c r="J25" s="112">
+        <f>I25/M$15</f>
+        <v>5.5666643949681481E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="23"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:13" ht="17" thickBot="1">
+      <c r="B27" s="23"/>
+      <c r="C27" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+    </row>
+    <row r="28" spans="2:13" ht="17" thickBot="1">
+      <c r="B28" s="23"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="183">
+        <v>91.4</v>
+      </c>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+    </row>
+    <row r="29" spans="2:13" ht="17" thickBot="1">
+      <c r="B29" s="23"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="187">
+        <v>7.35</v>
+      </c>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+    </row>
+    <row r="30" spans="2:13" ht="17" thickBot="1">
+      <c r="B30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="183">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+    </row>
+    <row r="31" spans="2:13" ht="17" thickBot="1">
+      <c r="B31" s="23"/>
+      <c r="C31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="183">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="182"/>
+    </row>
+    <row r="32" spans="2:13" ht="17" thickBot="1">
+      <c r="B32" s="23"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="185">
+        <f>F28*$N$9+F29*$N$10+F30*$N$11+F31*$N$12</f>
+        <v>74.790789270880012</v>
+      </c>
+      <c r="H32" s="185">
+        <f>G32*10/$N$4</f>
+        <v>62.325657725733343</v>
+      </c>
+      <c r="I32" s="185">
+        <f>H32*($N$4+2*$N$6)/1000</f>
+        <v>2.7423289399322672</v>
+      </c>
+      <c r="J32" s="186">
+        <f>I32/M$15</f>
+        <v>5.5400584645096305E-2</v>
+      </c>
+      <c r="L32" s="208"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="23"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="23"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="2:12" ht="17" thickBot="1">
+      <c r="B35" s="23"/>
+      <c r="C35" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="2:12" ht="17" thickBot="1">
+      <c r="B36" s="23"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="120">
+        <v>89.55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="17" thickBot="1">
+      <c r="B37" s="23"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="120">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K37" s="188"/>
+    </row>
+    <row r="38" spans="2:12" ht="17" thickBot="1">
+      <c r="B38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="120">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="17" thickBot="1">
+      <c r="B39" s="23"/>
+      <c r="C39" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="120">
+        <v>0.31</v>
+      </c>
+      <c r="K39" s="208" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="17" thickBot="1">
+      <c r="B40" s="23"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="22"/>
+      <c r="G40" s="121">
+        <f>F36*$N$9+F37*$N$10+F38*$N$11+F39*$N$12</f>
+        <v>74.896253732009981</v>
+      </c>
+      <c r="H40" s="121">
+        <f>G40*10/$N$4</f>
+        <v>62.413544776674989</v>
+      </c>
+      <c r="I40" s="121">
+        <f>H40*($N$4+2*$N$6)/1000</f>
+        <v>2.7461959701736998</v>
+      </c>
+      <c r="J40" s="112">
+        <f>I40/M$15</f>
+        <v>5.5478706468155552E-2</v>
+      </c>
+      <c r="L40" s="208"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="23"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="2:12" ht="17" thickBot="1">
+      <c r="B42" s="23"/>
+      <c r="C42" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:12" ht="17" thickBot="1">
+      <c r="B43" s="23"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="120">
+        <v>88.93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="17" thickBot="1">
+      <c r="B44" s="23"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="120">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="17" thickBot="1">
+      <c r="B45" s="23"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="120">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="17" thickBot="1">
+      <c r="B46" s="23"/>
+      <c r="C46" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="120">
+        <v>0.37</v>
+      </c>
+      <c r="K46" s="207" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="17" thickBot="1">
+      <c r="B47" s="23"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="22"/>
+      <c r="G47" s="121">
+        <f>F43*$N$9+F44*$N$10+F45*$N$11+F46*$N$12</f>
+        <v>74.894415607050007</v>
+      </c>
+      <c r="H47" s="121">
+        <f>G47*10/$N$4</f>
+        <v>62.412013005875004</v>
+      </c>
+      <c r="I47" s="121">
+        <f>H47*($N$4+2*$N$6)/1000</f>
+        <v>2.7461285722585003</v>
+      </c>
+      <c r="J47" s="112">
+        <f>I47/M$15</f>
+        <v>5.5477344894111116E-2</v>
+      </c>
+      <c r="L47" s="207"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="23"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="2:13" ht="17" thickBot="1">
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="36"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="90"/>
+      <c r="C51" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="17" thickBot="1">
+      <c r="B52" s="23"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="2:13" ht="17" thickBot="1">
+      <c r="B53" s="23"/>
+      <c r="C53" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="120">
+        <f>E76</f>
+        <v>4061</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="181">
+        <f>F53/F55*E67</f>
+        <v>1.5836063016690064E-3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="17" thickBot="1">
+      <c r="B54" s="23"/>
+      <c r="C54" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="120">
+        <f t="shared" ref="F54:F55" si="0">E77</f>
+        <v>1341</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="181">
+        <f>F54/F55*E67</f>
+        <v>5.2292934019653728E-4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="17" thickBot="1">
+      <c r="B55" s="23"/>
+      <c r="C55" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="120">
+        <f t="shared" si="0"/>
+        <v>6411</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="181">
+        <f>$E$67</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="17" thickBot="1">
+      <c r="B56" s="23"/>
+      <c r="C56" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="120">
+        <f>E83</f>
+        <v>1694.2346263008515</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="181">
+        <f>F56/F55*E67</f>
+        <v>6.6067486597287922E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="23"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="23"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="M63" s="207"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="E67">
+        <f>0.0025</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76">
+        <v>4061</v>
+      </c>
+      <c r="F76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77">
+        <v>1341</v>
+      </c>
+      <c r="F77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78">
+        <f>6411</f>
+        <v>6411</v>
+      </c>
+      <c r="F78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79">
+        <v>6342</v>
+      </c>
+      <c r="F79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82">
+        <v>1676</v>
+      </c>
+      <c r="F82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83">
+        <f>E82*E78/E79</f>
+        <v>1694.2346263008515</v>
+      </c>
+      <c r="F83" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="D91">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="D96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97">
+        <v>0.22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="D98" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98">
+        <v>0.31</v>
+      </c>
+      <c r="F98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6">
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" t="s">
+        <v>188</v>
+      </c>
+      <c r="E100">
+        <v>0.53</v>
+      </c>
+      <c r="F100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104">
+        <f>E96/$E$100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105:E107" si="1">E97/$E$100</f>
+        <v>0.41509433962264147</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="D106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0.58490566037735847</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/carriers_source_analyses/lng.carrier.xlsx
+++ b/carriers_source_analyses/lng.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="194">
   <si>
     <t>Source</t>
   </si>
@@ -417,9 +418,6 @@
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
-  </si>
-  <si>
     <t>Fuel Chain Emissions (only for NL)</t>
   </si>
   <si>
@@ -667,6 +665,34 @@
   </si>
   <si>
     <t>MT</t>
+  </si>
+  <si>
+    <r>
+      <t>co2_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>treatment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>co2_waste_treatment_per_mj</t>
   </si>
 </sst>
 </file>
@@ -684,12 +710,19 @@
     <numFmt numFmtId="171" formatCode="0.00000"/>
     <numFmt numFmtId="172" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1382,820 +1415,828 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="489">
+  <cellStyleXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="27" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="26" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="489">
+  <cellStyles count="494">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2595,6 +2636,11 @@
     <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2700,6 +2746,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2708,14 +2758,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2754,6 +2804,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>203200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3987800</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3333,6 +3444,25 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
       <sheetName val="nl_fce"/>
       <sheetName val="Research data"/>
       <sheetName val="Sources"/>
@@ -3997,9 +4127,7 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4023,28 +4151,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -4234,19 +4362,42 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_fce">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3987800</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4271,11 +4422,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -4302,12 +4451,12 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="153"/>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="154"/>
       <c r="G2" s="154"/>
       <c r="H2" s="153"/>
@@ -4316,10 +4465,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="153"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="154"/>
       <c r="G3" s="154"/>
       <c r="H3" s="153"/>
@@ -4328,12 +4477,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="153"/>
-      <c r="B4" s="201" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="206"/>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
       <c r="H4" s="153"/>
@@ -4402,7 +4549,7 @@
       <c r="A9" s="153"/>
       <c r="B9" s="157"/>
       <c r="C9" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="158"/>
       <c r="E9" s="159"/>
@@ -4416,7 +4563,7 @@
       <c r="A10" s="153"/>
       <c r="B10" s="157"/>
       <c r="C10" s="161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="161"/>
       <c r="E10" s="161"/>
@@ -4427,12 +4574,10 @@
       <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1">
-      <c r="A11" s="153">
-        <v>3</v>
-      </c>
+      <c r="A11" s="153"/>
       <c r="B11" s="157"/>
       <c r="C11" s="162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>40</v>
@@ -4443,11 +4588,11 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="161"/>
       <c r="I11" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J11" s="160"/>
     </row>
@@ -4455,7 +4600,7 @@
       <c r="A12" s="153"/>
       <c r="B12" s="157"/>
       <c r="C12" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>40</v>
@@ -4466,19 +4611,19 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="161"/>
       <c r="I12" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1">
       <c r="A13" s="153"/>
       <c r="B13" s="157"/>
-      <c r="C13" s="162" t="s">
-        <v>150</v>
+      <c r="C13" s="194" t="s">
+        <v>192</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>40</v>
@@ -4489,11 +4634,11 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="161"/>
       <c r="I13" s="164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="160"/>
     </row>
@@ -4501,7 +4646,7 @@
       <c r="A14" s="153"/>
       <c r="B14" s="157"/>
       <c r="C14" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>40</v>
@@ -4512,11 +4657,11 @@
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="161"/>
       <c r="I14" s="164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="160"/>
     </row>
@@ -4535,11 +4680,11 @@
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="161"/>
       <c r="I15" s="164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="160"/>
     </row>
@@ -4547,43 +4692,49 @@
       <c r="A16" s="153"/>
       <c r="B16" s="157"/>
       <c r="C16" s="162" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="163">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="161"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="160"/>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1">
+      <c r="A17" s="153"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="163">
+      <c r="E17" s="163">
         <f>'Research data'!G21</f>
         <v>0</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="161" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="164" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="160"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="153"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
+      <c r="I17" s="164" t="s">
+        <v>153</v>
+      </c>
       <c r="J17" s="160"/>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="153"/>
       <c r="B18" s="157"/>
-      <c r="C18" s="161" t="s">
-        <v>156</v>
-      </c>
+      <c r="C18" s="161"/>
       <c r="D18" s="161"/>
       <c r="E18" s="161"/>
       <c r="F18" s="161"/>
@@ -4595,46 +4746,37 @@
     <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="A19" s="153"/>
       <c r="B19" s="157"/>
-      <c r="C19" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="163">
-        <f>'Research data'!G25</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="161" t="s">
-        <v>112</v>
-      </c>
+      <c r="C19" s="161" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="161"/>
-      <c r="I19" s="164" t="s">
-        <v>180</v>
-      </c>
+      <c r="I19" s="161"/>
       <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1">
       <c r="A20" s="153"/>
       <c r="B20" s="157"/>
       <c r="C20" s="162" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="163">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G25</f>
         <v>0</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="161"/>
       <c r="I20" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" s="160"/>
     </row>
@@ -4642,45 +4784,45 @@
       <c r="A21" s="153"/>
       <c r="B21" s="157"/>
       <c r="C21" s="162" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="163">
-        <f>'Research data'!G27+'Research data'!G28</f>
-        <v>4.8999999999999998E-3</v>
+        <f>'Research data'!G26</f>
+        <v>0</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="161"/>
       <c r="I21" s="164" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1">
       <c r="A22" s="153"/>
       <c r="B22" s="157"/>
-      <c r="C22" s="162" t="s">
-        <v>116</v>
+      <c r="C22" s="194" t="s">
+        <v>192</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="163">
-        <f>'Research data'!G29 + 'Research data'!G30</f>
-        <v>1.4229293401965373E-3</v>
+        <f>'Research data'!G27+'Research data'!G28</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="161"/>
       <c r="I22" s="164" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="J22" s="160"/>
     </row>
@@ -4688,22 +4830,22 @@
       <c r="A23" s="153"/>
       <c r="B23" s="157"/>
       <c r="C23" s="162" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="163">
-        <f>'Research data'!G31</f>
-        <v>5.5495958933970364E-2</v>
+        <f>'Research data'!G29 + 'Research data'!G30</f>
+        <v>1.4229293401965373E-3</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="161"/>
       <c r="I23" s="164" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="J23" s="160"/>
     </row>
@@ -4711,119 +4853,116 @@
       <c r="A24" s="153"/>
       <c r="B24" s="157"/>
       <c r="C24" s="162" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E24" s="163">
-        <f>'Research data'!G32</f>
-        <v>0.41509433962264147</v>
+        <f>'Research data'!G31</f>
+        <v>5.5495958933970364E-2</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="161"/>
       <c r="I24" s="164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="160"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="17" thickBot="1">
       <c r="A25" s="153"/>
       <c r="B25" s="157"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="C25" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="163">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
+      <c r="I25" s="164"/>
       <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="A26" s="153"/>
       <c r="B26" s="157"/>
-      <c r="C26" s="161" t="s">
-        <v>143</v>
+      <c r="C26" s="162" t="s">
+        <v>116</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="163">
+        <f>'Research data'!G32</f>
+        <v>0.41509433962264147</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
+      <c r="I26" s="164" t="s">
+        <v>153</v>
+      </c>
       <c r="J26" s="160"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="153"/>
       <c r="B27" s="157"/>
-      <c r="C27" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="163">
-        <f>'Research data'!G36</f>
-        <v>0</v>
-      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="161"/>
-      <c r="G27" s="161" t="s">
-        <v>112</v>
-      </c>
+      <c r="G27" s="161"/>
       <c r="H27" s="161"/>
-      <c r="I27" s="164" t="s">
-        <v>180</v>
-      </c>
+      <c r="I27" s="161"/>
       <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="A28" s="153"/>
       <c r="B28" s="157"/>
-      <c r="C28" s="162" t="s">
-        <v>114</v>
+      <c r="C28" s="161" t="s">
+        <v>142</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="163">
-        <f>'Research data'!G37</f>
-        <v>0</v>
-      </c>
+      <c r="E28" s="161"/>
       <c r="F28" s="161"/>
-      <c r="G28" s="161" t="s">
-        <v>112</v>
-      </c>
+      <c r="G28" s="161"/>
       <c r="H28" s="161"/>
-      <c r="I28" s="164" t="s">
-        <v>180</v>
-      </c>
+      <c r="I28" s="161"/>
       <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1">
       <c r="A29" s="153"/>
       <c r="B29" s="157"/>
-      <c r="C29" s="191" t="s">
-        <v>115</v>
+      <c r="C29" s="162" t="s">
+        <v>110</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="163">
-        <f>'Research data'!G38+'Research data'!G39</f>
-        <v>4.8999999999999998E-3</v>
+        <f>'Research data'!G36</f>
+        <v>0</v>
       </c>
       <c r="F29" s="161"/>
       <c r="G29" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="161"/>
       <c r="I29" s="164" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J29" s="160"/>
     </row>
@@ -4831,41 +4970,41 @@
       <c r="A30" s="153"/>
       <c r="B30" s="157"/>
       <c r="C30" s="162" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="163">
-        <f>'Research data'!G40+'Research data'!G41</f>
-        <v>3.4000000000000002E-3</v>
+        <f>'Research data'!G37</f>
+        <v>0</v>
       </c>
       <c r="F30" s="161"/>
       <c r="G30" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="161"/>
       <c r="I30" s="164" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="153"/>
       <c r="B31" s="157"/>
-      <c r="C31" s="162" t="s">
-        <v>37</v>
+      <c r="C31" s="191" t="s">
+        <v>114</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="163">
-        <f>'Research data'!G42</f>
-        <v>5.5666643949681481E-2</v>
+        <f>'Research data'!G38+'Research data'!G39</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F31" s="161"/>
       <c r="G31" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" s="161"/>
       <c r="I31" s="164" t="s">
@@ -4877,140 +5016,137 @@
       <c r="A32" s="153"/>
       <c r="B32" s="157"/>
       <c r="C32" s="162" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E32" s="163">
-        <f>'Research data'!G43</f>
-        <v>0.58490566037735847</v>
+        <f>'Research data'!G40+'Research data'!G41</f>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="F32" s="161"/>
       <c r="G32" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="161"/>
       <c r="I32" s="164" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="J32" s="160"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="153"/>
       <c r="B33" s="157"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="163">
+        <f>'Research data'!G42</f>
+        <v>5.5666643949681481E-2</v>
+      </c>
       <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
+      <c r="G33" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H33" s="161"/>
-      <c r="I33" s="154"/>
+      <c r="I33" s="164" t="s">
+        <v>153</v>
+      </c>
       <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="153"/>
       <c r="B34" s="157"/>
-      <c r="C34" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
+      <c r="C34" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="163">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
+      <c r="I34" s="164"/>
       <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="153"/>
       <c r="B35" s="157"/>
-      <c r="C35" s="191" t="s">
-        <v>111</v>
+      <c r="C35" s="162" t="s">
+        <v>116</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E35" s="163">
-        <f>'Research data'!G47</f>
-        <v>0</v>
+        <f>'Research data'!G43</f>
+        <v>0.58490566037735847</v>
       </c>
       <c r="F35" s="161"/>
       <c r="G35" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="164" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J35" s="160"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="153"/>
       <c r="B36" s="157"/>
-      <c r="C36" s="191" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="163">
-        <f>'Research data'!G48</f>
-        <v>0</v>
-      </c>
+      <c r="C36" s="162"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="166"/>
       <c r="F36" s="161"/>
-      <c r="G36" s="161" t="s">
-        <v>112</v>
-      </c>
+      <c r="G36" s="161"/>
       <c r="H36" s="161"/>
-      <c r="I36" s="164" t="s">
-        <v>180</v>
-      </c>
+      <c r="I36" s="154"/>
       <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="153"/>
       <c r="B37" s="157"/>
-      <c r="C37" s="191" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="163">
-        <f>'Research data'!G49+'Research data'!G50</f>
-        <v>4.8999999999999998E-3</v>
-      </c>
+      <c r="C37" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
       <c r="F37" s="161"/>
-      <c r="G37" s="161" t="s">
-        <v>112</v>
-      </c>
+      <c r="G37" s="161"/>
       <c r="H37" s="161"/>
-      <c r="I37" s="164" t="s">
-        <v>155</v>
-      </c>
+      <c r="I37" s="161"/>
       <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1">
       <c r="A38" s="153"/>
       <c r="B38" s="157"/>
       <c r="C38" s="191" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="163">
-        <f>'Research data'!G51+'Research data'!G52</f>
-        <v>1.5606748659728791E-3</v>
+        <f>'Research data'!G47</f>
+        <v>0</v>
       </c>
       <c r="F38" s="161"/>
       <c r="G38" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="164" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J38" s="160"/>
     </row>
@@ -5018,22 +5154,22 @@
       <c r="A39" s="153"/>
       <c r="B39" s="157"/>
       <c r="C39" s="191" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="163">
-        <f>'Research data'!G53</f>
-        <v>5.5452212002454322E-2</v>
+        <f>'Research data'!G48</f>
+        <v>0</v>
       </c>
       <c r="F39" s="161"/>
       <c r="G39" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="164" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="J39" s="160"/>
     </row>
@@ -5041,18 +5177,18 @@
       <c r="A40" s="153"/>
       <c r="B40" s="157"/>
       <c r="C40" s="191" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E40" s="163">
-        <f>'Research data'!G54</f>
-        <v>0</v>
+        <f>'Research data'!G49+'Research data'!G50</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F40" s="161"/>
       <c r="G40" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="161"/>
       <c r="I40" s="164" t="s">
@@ -5060,49 +5196,126 @@
       </c>
       <c r="J40" s="160"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="17" thickBot="1">
       <c r="A41" s="153"/>
       <c r="B41" s="157"/>
+      <c r="C41" s="191" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="163">
+        <f>'Research data'!G51+'Research data'!G52</f>
+        <v>1.5606748659728791E-3</v>
+      </c>
       <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
+      <c r="G41" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H41" s="161"/>
+      <c r="I41" s="164" t="s">
+        <v>180</v>
+      </c>
       <c r="J41" s="160"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="17" thickBot="1">
       <c r="A42" s="153"/>
       <c r="B42" s="157"/>
+      <c r="C42" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="163">
+        <f>'Research data'!G53</f>
+        <v>5.5452212002454322E-2</v>
+      </c>
       <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
+      <c r="G42" s="161" t="s">
+        <v>111</v>
+      </c>
       <c r="H42" s="161"/>
+      <c r="I42" s="164" t="s">
+        <v>153</v>
+      </c>
       <c r="J42" s="160"/>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="163">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="161"/>
+      <c r="I43" s="164"/>
       <c r="J43" s="160"/>
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1">
       <c r="A44" s="153"/>
-      <c r="J44" s="169"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="191" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="163">
+        <f>'Research data'!G54</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="161"/>
+      <c r="I44" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="160"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="153"/>
+      <c r="B45" s="157"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="J45" s="160"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="153"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="B46" s="157"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="J46" s="160"/>
+    </row>
+    <row r="47" spans="1:10" ht="17" thickBot="1">
       <c r="A47" s="153"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="B47" s="167"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="160"/>
+    </row>
+    <row r="48" spans="1:10" ht="17" thickBot="1">
       <c r="A48" s="153"/>
+      <c r="J48" s="169"/>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="153"/>
@@ -5175,6 +5388,18 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="153"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="153"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="153"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="153"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5280,15 +5505,15 @@
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T3" s="63"/>
       <c r="U3" s="1" t="s">
@@ -5543,7 +5768,7 @@
     <row r="12" spans="2:23" ht="16" thickBot="1">
       <c r="B12" s="157"/>
       <c r="C12" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="159"/>
@@ -5569,7 +5794,7 @@
     <row r="13" spans="2:23" ht="16" thickBot="1">
       <c r="B13" s="157"/>
       <c r="C13" s="161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="161"/>
       <c r="E13" s="161"/>
@@ -5594,13 +5819,13 @@
     <row r="14" spans="2:23" ht="16" thickBot="1">
       <c r="B14" s="157"/>
       <c r="C14" s="162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="163">
-        <f>'[3]Research data'!G16</f>
+        <f>'[4]Research data'!G16</f>
         <v>3.3995999999999999E-4</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -5630,13 +5855,13 @@
     <row r="15" spans="2:23" ht="16" thickBot="1">
       <c r="B15" s="157"/>
       <c r="C15" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="163">
-        <f>'[3]Research data'!G17</f>
+        <f>'[4]Research data'!G17</f>
         <v>8.8163000000000005E-2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -5666,13 +5891,13 @@
     <row r="16" spans="2:23" ht="16" thickBot="1">
       <c r="B16" s="157"/>
       <c r="C16" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="163">
-        <f>'[3]Research data'!G18</f>
+        <f>'[4]Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -5701,13 +5926,13 @@
     <row r="17" spans="2:22" ht="16" thickBot="1">
       <c r="B17" s="157"/>
       <c r="C17" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="163">
-        <f>'[3]Research data'!G19</f>
+        <f>'[4]Research data'!G19</f>
         <v>0.153</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -5737,13 +5962,13 @@
     <row r="18" spans="2:22" ht="16" thickBot="1">
       <c r="B18" s="157"/>
       <c r="C18" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="163">
-        <f>'[3]Research data'!G20</f>
+        <f>'[4]Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -5768,20 +5993,20 @@
       </c>
       <c r="T18" s="153"/>
       <c r="U18" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V18" s="66"/>
     </row>
     <row r="19" spans="2:22" ht="16" thickBot="1">
       <c r="B19" s="157"/>
       <c r="C19" s="162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="163">
-        <f>'[3]Research data'!G21</f>
+        <f>'[4]Research data'!G21</f>
         <v>0</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -5816,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="163">
-        <f>'[3]Research data'!G22</f>
+        <f>'[4]Research data'!G22</f>
         <v>0</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -5847,13 +6072,13 @@
     <row r="21" spans="2:22" ht="16" thickBot="1">
       <c r="B21" s="157"/>
       <c r="C21" s="162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="165">
-        <f>'[3]Research data'!G22</f>
+        <f>'[4]Research data'!G22</f>
         <v>0</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -5905,7 +6130,7 @@
     <row r="23" spans="2:22">
       <c r="B23" s="157"/>
       <c r="C23" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="158"/>
       <c r="E23" s="159"/>
@@ -5930,7 +6155,7 @@
     <row r="24" spans="2:22" ht="16" thickBot="1">
       <c r="B24" s="157"/>
       <c r="C24" s="161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="161"/>
       <c r="E24" s="161"/>
@@ -5955,13 +6180,13 @@
     <row r="25" spans="2:22" ht="16" thickBot="1">
       <c r="B25" s="157"/>
       <c r="C25" s="162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="163">
-        <f>'[3]Research data'!G27</f>
+        <f>'[4]Research data'!G27</f>
         <v>0</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -5991,13 +6216,13 @@
     <row r="26" spans="2:22" ht="16" thickBot="1">
       <c r="B26" s="157"/>
       <c r="C26" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="163">
-        <f>'[3]Research data'!G28</f>
+        <f>'[4]Research data'!G28</f>
         <v>0.124</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -6027,13 +6252,13 @@
     <row r="27" spans="2:22" ht="16" thickBot="1">
       <c r="B27" s="157"/>
       <c r="C27" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="163">
-        <f>'[3]Research data'!G29</f>
+        <f>'[4]Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -6062,13 +6287,13 @@
     <row r="28" spans="2:22" ht="16" thickBot="1">
       <c r="B28" s="157"/>
       <c r="C28" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="163">
-        <f>'[3]Research data'!G30</f>
+        <f>'[4]Research data'!G30</f>
         <v>0</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -6098,13 +6323,13 @@
     <row r="29" spans="2:22" ht="16" thickBot="1">
       <c r="B29" s="157"/>
       <c r="C29" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="163">
-        <f>'[3]Research data'!G31</f>
+        <f>'[4]Research data'!G31</f>
         <v>0</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -6129,20 +6354,20 @@
       </c>
       <c r="T29" s="153"/>
       <c r="U29" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V29" s="66"/>
     </row>
     <row r="30" spans="2:22" ht="16" thickBot="1">
       <c r="B30" s="157"/>
       <c r="C30" s="162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="163">
-        <f>'[3]Research data'!G32</f>
+        <f>'[4]Research data'!G32</f>
         <v>1.0756399999999999E-2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -6177,7 +6402,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="163">
-        <f>'[3]Research data'!G33</f>
+        <f>'[4]Research data'!G33</f>
         <v>1.5815200000000001E-3</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -6208,13 +6433,13 @@
     <row r="32" spans="2:22" ht="16" thickBot="1">
       <c r="B32" s="157"/>
       <c r="C32" s="162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="165">
-        <f>'[3]Research data'!G33</f>
+        <f>'[4]Research data'!G33</f>
         <v>1.5815200000000001E-3</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -6266,7 +6491,7 @@
     <row r="34" spans="2:22">
       <c r="B34" s="157"/>
       <c r="C34" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="158"/>
       <c r="E34" s="159"/>
@@ -6291,7 +6516,7 @@
     <row r="35" spans="2:22" ht="16" thickBot="1">
       <c r="B35" s="157"/>
       <c r="C35" s="161" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="161"/>
       <c r="E35" s="161"/>
@@ -6316,13 +6541,13 @@
     <row r="36" spans="2:22" ht="16" thickBot="1">
       <c r="B36" s="157"/>
       <c r="C36" s="162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="163">
-        <f>'[3]Research data'!G38</f>
+        <f>'[4]Research data'!G38</f>
         <v>0</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -6352,13 +6577,13 @@
     <row r="37" spans="2:22" ht="16" thickBot="1">
       <c r="B37" s="157"/>
       <c r="C37" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="163">
-        <f>'[3]Research data'!G39</f>
+        <f>'[4]Research data'!G39</f>
         <v>0</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -6388,13 +6613,13 @@
     <row r="38" spans="2:22" ht="16" thickBot="1">
       <c r="B38" s="157"/>
       <c r="C38" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="163">
-        <f>'[3]Research data'!G40</f>
+        <f>'[4]Research data'!G40</f>
         <v>0</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -6423,13 +6648,13 @@
     <row r="39" spans="2:22" ht="16" thickBot="1">
       <c r="B39" s="157"/>
       <c r="C39" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="163">
-        <f>'[3]Research data'!G41</f>
+        <f>'[4]Research data'!G41</f>
         <v>3.6559299999999999E-3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -6459,13 +6684,13 @@
     <row r="40" spans="2:22" ht="16" thickBot="1">
       <c r="B40" s="157"/>
       <c r="C40" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="163">
-        <f>'[3]Research data'!G42</f>
+        <f>'[4]Research data'!G42</f>
         <v>8.0710999999999999E-4</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -6489,20 +6714,20 @@
       </c>
       <c r="T40" s="153"/>
       <c r="U40" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V40" s="66"/>
     </row>
     <row r="41" spans="2:22" ht="16" thickBot="1">
       <c r="B41" s="157"/>
       <c r="C41" s="162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="163">
-        <f>'[3]Research data'!G43</f>
+        <f>'[4]Research data'!G43</f>
         <v>2.1007E-4</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -6537,7 +6762,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="163">
-        <f>'[3]Research data'!G44</f>
+        <f>'[4]Research data'!G44</f>
         <v>8.7446399999999994E-2</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -6568,13 +6793,13 @@
     <row r="43" spans="2:22" ht="16" thickBot="1">
       <c r="B43" s="157"/>
       <c r="C43" s="162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="165">
-        <f>'[3]Research data'!G44</f>
+        <f>'[4]Research data'!G44</f>
         <v>8.7446399999999994E-2</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -6626,7 +6851,7 @@
     <row r="45" spans="2:22">
       <c r="B45" s="157"/>
       <c r="C45" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="189"/>
@@ -6651,7 +6876,7 @@
     <row r="46" spans="2:22" ht="16" thickBot="1">
       <c r="B46" s="157"/>
       <c r="C46" s="161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="161"/>
       <c r="E46" s="161"/>
@@ -6676,13 +6901,13 @@
     <row r="47" spans="2:22" ht="16" thickBot="1">
       <c r="B47" s="157"/>
       <c r="C47" s="162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="190">
-        <f>'[3]Research data'!G49</f>
+        <f>'[4]Research data'!G49</f>
         <v>0</v>
       </c>
       <c r="F47" s="22" t="s">
@@ -6712,13 +6937,13 @@
     <row r="48" spans="2:22" ht="16" thickBot="1">
       <c r="B48" s="157"/>
       <c r="C48" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="190">
-        <f>'[3]Research data'!G50</f>
+        <f>'[4]Research data'!G50</f>
         <v>1.1964799999999999E-2</v>
       </c>
       <c r="F48" s="22" t="s">
@@ -6748,13 +6973,13 @@
     <row r="49" spans="2:22" ht="16" thickBot="1">
       <c r="B49" s="157"/>
       <c r="C49" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="190">
-        <f>'[3]Research data'!G51</f>
+        <f>'[4]Research data'!G51</f>
         <v>2.0680500000000001E-3</v>
       </c>
       <c r="F49" s="22" t="s">
@@ -6783,13 +7008,13 @@
     <row r="50" spans="2:22" ht="16" thickBot="1">
       <c r="B50" s="157"/>
       <c r="C50" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="190">
-        <f>'[3]Research data'!G52</f>
+        <f>'[4]Research data'!G52</f>
         <v>2.4298000000000001E-4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -6819,13 +7044,13 @@
     <row r="51" spans="2:22" ht="16" thickBot="1">
       <c r="B51" s="157"/>
       <c r="C51" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E51" s="190">
-        <f>'[3]Research data'!G53</f>
+        <f>'[4]Research data'!G53</f>
         <v>9.9245600000000003E-2</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -6850,19 +7075,19 @@
       </c>
       <c r="T51" s="153"/>
       <c r="U51" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="2:22" ht="16" thickBot="1">
       <c r="B52" s="157"/>
       <c r="C52" s="162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="190">
-        <f>'[3]Research data'!G54</f>
+        <f>'[4]Research data'!G54</f>
         <v>0</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -6896,7 +7121,7 @@
         <v>40</v>
       </c>
       <c r="E53" s="190">
-        <f>'[3]Research data'!G55</f>
+        <f>'[4]Research data'!G55</f>
         <v>0</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -6926,13 +7151,13 @@
     <row r="54" spans="2:22" ht="16" thickBot="1">
       <c r="B54" s="157"/>
       <c r="C54" s="162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="165">
-        <f>'[3]Research data'!G55</f>
+        <f>'[4]Research data'!G55</f>
         <v>0</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -7764,10 +7989,10 @@
     <row r="14" spans="2:12">
       <c r="B14" s="50"/>
       <c r="C14" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>144</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>145</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>51</v>
@@ -7782,15 +8007,15 @@
         <v>42309</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>146</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>147</v>
       </c>
       <c r="H15" s="45">
         <v>2014</v>
@@ -7802,15 +8027,15 @@
         <v>42309</v>
       </c>
       <c r="K15" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="154" t="s">
         <v>148</v>
-      </c>
-      <c r="L15" s="154" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="E16" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>51</v>
@@ -7825,10 +8050,10 @@
         <v>42309</v>
       </c>
       <c r="K16" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>183</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -8700,10 +8925,10 @@
     <row r="42" spans="2:18" customFormat="1" ht="16">
       <c r="B42" s="99"/>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I42" s="98"/>
       <c r="J42" s="98"/>
@@ -8723,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I43" s="98"/>
       <c r="J43" s="98"/>
@@ -10418,12 +10643,12 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="138"/>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="139"/>
       <c r="G2" s="139"/>
       <c r="H2" s="138"/>
@@ -10431,10 +10656,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="138"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="139"/>
       <c r="G3" s="139"/>
       <c r="H3" s="138"/>
@@ -10442,10 +10667,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="138"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="139"/>
       <c r="G4" s="139"/>
       <c r="H4" s="138"/>
@@ -10540,7 +10765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
@@ -10569,28 +10794,28 @@
         <v>7</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="91" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="M3" s="125" t="s">
         <v>135</v>
-      </c>
-      <c r="M3" s="125" t="s">
-        <v>136</v>
       </c>
       <c r="N3" s="125"/>
       <c r="O3" s="125"/>
@@ -10607,7 +10832,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="M4" s="125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N4" s="125">
         <v>12</v>
@@ -10618,7 +10843,7 @@
     <row r="5" spans="2:16" ht="17" thickBot="1">
       <c r="B5" s="23"/>
       <c r="C5" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="31"/>
@@ -10628,7 +10853,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="M5" s="125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N5" s="125">
         <v>1.008</v>
@@ -10640,16 +10865,16 @@
       <c r="B6" s="23"/>
       <c r="C6" s="18"/>
       <c r="D6" s="161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="120">
         <v>96.78</v>
       </c>
       <c r="M6" s="171" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N6" s="171">
         <v>16</v>
@@ -10661,10 +10886,10 @@
       <c r="B7" s="23"/>
       <c r="C7" s="18"/>
       <c r="D7" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="120">
         <v>2.78</v>
@@ -10678,16 +10903,16 @@
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="120">
         <v>0.37</v>
       </c>
       <c r="M8" s="125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
@@ -10695,19 +10920,19 @@
     <row r="9" spans="2:16" ht="17" thickBot="1">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F9" s="120">
         <v>0.06</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" s="125">
         <v>0.74850299399999998</v>
@@ -10737,7 +10962,7 @@
         <v>5.5564771409599999E-2</v>
       </c>
       <c r="M10" s="125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N10" s="125">
         <v>0.79872204499999999</v>
@@ -10756,7 +10981,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="M11" s="125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N11" s="125">
         <v>0.81699346399999995</v>
@@ -10767,7 +10992,7 @@
     <row r="12" spans="2:16" ht="17" thickBot="1">
       <c r="B12" s="23"/>
       <c r="C12" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="31"/>
@@ -10777,7 +11002,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="M12" s="125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N12" s="125">
         <v>0.82644628099999995</v>
@@ -10787,10 +11012,10 @@
       <c r="B13" s="23"/>
       <c r="C13" s="18"/>
       <c r="D13" s="161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="120">
         <v>92.03</v>
@@ -10800,26 +11025,26 @@
       <c r="B14" s="23"/>
       <c r="C14" s="18"/>
       <c r="D14" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="120">
         <v>5.75</v>
       </c>
       <c r="M14" s="125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1">
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
       <c r="D15" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="120">
         <v>1.31</v>
@@ -10835,13 +11060,13 @@
     <row r="16" spans="2:16" ht="17" thickBot="1">
       <c r="B16" s="23"/>
       <c r="C16" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F16" s="120">
         <v>0.45</v>
@@ -10880,7 +11105,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="M18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -10897,7 +11122,7 @@
     <row r="20" spans="2:13" ht="17" thickBot="1">
       <c r="B20" s="23"/>
       <c r="C20" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="31"/>
@@ -10911,10 +11136,10 @@
       <c r="B21" s="23"/>
       <c r="C21" s="18"/>
       <c r="D21" s="161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21" s="120">
         <v>90.91</v>
@@ -10924,10 +11149,10 @@
       <c r="B22" s="23"/>
       <c r="C22" s="18"/>
       <c r="D22" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="120">
         <v>6.43</v>
@@ -10937,10 +11162,10 @@
       <c r="B23" s="23"/>
       <c r="C23" s="18"/>
       <c r="D23" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="120">
         <v>1.66</v>
@@ -10949,21 +11174,21 @@
     <row r="24" spans="2:13" ht="17" thickBot="1">
       <c r="B24" s="23"/>
       <c r="C24" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F24" s="120">
         <v>0.74</v>
       </c>
-      <c r="K24" s="208" t="s">
-        <v>191</v>
-      </c>
-      <c r="L24" s="208"/>
+      <c r="K24" s="193" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" s="193"/>
     </row>
     <row r="25" spans="2:13" ht="17" thickBot="1">
       <c r="B25" s="23"/>
@@ -11001,7 +11226,7 @@
     <row r="27" spans="2:13" ht="17" thickBot="1">
       <c r="B27" s="23"/>
       <c r="C27" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -11017,10 +11242,10 @@
       <c r="B28" s="23"/>
       <c r="C28" s="18"/>
       <c r="D28" s="161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="183">
         <v>91.4</v>
@@ -11036,10 +11261,10 @@
       <c r="B29" s="23"/>
       <c r="C29" s="18"/>
       <c r="D29" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="187">
         <v>7.35</v>
@@ -11055,10 +11280,10 @@
       <c r="B30" s="23"/>
       <c r="C30" s="18"/>
       <c r="D30" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="183">
         <v>0.56999999999999995</v>
@@ -11073,13 +11298,13 @@
     <row r="31" spans="2:13" ht="17" thickBot="1">
       <c r="B31" s="23"/>
       <c r="C31" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" s="184" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F31" s="183">
         <v>0.05</v>
@@ -11088,8 +11313,8 @@
       <c r="H31" s="182"/>
       <c r="I31" s="182"/>
       <c r="J31" s="182"/>
-      <c r="K31" s="208" t="s">
-        <v>191</v>
+      <c r="K31" s="193" t="s">
+        <v>190</v>
       </c>
       <c r="L31" s="182"/>
     </row>
@@ -11115,7 +11340,7 @@
         <f>I32/M$15</f>
         <v>5.5400584645096305E-2</v>
       </c>
-      <c r="L32" s="208"/>
+      <c r="L32" s="193"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="23"/>
@@ -11142,7 +11367,7 @@
     <row r="35" spans="2:12" ht="17" thickBot="1">
       <c r="B35" s="23"/>
       <c r="C35" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="31"/>
@@ -11156,10 +11381,10 @@
       <c r="B36" s="23"/>
       <c r="C36" s="18"/>
       <c r="D36" s="161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="120">
         <v>89.55</v>
@@ -11169,10 +11394,10 @@
       <c r="B37" s="23"/>
       <c r="C37" s="18"/>
       <c r="D37" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" s="120">
         <v>8.1999999999999993</v>
@@ -11183,10 +11408,10 @@
       <c r="B38" s="23"/>
       <c r="C38" s="18"/>
       <c r="D38" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="120">
         <v>1.3</v>
@@ -11195,19 +11420,19 @@
     <row r="39" spans="2:12" ht="17" thickBot="1">
       <c r="B39" s="23"/>
       <c r="C39" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F39" s="120">
         <v>0.31</v>
       </c>
-      <c r="K39" s="208" t="s">
-        <v>191</v>
+      <c r="K39" s="193" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" thickBot="1">
@@ -11231,7 +11456,7 @@
         <f>I40/M$15</f>
         <v>5.5478706468155552E-2</v>
       </c>
-      <c r="L40" s="208"/>
+      <c r="L40" s="193"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="23"/>
@@ -11247,7 +11472,7 @@
     <row r="42" spans="2:12" ht="17" thickBot="1">
       <c r="B42" s="23"/>
       <c r="C42" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="31"/>
@@ -11261,10 +11486,10 @@
       <c r="B43" s="23"/>
       <c r="C43" s="18"/>
       <c r="D43" s="161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F43" s="120">
         <v>88.93</v>
@@ -11274,10 +11499,10 @@
       <c r="B44" s="23"/>
       <c r="C44" s="18"/>
       <c r="D44" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="120">
         <v>8.42</v>
@@ -11287,10 +11512,10 @@
       <c r="B45" s="23"/>
       <c r="C45" s="18"/>
       <c r="D45" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="120">
         <v>1.59</v>
@@ -11299,19 +11524,19 @@
     <row r="46" spans="2:12" ht="17" thickBot="1">
       <c r="B46" s="23"/>
       <c r="C46" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F46" s="120">
         <v>0.37</v>
       </c>
-      <c r="K46" s="207" t="s">
-        <v>191</v>
+      <c r="K46" s="192" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="17" thickBot="1">
@@ -11335,7 +11560,7 @@
         <f>I47/M$15</f>
         <v>5.5477344894111116E-2</v>
       </c>
-      <c r="L47" s="207"/>
+      <c r="L47" s="192"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="23"/>
@@ -11378,7 +11603,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="17" thickBot="1">
@@ -11393,13 +11618,13 @@
     <row r="53" spans="2:13" ht="17" thickBot="1">
       <c r="B53" s="23"/>
       <c r="C53" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="F53" s="120">
         <f>E76</f>
@@ -11411,19 +11636,19 @@
         <v>1.5836063016690064E-3</v>
       </c>
       <c r="J53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="17" thickBot="1">
       <c r="B54" s="23"/>
       <c r="C54" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="F54" s="120">
         <f t="shared" ref="F54:F55" si="0">E77</f>
@@ -11435,19 +11660,19 @@
         <v>5.2292934019653728E-4</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="17" thickBot="1">
       <c r="B55" s="23"/>
       <c r="C55" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="F55" s="120">
         <f t="shared" si="0"/>
@@ -11462,13 +11687,13 @@
     <row r="56" spans="2:13" ht="17" thickBot="1">
       <c r="B56" s="23"/>
       <c r="C56" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="F56" s="120">
         <f>E83</f>
@@ -11498,11 +11723,11 @@
     </row>
     <row r="61" spans="2:13">
       <c r="C61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="2:13">
-      <c r="M63" s="207"/>
+      <c r="M63" s="192"/>
     </row>
     <row r="67" spans="3:6">
       <c r="E67">
@@ -11515,88 +11740,88 @@
     </row>
     <row r="74" spans="3:6">
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="3:6">
       <c r="D76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E76">
         <v>4061</v>
       </c>
       <c r="F76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="3:6">
       <c r="D77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77">
         <v>1341</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="3:6">
       <c r="D78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E78">
         <f>6411</f>
         <v>6411</v>
       </c>
       <c r="F78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="3:6">
       <c r="D79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E79">
         <v>6342</v>
       </c>
       <c r="F79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="3:7">
       <c r="D82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E82">
         <v>1676</v>
       </c>
       <c r="F82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="3:7">
       <c r="D83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E83">
         <f>E82*E78/E79</f>
         <v>1694.2346263008515</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="3:7">
       <c r="C87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="3:7">
       <c r="D90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="3:7">
@@ -11606,67 +11831,67 @@
     </row>
     <row r="96" spans="3:7">
       <c r="D96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="4:6">
       <c r="D97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E97">
         <v>0.22</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="4:6">
       <c r="D98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E98">
         <v>0.31</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="4:6">
       <c r="D99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="4:6">
       <c r="D100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E100">
         <v>0.53</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="4:6">
       <c r="D102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="4:6">
       <c r="D104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104">
         <f>E96/$E$100</f>
@@ -11675,7 +11900,7 @@
     </row>
     <row r="105" spans="4:6">
       <c r="D105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105">
         <f t="shared" ref="E105:E107" si="1">E97/$E$100</f>
@@ -11684,7 +11909,7 @@
     </row>
     <row r="106" spans="4:6">
       <c r="D106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
@@ -11693,7 +11918,7 @@
     </row>
     <row r="107" spans="4:6">
       <c r="D107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>

--- a/carriers_source_analyses/lng.carrier.xlsx
+++ b/carriers_source_analyses/lng.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="44300" yWindow="-4200" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +25,6 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -37,8 +41,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -215,9 +222,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <t>kg_per_liter</t>
@@ -694,6 +698,11 @@
   <si>
     <t>co2_waste_treatment_per_mj</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -710,7 +719,7 @@
     <numFmt numFmtId="171" formatCode="0.00000"/>
     <numFmt numFmtId="172" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -933,11 +942,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1045,7 +1049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1310,37 +1314,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2117,7 +2090,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2127,15 +2100,15 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2171,7 +2144,7 @@
     <xf numFmtId="171" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="27" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="27" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2185,8 +2158,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2208,22 +2181,13 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,7 +2196,16 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2742,142 +2715,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3987800</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2996,7 +2834,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3306,7 +3144,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3419,31 +3257,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3452,13 +3272,15 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
@@ -3922,51 +3744,51 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -3975,17 +3797,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
@@ -3993,13 +3815,13 @@
       <c r="C9" s="76"/>
       <c r="D9" s="128"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
       <c r="D10" s="129"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="77" t="s">
         <v>15</v>
@@ -4009,7 +3831,7 @@
       </c>
       <c r="D11" s="129"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="77"/>
       <c r="C12" s="18" t="s">
@@ -4017,7 +3839,7 @@
       </c>
       <c r="D12" s="129"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
@@ -4025,7 +3847,7 @@
       </c>
       <c r="D13" s="129"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
@@ -4033,13 +3855,13 @@
       </c>
       <c r="D14" s="129"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
       <c r="D15" s="129"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="77" t="s">
         <v>20</v>
@@ -4049,7 +3871,7 @@
       </c>
       <c r="D16" s="129"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
@@ -4057,7 +3879,7 @@
       </c>
       <c r="D17" s="129"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
@@ -4065,7 +3887,7 @@
       </c>
       <c r="D18" s="129"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
@@ -4073,7 +3895,7 @@
       </c>
       <c r="D19" s="129"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
@@ -4081,7 +3903,7 @@
       </c>
       <c r="D20" s="129"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
@@ -4089,7 +3911,7 @@
       </c>
       <c r="D21" s="129"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
@@ -4097,14 +3919,14 @@
       </c>
       <c r="D22" s="129"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="129"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="130"/>
       <c r="C24" s="131"/>
       <c r="D24" s="132"/>
@@ -4112,74 +3934,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="195" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="207"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="198"/>
       <c r="C3" s="199"/>
       <c r="D3" s="199"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="208"/>
+    </row>
+    <row r="4" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="209"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4190,7 +4009,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -4211,7 +4030,7 @@
       </c>
       <c r="J7" s="92"/>
     </row>
-    <row r="8" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -4222,7 +4041,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
         <v>55</v>
@@ -4235,7 +4054,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="97" t="s">
         <v>35</v>
@@ -4257,7 +4076,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="103" t="s">
         <v>36</v>
@@ -4273,11 +4092,11 @@
       <c r="G11" s="103"/>
       <c r="H11" s="30"/>
       <c r="I11" s="137" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="103" t="s">
         <v>53</v>
@@ -4293,14 +4112,14 @@
       <c r="G12" s="103"/>
       <c r="H12" s="30"/>
       <c r="I12" s="137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>49</v>
@@ -4313,11 +4132,11 @@
       <c r="G13" s="103"/>
       <c r="H13" s="30"/>
       <c r="I13" s="137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="34" t="s">
         <v>37</v>
@@ -4333,11 +4152,11 @@
       <c r="G14" s="103"/>
       <c r="H14" s="30"/>
       <c r="I14" s="137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -4350,70 +4169,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3987800</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4426,18 +4185,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="30.25" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="153"/>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -4449,10 +4208,10 @@
       <c r="I1" s="153"/>
       <c r="J1" s="153"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="153"/>
       <c r="B2" s="195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -4463,7 +4222,7 @@
       <c r="I2" s="153"/>
       <c r="J2" s="153"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="153"/>
       <c r="B3" s="198"/>
       <c r="C3" s="199"/>
@@ -4475,19 +4234,19 @@
       <c r="I3" s="153"/>
       <c r="J3" s="153"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="153"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
       <c r="H4" s="153"/>
       <c r="I4" s="153"/>
       <c r="J4" s="153"/>
     </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="153"/>
       <c r="C5" s="153"/>
@@ -4499,7 +4258,7 @@
       <c r="I5" s="153"/>
       <c r="J5" s="153"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="153"/>
       <c r="B6" s="155"/>
       <c r="C6" s="20"/>
@@ -4511,7 +4270,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="156"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="90"/>
       <c r="C7" s="19" t="s">
@@ -4533,7 +4292,7 @@
       </c>
       <c r="J7" s="92"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="153"/>
       <c r="B8" s="157"/>
       <c r="C8" s="154"/>
@@ -4545,11 +4304,11 @@
       <c r="I8" s="154"/>
       <c r="J8" s="160"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="153"/>
       <c r="B9" s="157"/>
       <c r="C9" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="158"/>
       <c r="E9" s="159"/>
@@ -4559,11 +4318,11 @@
       <c r="I9" s="154"/>
       <c r="J9" s="160"/>
     </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1">
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="157"/>
       <c r="C10" s="161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="161"/>
       <c r="E10" s="161"/>
@@ -4573,11 +4332,11 @@
       <c r="I10" s="161"/>
       <c r="J10" s="160"/>
     </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153"/>
       <c r="B11" s="157"/>
       <c r="C11" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>40</v>
@@ -4588,19 +4347,19 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="161"/>
       <c r="I11" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J11" s="160"/>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="153"/>
       <c r="B12" s="157"/>
       <c r="C12" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>40</v>
@@ -4611,19 +4370,19 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="161"/>
       <c r="I12" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="160"/>
     </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153"/>
       <c r="B13" s="157"/>
       <c r="C13" s="194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>40</v>
@@ -4634,19 +4393,19 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="161"/>
       <c r="I13" s="164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="160"/>
     </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="153"/>
       <c r="B14" s="157"/>
       <c r="C14" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>40</v>
@@ -4657,15 +4416,15 @@
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="161"/>
       <c r="I14" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="160"/>
     </row>
-    <row r="15" spans="1:10" ht="17" thickBot="1">
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153"/>
       <c r="B15" s="157"/>
       <c r="C15" s="162" t="s">
@@ -4680,19 +4439,19 @@
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="161"/>
       <c r="I15" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" s="160"/>
     </row>
-    <row r="16" spans="1:10" ht="17" thickBot="1">
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="153"/>
       <c r="B16" s="157"/>
       <c r="C16" s="162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>40</v>
@@ -4702,17 +4461,17 @@
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="161"/>
       <c r="I16" s="164"/>
       <c r="J16" s="160"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="153"/>
       <c r="B17" s="157"/>
       <c r="C17" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>1</v>
@@ -4723,15 +4482,15 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="161"/>
       <c r="I17" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J17" s="160"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="153"/>
       <c r="B18" s="157"/>
       <c r="C18" s="161"/>
@@ -4743,11 +4502,11 @@
       <c r="I18" s="161"/>
       <c r="J18" s="160"/>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="153"/>
       <c r="B19" s="157"/>
       <c r="C19" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="161"/>
       <c r="E19" s="161"/>
@@ -4757,11 +4516,11 @@
       <c r="I19" s="161"/>
       <c r="J19" s="160"/>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="153"/>
       <c r="B20" s="157"/>
       <c r="C20" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>40</v>
@@ -4772,19 +4531,19 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="161"/>
       <c r="I20" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J20" s="160"/>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="153"/>
       <c r="B21" s="157"/>
       <c r="C21" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>40</v>
@@ -4795,19 +4554,19 @@
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="161"/>
       <c r="I21" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J21" s="160"/>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="153"/>
       <c r="B22" s="157"/>
       <c r="C22" s="194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>40</v>
@@ -4818,19 +4577,19 @@
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="161"/>
       <c r="I22" s="164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="160"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="153"/>
       <c r="B23" s="157"/>
       <c r="C23" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>40</v>
@@ -4841,15 +4600,15 @@
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="161"/>
       <c r="I23" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="160"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="153"/>
       <c r="B24" s="157"/>
       <c r="C24" s="162" t="s">
@@ -4864,19 +4623,19 @@
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" s="161"/>
       <c r="I24" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" s="160"/>
     </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="153"/>
       <c r="B25" s="157"/>
       <c r="C25" s="162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>40</v>
@@ -4886,17 +4645,17 @@
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="161"/>
       <c r="I25" s="164"/>
       <c r="J25" s="160"/>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="153"/>
       <c r="B26" s="157"/>
       <c r="C26" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>1</v>
@@ -4907,15 +4666,15 @@
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="161"/>
       <c r="I26" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J26" s="160"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="153"/>
       <c r="B27" s="157"/>
       <c r="C27" s="162"/>
@@ -4927,11 +4686,11 @@
       <c r="I27" s="161"/>
       <c r="J27" s="160"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="153"/>
       <c r="B28" s="157"/>
       <c r="C28" s="161" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>40</v>
@@ -4943,11 +4702,11 @@
       <c r="I28" s="161"/>
       <c r="J28" s="160"/>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="153"/>
       <c r="B29" s="157"/>
       <c r="C29" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>40</v>
@@ -4958,19 +4717,19 @@
       </c>
       <c r="F29" s="161"/>
       <c r="G29" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="161"/>
       <c r="I29" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J29" s="160"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="153"/>
       <c r="B30" s="157"/>
       <c r="C30" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>40</v>
@@ -4981,19 +4740,19 @@
       </c>
       <c r="F30" s="161"/>
       <c r="G30" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" s="161"/>
       <c r="I30" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J30" s="160"/>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="153"/>
       <c r="B31" s="157"/>
       <c r="C31" s="191" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>40</v>
@@ -5004,19 +4763,19 @@
       </c>
       <c r="F31" s="161"/>
       <c r="G31" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="161"/>
       <c r="I31" s="164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" s="160"/>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="153"/>
       <c r="B32" s="157"/>
       <c r="C32" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>40</v>
@@ -5027,15 +4786,15 @@
       </c>
       <c r="F32" s="161"/>
       <c r="G32" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="161"/>
       <c r="I32" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J32" s="160"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="153"/>
       <c r="B33" s="157"/>
       <c r="C33" s="162" t="s">
@@ -5050,19 +4809,19 @@
       </c>
       <c r="F33" s="161"/>
       <c r="G33" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" s="160"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="153"/>
       <c r="B34" s="157"/>
       <c r="C34" s="162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>40</v>
@@ -5072,17 +4831,17 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="164"/>
       <c r="J34" s="160"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="153"/>
       <c r="B35" s="157"/>
       <c r="C35" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>1</v>
@@ -5093,15 +4852,15 @@
       </c>
       <c r="F35" s="161"/>
       <c r="G35" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" s="160"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="153"/>
       <c r="B36" s="157"/>
       <c r="C36" s="162"/>
@@ -5113,11 +4872,11 @@
       <c r="I36" s="154"/>
       <c r="J36" s="160"/>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1">
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="153"/>
       <c r="B37" s="157"/>
       <c r="C37" s="133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="161"/>
       <c r="E37" s="161"/>
@@ -5127,11 +4886,11 @@
       <c r="I37" s="161"/>
       <c r="J37" s="160"/>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1">
+    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="153"/>
       <c r="B38" s="157"/>
       <c r="C38" s="191" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>40</v>
@@ -5142,19 +4901,19 @@
       </c>
       <c r="F38" s="161"/>
       <c r="G38" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J38" s="160"/>
     </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1">
+    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="153"/>
       <c r="B39" s="157"/>
       <c r="C39" s="191" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>40</v>
@@ -5165,19 +4924,19 @@
       </c>
       <c r="F39" s="161"/>
       <c r="G39" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J39" s="160"/>
     </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1">
+    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="153"/>
       <c r="B40" s="157"/>
       <c r="C40" s="191" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>40</v>
@@ -5188,19 +4947,19 @@
       </c>
       <c r="F40" s="161"/>
       <c r="G40" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40" s="161"/>
       <c r="I40" s="164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J40" s="160"/>
     </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="153"/>
       <c r="B41" s="157"/>
       <c r="C41" s="191" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>40</v>
@@ -5211,15 +4970,15 @@
       </c>
       <c r="F41" s="161"/>
       <c r="G41" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41" s="161"/>
       <c r="I41" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J41" s="160"/>
     </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1">
+    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="153"/>
       <c r="B42" s="157"/>
       <c r="C42" s="191" t="s">
@@ -5234,19 +4993,19 @@
       </c>
       <c r="F42" s="161"/>
       <c r="G42" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H42" s="161"/>
       <c r="I42" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J42" s="160"/>
     </row>
-    <row r="43" spans="1:10" ht="17" thickBot="1">
+    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="153"/>
       <c r="B43" s="157"/>
       <c r="C43" s="162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>40</v>
@@ -5256,17 +5015,17 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H43" s="161"/>
       <c r="I43" s="164"/>
       <c r="J43" s="160"/>
     </row>
-    <row r="44" spans="1:10" ht="17" thickBot="1">
+    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="153"/>
       <c r="B44" s="157"/>
       <c r="C44" s="191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>1</v>
@@ -5277,15 +5036,15 @@
       </c>
       <c r="F44" s="161"/>
       <c r="G44" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" s="161"/>
       <c r="I44" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J44" s="160"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="153"/>
       <c r="B45" s="157"/>
       <c r="F45" s="161"/>
@@ -5293,7 +5052,7 @@
       <c r="H45" s="161"/>
       <c r="J45" s="160"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="153"/>
       <c r="B46" s="157"/>
       <c r="F46" s="161"/>
@@ -5301,7 +5060,7 @@
       <c r="H46" s="161"/>
       <c r="J46" s="160"/>
     </row>
-    <row r="47" spans="1:10" ht="17" thickBot="1">
+    <row r="47" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="153"/>
       <c r="B47" s="167"/>
       <c r="C47" s="168"/>
@@ -5313,92 +5072,92 @@
       <c r="I47" s="168"/>
       <c r="J47" s="160"/>
     </row>
-    <row r="48" spans="1:10" ht="17" thickBot="1">
+    <row r="48" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="153"/>
       <c r="J48" s="169"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="153"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="153"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="153"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="153"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="153"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="153"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="153"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="153"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="153"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="153"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="153"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="153"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="153"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="153"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="153"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="153"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="153"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="153"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="153"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="153"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="153"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="153"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="153"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="153"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="153"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="153"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="153"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="153"/>
     </row>
   </sheetData>
@@ -5408,11 +5167,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5427,36 +5181,35 @@
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.125" style="66" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.625" style="66" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.375" style="66" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="65" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" style="66" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="66" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="65" customWidth="1"/>
     <col min="18" max="18" width="3" style="65" customWidth="1"/>
-    <col min="19" max="20" width="10.625" style="65"/>
-    <col min="21" max="21" width="51.375" style="65" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="65"/>
+    <col min="19" max="20" width="10.7109375" style="65"/>
+    <col min="21" max="21" width="51.42578125" style="65" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="16" thickBot="1">
+    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q1" s="66"/>
       <c r="R1" s="66"/>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -5478,7 +5231,7 @@
       <c r="T2" s="69"/>
       <c r="U2" s="70"/>
     </row>
-    <row r="3" spans="2:23" s="24" customFormat="1">
+    <row r="3" spans="2:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="96" t="s">
         <v>29</v>
@@ -5493,34 +5246,34 @@
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T3" s="63"/>
       <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -5542,7 +5295,7 @@
       <c r="T4" s="95"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="2:23" ht="16" thickBot="1">
+    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
         <v>55</v>
@@ -5566,7 +5319,7 @@
       <c r="T5" s="16"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="2:23" ht="16" thickBot="1">
+    <row r="6" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="105" t="s">
         <v>35</v>
@@ -5598,7 +5351,7 @@
       <c r="T6" s="16"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>36</v>
@@ -5636,10 +5389,10 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="150" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="127" t="s">
         <v>53</v>
@@ -5675,10 +5428,10 @@
       <c r="T8" s="16"/>
       <c r="U8" s="114"/>
     </row>
-    <row r="9" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
@@ -5707,7 +5460,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="107" t="s">
         <v>37</v>
@@ -5743,7 +5496,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="2:23" ht="16" thickBot="1">
+    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
@@ -5765,10 +5518,10 @@
       <c r="T11" s="16"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="2:23" ht="16" thickBot="1">
+    <row r="12" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="157"/>
       <c r="C12" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="159"/>
@@ -5791,10 +5544,10 @@
       <c r="V12" s="118"/>
       <c r="W12" s="119"/>
     </row>
-    <row r="13" spans="2:23" ht="16" thickBot="1">
+    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="157"/>
       <c r="C13" s="161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="161"/>
       <c r="E13" s="161"/>
@@ -5816,16 +5569,16 @@
       <c r="U13" s="178"/>
       <c r="V13" s="66"/>
     </row>
-    <row r="14" spans="2:23" ht="16" thickBot="1">
+    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="157"/>
       <c r="C14" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="163">
-        <f>'[4]Research data'!G16</f>
+        <f>'[3]Research data'!G16</f>
         <v>3.3995999999999999E-4</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -5852,16 +5605,16 @@
       <c r="U14" s="178"/>
       <c r="V14" s="66"/>
     </row>
-    <row r="15" spans="2:23" ht="16" thickBot="1">
+    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="157"/>
       <c r="C15" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="163">
-        <f>'[4]Research data'!G17</f>
+        <f>'[3]Research data'!G17</f>
         <v>8.8163000000000005E-2</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -5888,16 +5641,16 @@
       <c r="U15" s="178"/>
       <c r="V15" s="66"/>
     </row>
-    <row r="16" spans="2:23" ht="16" thickBot="1">
+    <row r="16" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="157"/>
       <c r="C16" s="162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="163">
-        <f>'[4]Research data'!G18</f>
+        <f>'[3]Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -5923,16 +5676,16 @@
       <c r="U16" s="178"/>
       <c r="V16" s="66"/>
     </row>
-    <row r="17" spans="2:22" ht="16" thickBot="1">
+    <row r="17" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="157"/>
       <c r="C17" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="163">
-        <f>'[4]Research data'!G19</f>
+        <f>'[3]Research data'!G19</f>
         <v>0.153</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -5959,16 +5712,16 @@
       <c r="U17" s="178"/>
       <c r="V17" s="66"/>
     </row>
-    <row r="18" spans="2:22" ht="16" thickBot="1">
+    <row r="18" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="157"/>
       <c r="C18" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="163">
-        <f>'[4]Research data'!G20</f>
+        <f>'[3]Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -5993,20 +5746,20 @@
       </c>
       <c r="T18" s="153"/>
       <c r="U18" s="178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V18" s="66"/>
     </row>
-    <row r="19" spans="2:22" ht="16" thickBot="1">
+    <row r="19" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="157"/>
       <c r="C19" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="163">
-        <f>'[4]Research data'!G21</f>
+        <f>'[3]Research data'!G21</f>
         <v>0</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -6032,7 +5785,7 @@
       <c r="U19" s="178"/>
       <c r="V19" s="66"/>
     </row>
-    <row r="20" spans="2:22" ht="16" thickBot="1">
+    <row r="20" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="157"/>
       <c r="C20" s="162" t="s">
         <v>37</v>
@@ -6041,7 +5794,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="163">
-        <f>'[4]Research data'!G22</f>
+        <f>'[3]Research data'!G22</f>
         <v>0</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -6069,16 +5822,16 @@
       <c r="U20" s="178"/>
       <c r="V20" s="66"/>
     </row>
-    <row r="21" spans="2:22" ht="16" thickBot="1">
+    <row r="21" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="157"/>
       <c r="C21" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="165">
-        <f>'[4]Research data'!G22</f>
+        <f>'[3]Research data'!G22</f>
         <v>0</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -6105,7 +5858,7 @@
       <c r="U21" s="178"/>
       <c r="V21" s="66"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="157"/>
       <c r="C22" s="176"/>
       <c r="D22" s="153"/>
@@ -6127,10 +5880,10 @@
       <c r="U22" s="178"/>
       <c r="V22" s="66"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="157"/>
       <c r="C23" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="158"/>
       <c r="E23" s="159"/>
@@ -6152,10 +5905,10 @@
       <c r="U23" s="178"/>
       <c r="V23" s="66"/>
     </row>
-    <row r="24" spans="2:22" ht="16" thickBot="1">
+    <row r="24" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="157"/>
       <c r="C24" s="161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="161"/>
       <c r="E24" s="161"/>
@@ -6177,16 +5930,16 @@
       <c r="U24" s="178"/>
       <c r="V24" s="66"/>
     </row>
-    <row r="25" spans="2:22" ht="16" thickBot="1">
+    <row r="25" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="157"/>
       <c r="C25" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="163">
-        <f>'[4]Research data'!G27</f>
+        <f>'[3]Research data'!G27</f>
         <v>0</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -6213,16 +5966,16 @@
       <c r="U25" s="178"/>
       <c r="V25" s="66"/>
     </row>
-    <row r="26" spans="2:22" ht="16" thickBot="1">
+    <row r="26" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="157"/>
       <c r="C26" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="163">
-        <f>'[4]Research data'!G28</f>
+        <f>'[3]Research data'!G28</f>
         <v>0.124</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -6249,16 +6002,16 @@
       <c r="U26" s="178"/>
       <c r="V26" s="66"/>
     </row>
-    <row r="27" spans="2:22" ht="16" thickBot="1">
+    <row r="27" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="157"/>
       <c r="C27" s="162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="163">
-        <f>'[4]Research data'!G29</f>
+        <f>'[3]Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -6284,16 +6037,16 @@
       <c r="U27" s="178"/>
       <c r="V27" s="66"/>
     </row>
-    <row r="28" spans="2:22" ht="16" thickBot="1">
+    <row r="28" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="157"/>
       <c r="C28" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="163">
-        <f>'[4]Research data'!G30</f>
+        <f>'[3]Research data'!G30</f>
         <v>0</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -6320,16 +6073,16 @@
       <c r="U28" s="178"/>
       <c r="V28" s="66"/>
     </row>
-    <row r="29" spans="2:22" ht="16" thickBot="1">
+    <row r="29" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="157"/>
       <c r="C29" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="163">
-        <f>'[4]Research data'!G31</f>
+        <f>'[3]Research data'!G31</f>
         <v>0</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -6354,20 +6107,20 @@
       </c>
       <c r="T29" s="153"/>
       <c r="U29" s="178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V29" s="66"/>
     </row>
-    <row r="30" spans="2:22" ht="16" thickBot="1">
+    <row r="30" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="157"/>
       <c r="C30" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="163">
-        <f>'[4]Research data'!G32</f>
+        <f>'[3]Research data'!G32</f>
         <v>1.0756399999999999E-2</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -6393,7 +6146,7 @@
       <c r="U30" s="178"/>
       <c r="V30" s="66"/>
     </row>
-    <row r="31" spans="2:22" ht="16" thickBot="1">
+    <row r="31" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="157"/>
       <c r="C31" s="162" t="s">
         <v>37</v>
@@ -6402,7 +6155,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="163">
-        <f>'[4]Research data'!G33</f>
+        <f>'[3]Research data'!G33</f>
         <v>1.5815200000000001E-3</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -6430,16 +6183,16 @@
       <c r="U31" s="178"/>
       <c r="V31" s="66"/>
     </row>
-    <row r="32" spans="2:22" ht="16" thickBot="1">
+    <row r="32" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="157"/>
       <c r="C32" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="165">
-        <f>'[4]Research data'!G33</f>
+        <f>'[3]Research data'!G33</f>
         <v>1.5815200000000001E-3</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -6466,7 +6219,7 @@
       <c r="U32" s="178"/>
       <c r="V32" s="66"/>
     </row>
-    <row r="33" spans="2:22">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="157"/>
       <c r="C33" s="176"/>
       <c r="D33" s="153"/>
@@ -6488,10 +6241,10 @@
       <c r="U33" s="178"/>
       <c r="V33" s="66"/>
     </row>
-    <row r="34" spans="2:22">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="157"/>
       <c r="C34" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="158"/>
       <c r="E34" s="159"/>
@@ -6513,10 +6266,10 @@
       <c r="U34" s="178"/>
       <c r="V34" s="66"/>
     </row>
-    <row r="35" spans="2:22" ht="16" thickBot="1">
+    <row r="35" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="157"/>
       <c r="C35" s="161" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="161"/>
       <c r="E35" s="161"/>
@@ -6538,16 +6291,16 @@
       <c r="U35" s="178"/>
       <c r="V35" s="66"/>
     </row>
-    <row r="36" spans="2:22" ht="16" thickBot="1">
+    <row r="36" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="157"/>
       <c r="C36" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="163">
-        <f>'[4]Research data'!G38</f>
+        <f>'[3]Research data'!G38</f>
         <v>0</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -6574,16 +6327,16 @@
       <c r="U36" s="178"/>
       <c r="V36" s="66"/>
     </row>
-    <row r="37" spans="2:22" ht="16" thickBot="1">
+    <row r="37" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="157"/>
       <c r="C37" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="163">
-        <f>'[4]Research data'!G39</f>
+        <f>'[3]Research data'!G39</f>
         <v>0</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -6610,16 +6363,16 @@
       <c r="U37" s="178"/>
       <c r="V37" s="66"/>
     </row>
-    <row r="38" spans="2:22" ht="16" thickBot="1">
+    <row r="38" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="157"/>
       <c r="C38" s="162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="163">
-        <f>'[4]Research data'!G40</f>
+        <f>'[3]Research data'!G40</f>
         <v>0</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -6645,16 +6398,16 @@
       <c r="U38" s="178"/>
       <c r="V38" s="66"/>
     </row>
-    <row r="39" spans="2:22" ht="16" thickBot="1">
+    <row r="39" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="157"/>
       <c r="C39" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="163">
-        <f>'[4]Research data'!G41</f>
+        <f>'[3]Research data'!G41</f>
         <v>3.6559299999999999E-3</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -6681,16 +6434,16 @@
       <c r="U39" s="178"/>
       <c r="V39" s="66"/>
     </row>
-    <row r="40" spans="2:22" ht="16" thickBot="1">
+    <row r="40" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="157"/>
       <c r="C40" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="163">
-        <f>'[4]Research data'!G42</f>
+        <f>'[3]Research data'!G42</f>
         <v>8.0710999999999999E-4</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -6714,20 +6467,20 @@
       </c>
       <c r="T40" s="153"/>
       <c r="U40" s="178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V40" s="66"/>
     </row>
-    <row r="41" spans="2:22" ht="16" thickBot="1">
+    <row r="41" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="157"/>
       <c r="C41" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="163">
-        <f>'[4]Research data'!G43</f>
+        <f>'[3]Research data'!G43</f>
         <v>2.1007E-4</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -6753,7 +6506,7 @@
       <c r="U41" s="178"/>
       <c r="V41" s="66"/>
     </row>
-    <row r="42" spans="2:22" ht="16" thickBot="1">
+    <row r="42" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="157"/>
       <c r="C42" s="162" t="s">
         <v>37</v>
@@ -6762,7 +6515,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="163">
-        <f>'[4]Research data'!G44</f>
+        <f>'[3]Research data'!G44</f>
         <v>8.7446399999999994E-2</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -6790,16 +6543,16 @@
       <c r="U42" s="178"/>
       <c r="V42" s="66"/>
     </row>
-    <row r="43" spans="2:22" ht="16" thickBot="1">
+    <row r="43" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="157"/>
       <c r="C43" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="165">
-        <f>'[4]Research data'!G44</f>
+        <f>'[3]Research data'!G44</f>
         <v>8.7446399999999994E-2</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -6826,7 +6579,7 @@
       <c r="U43" s="178"/>
       <c r="V43" s="66"/>
     </row>
-    <row r="44" spans="2:22">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="157"/>
       <c r="C44" s="176"/>
       <c r="D44" s="153"/>
@@ -6848,10 +6601,10 @@
       <c r="U44" s="178"/>
       <c r="V44" s="66"/>
     </row>
-    <row r="45" spans="2:22">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="157"/>
       <c r="C45" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="189"/>
@@ -6873,10 +6626,10 @@
       <c r="U45" s="178"/>
       <c r="V45" s="66"/>
     </row>
-    <row r="46" spans="2:22" ht="16" thickBot="1">
+    <row r="46" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="157"/>
       <c r="C46" s="161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46" s="161"/>
       <c r="E46" s="161"/>
@@ -6898,16 +6651,16 @@
       <c r="U46" s="178"/>
       <c r="V46" s="66"/>
     </row>
-    <row r="47" spans="2:22" ht="16" thickBot="1">
+    <row r="47" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="157"/>
       <c r="C47" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="190">
-        <f>'[4]Research data'!G49</f>
+        <f>'[3]Research data'!G49</f>
         <v>0</v>
       </c>
       <c r="F47" s="22" t="s">
@@ -6934,16 +6687,16 @@
       <c r="U47" s="178"/>
       <c r="V47" s="66"/>
     </row>
-    <row r="48" spans="2:22" ht="16" thickBot="1">
+    <row r="48" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="157"/>
       <c r="C48" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="190">
-        <f>'[4]Research data'!G50</f>
+        <f>'[3]Research data'!G50</f>
         <v>1.1964799999999999E-2</v>
       </c>
       <c r="F48" s="22" t="s">
@@ -6970,16 +6723,16 @@
       <c r="U48" s="178"/>
       <c r="V48" s="66"/>
     </row>
-    <row r="49" spans="2:22" ht="16" thickBot="1">
+    <row r="49" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="157"/>
       <c r="C49" s="162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="190">
-        <f>'[4]Research data'!G51</f>
+        <f>'[3]Research data'!G51</f>
         <v>2.0680500000000001E-3</v>
       </c>
       <c r="F49" s="22" t="s">
@@ -7005,16 +6758,16 @@
       <c r="U49" s="178"/>
       <c r="V49" s="66"/>
     </row>
-    <row r="50" spans="2:22" ht="16" thickBot="1">
+    <row r="50" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="157"/>
       <c r="C50" s="162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="190">
-        <f>'[4]Research data'!G52</f>
+        <f>'[3]Research data'!G52</f>
         <v>2.4298000000000001E-4</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -7041,16 +6794,16 @@
       <c r="U50" s="178"/>
       <c r="V50" s="66"/>
     </row>
-    <row r="51" spans="2:22" ht="16" thickBot="1">
+    <row r="51" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="157"/>
       <c r="C51" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E51" s="190">
-        <f>'[4]Research data'!G53</f>
+        <f>'[3]Research data'!G53</f>
         <v>9.9245600000000003E-2</v>
       </c>
       <c r="F51" s="22" t="s">
@@ -7075,19 +6828,19 @@
       </c>
       <c r="T51" s="153"/>
       <c r="U51" s="178" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" ht="16" thickBot="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="157"/>
       <c r="C52" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="190">
-        <f>'[4]Research data'!G54</f>
+        <f>'[3]Research data'!G54</f>
         <v>0</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -7112,7 +6865,7 @@
       <c r="T52" s="153"/>
       <c r="U52" s="178"/>
     </row>
-    <row r="53" spans="2:22" ht="16" thickBot="1">
+    <row r="53" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="157"/>
       <c r="C53" s="162" t="s">
         <v>37</v>
@@ -7121,7 +6874,7 @@
         <v>40</v>
       </c>
       <c r="E53" s="190">
-        <f>'[4]Research data'!G55</f>
+        <f>'[3]Research data'!G55</f>
         <v>0</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -7148,16 +6901,16 @@
       <c r="T53" s="153"/>
       <c r="U53" s="178"/>
     </row>
-    <row r="54" spans="2:22" ht="16" thickBot="1">
+    <row r="54" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="157"/>
       <c r="C54" s="162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="165">
-        <f>'[4]Research data'!G55</f>
+        <f>'[3]Research data'!G55</f>
         <v>0</v>
       </c>
       <c r="F54" s="22" t="s">
@@ -7183,7 +6936,7 @@
       <c r="T54" s="153"/>
       <c r="U54" s="178"/>
     </row>
-    <row r="55" spans="2:22">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="157"/>
       <c r="C55" s="176"/>
       <c r="D55" s="153"/>
@@ -7204,7 +6957,7 @@
       <c r="T55" s="153"/>
       <c r="U55" s="178"/>
     </row>
-    <row r="56" spans="2:22">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="153"/>
       <c r="C56" s="176"/>
       <c r="D56" s="153"/>
@@ -7225,7 +6978,7 @@
       <c r="T56" s="153"/>
       <c r="U56" s="178"/>
     </row>
-    <row r="57" spans="2:22">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="153"/>
       <c r="C57" s="153"/>
       <c r="D57" s="153"/>
@@ -7239,7 +6992,7 @@
       <c r="N57" s="65"/>
       <c r="P57" s="65"/>
     </row>
-    <row r="58" spans="2:22">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
       <c r="I58" s="65"/>
@@ -7249,7 +7002,7 @@
       <c r="N58" s="65"/>
       <c r="P58" s="65"/>
     </row>
-    <row r="59" spans="2:22">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C59" s="66"/>
       <c r="D59" s="66"/>
       <c r="I59" s="65"/>
@@ -7260,7 +7013,7 @@
       <c r="N59" s="65"/>
       <c r="P59" s="65"/>
     </row>
-    <row r="60" spans="2:22">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C60" s="66"/>
       <c r="D60" s="66"/>
       <c r="I60" s="65"/>
@@ -7271,7 +7024,7 @@
       <c r="N60" s="65"/>
       <c r="P60" s="65"/>
     </row>
-    <row r="61" spans="2:22">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
       <c r="I61" s="65"/>
@@ -7282,7 +7035,7 @@
       <c r="N61" s="65"/>
       <c r="P61" s="65"/>
     </row>
-    <row r="62" spans="2:22">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C62" s="66"/>
       <c r="D62" s="66"/>
       <c r="I62" s="65"/>
@@ -7293,7 +7046,7 @@
       <c r="N62" s="65"/>
       <c r="P62" s="65"/>
     </row>
-    <row r="63" spans="2:22">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C63" s="66"/>
       <c r="D63" s="66"/>
       <c r="I63" s="65"/>
@@ -7304,7 +7057,7 @@
       <c r="N63" s="65"/>
       <c r="P63" s="65"/>
     </row>
-    <row r="64" spans="2:22">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C64" s="66"/>
       <c r="D64" s="66"/>
       <c r="I64" s="65"/>
@@ -7315,7 +7068,7 @@
       <c r="N64" s="65"/>
       <c r="P64" s="65"/>
     </row>
-    <row r="65" spans="3:16">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C65" s="66"/>
       <c r="D65" s="66"/>
       <c r="I65" s="65"/>
@@ -7326,7 +7079,7 @@
       <c r="N65" s="65"/>
       <c r="P65" s="65"/>
     </row>
-    <row r="66" spans="3:16">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
       <c r="I66" s="65"/>
@@ -7337,7 +7090,7 @@
       <c r="N66" s="65"/>
       <c r="P66" s="65"/>
     </row>
-    <row r="67" spans="3:16">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C67" s="66"/>
       <c r="D67" s="66"/>
       <c r="I67" s="65"/>
@@ -7348,7 +7101,7 @@
       <c r="N67" s="65"/>
       <c r="P67" s="65"/>
     </row>
-    <row r="68" spans="3:16">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C68" s="66"/>
       <c r="D68" s="66"/>
       <c r="I68" s="65"/>
@@ -7359,7 +7112,7 @@
       <c r="N68" s="65"/>
       <c r="P68" s="65"/>
     </row>
-    <row r="69" spans="3:16">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C69" s="66"/>
       <c r="D69" s="66"/>
       <c r="I69" s="65"/>
@@ -7370,7 +7123,7 @@
       <c r="N69" s="65"/>
       <c r="P69" s="65"/>
     </row>
-    <row r="70" spans="3:16">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C70" s="66"/>
       <c r="D70" s="66"/>
       <c r="I70" s="65"/>
@@ -7381,7 +7134,7 @@
       <c r="N70" s="65"/>
       <c r="P70" s="65"/>
     </row>
-    <row r="71" spans="3:16">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C71" s="66"/>
       <c r="D71" s="66"/>
       <c r="I71" s="65"/>
@@ -7392,7 +7145,7 @@
       <c r="N71" s="65"/>
       <c r="P71" s="65"/>
     </row>
-    <row r="72" spans="3:16">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C72" s="66"/>
       <c r="D72" s="66"/>
       <c r="I72" s="65"/>
@@ -7403,7 +7156,7 @@
       <c r="N72" s="65"/>
       <c r="P72" s="65"/>
     </row>
-    <row r="73" spans="3:16">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C73" s="66"/>
       <c r="D73" s="66"/>
       <c r="I73" s="65"/>
@@ -7414,7 +7167,7 @@
       <c r="N73" s="65"/>
       <c r="P73" s="65"/>
     </row>
-    <row r="74" spans="3:16">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C74" s="66"/>
       <c r="D74" s="66"/>
       <c r="I74" s="65"/>
@@ -7425,7 +7178,7 @@
       <c r="N74" s="65"/>
       <c r="P74" s="65"/>
     </row>
-    <row r="75" spans="3:16">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C75" s="66"/>
       <c r="D75" s="66"/>
       <c r="I75" s="65"/>
@@ -7436,7 +7189,7 @@
       <c r="N75" s="65"/>
       <c r="P75" s="65"/>
     </row>
-    <row r="76" spans="3:16">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C76" s="66"/>
       <c r="D76" s="66"/>
       <c r="I76" s="65"/>
@@ -7447,7 +7200,7 @@
       <c r="N76" s="65"/>
       <c r="P76" s="65"/>
     </row>
-    <row r="77" spans="3:16">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C77" s="66"/>
       <c r="D77" s="66"/>
       <c r="I77" s="65"/>
@@ -7458,7 +7211,7 @@
       <c r="N77" s="65"/>
       <c r="P77" s="65"/>
     </row>
-    <row r="78" spans="3:16">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C78" s="66"/>
       <c r="D78" s="66"/>
       <c r="I78" s="65"/>
@@ -7469,7 +7222,7 @@
       <c r="N78" s="65"/>
       <c r="P78" s="65"/>
     </row>
-    <row r="79" spans="3:16">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C79" s="66"/>
       <c r="D79" s="66"/>
       <c r="I79" s="65"/>
@@ -7480,7 +7233,7 @@
       <c r="N79" s="65"/>
       <c r="P79" s="65"/>
     </row>
-    <row r="80" spans="3:16">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C80" s="66"/>
       <c r="D80" s="66"/>
       <c r="I80" s="65"/>
@@ -7491,7 +7244,7 @@
       <c r="N80" s="65"/>
       <c r="P80" s="65"/>
     </row>
-    <row r="81" spans="3:16">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="66"/>
       <c r="D81" s="66"/>
       <c r="I81" s="65"/>
@@ -7502,7 +7255,7 @@
       <c r="N81" s="65"/>
       <c r="P81" s="65"/>
     </row>
-    <row r="82" spans="3:16">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="66"/>
       <c r="D82" s="66"/>
       <c r="I82" s="65"/>
@@ -7513,7 +7266,7 @@
       <c r="N82" s="65"/>
       <c r="P82" s="65"/>
     </row>
-    <row r="83" spans="3:16">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="66"/>
       <c r="D83" s="66"/>
       <c r="I83" s="65"/>
@@ -7524,7 +7277,7 @@
       <c r="N83" s="65"/>
       <c r="P83" s="65"/>
     </row>
-    <row r="84" spans="3:16">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
       <c r="I84" s="65"/>
@@ -7535,7 +7288,7 @@
       <c r="N84" s="65"/>
       <c r="P84" s="65"/>
     </row>
-    <row r="85" spans="3:16">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="66"/>
       <c r="D85" s="66"/>
       <c r="I85" s="65"/>
@@ -7546,7 +7299,7 @@
       <c r="N85" s="65"/>
       <c r="P85" s="65"/>
     </row>
-    <row r="86" spans="3:16">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
       <c r="I86" s="65"/>
@@ -7557,7 +7310,7 @@
       <c r="N86" s="65"/>
       <c r="P86" s="65"/>
     </row>
-    <row r="87" spans="3:16">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="66"/>
       <c r="D87" s="66"/>
       <c r="I87" s="65"/>
@@ -7568,7 +7321,7 @@
       <c r="N87" s="65"/>
       <c r="P87" s="65"/>
     </row>
-    <row r="88" spans="3:16">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="66"/>
       <c r="D88" s="66"/>
       <c r="I88" s="65"/>
@@ -7579,7 +7332,7 @@
       <c r="N88" s="65"/>
       <c r="P88" s="65"/>
     </row>
-    <row r="89" spans="3:16">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="66"/>
       <c r="D89" s="66"/>
       <c r="I89" s="65"/>
@@ -7590,7 +7343,7 @@
       <c r="N89" s="65"/>
       <c r="P89" s="65"/>
     </row>
-    <row r="90" spans="3:16">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="66"/>
       <c r="D90" s="66"/>
       <c r="I90" s="65"/>
@@ -7601,7 +7354,7 @@
       <c r="N90" s="65"/>
       <c r="P90" s="65"/>
     </row>
-    <row r="91" spans="3:16">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="66"/>
       <c r="D91" s="66"/>
       <c r="I91" s="65"/>
@@ -7612,7 +7365,7 @@
       <c r="N91" s="65"/>
       <c r="P91" s="65"/>
     </row>
-    <row r="92" spans="3:16">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="66"/>
       <c r="D92" s="66"/>
       <c r="I92" s="65"/>
@@ -7623,7 +7376,7 @@
       <c r="N92" s="65"/>
       <c r="P92" s="65"/>
     </row>
-    <row r="93" spans="3:16">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="66"/>
       <c r="D93" s="66"/>
       <c r="I93" s="65"/>
@@ -7634,7 +7387,7 @@
       <c r="N93" s="65"/>
       <c r="P93" s="65"/>
     </row>
-    <row r="94" spans="3:16">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="66"/>
       <c r="D94" s="66"/>
       <c r="I94" s="65"/>
@@ -7645,7 +7398,7 @@
       <c r="N94" s="65"/>
       <c r="P94" s="65"/>
     </row>
-    <row r="95" spans="3:16">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="66"/>
       <c r="D95" s="66"/>
       <c r="I95" s="65"/>
@@ -7656,7 +7409,7 @@
       <c r="N95" s="65"/>
       <c r="P95" s="65"/>
     </row>
-    <row r="96" spans="3:16">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="66"/>
       <c r="D96" s="66"/>
       <c r="I96" s="65"/>
@@ -7667,7 +7420,7 @@
       <c r="N96" s="65"/>
       <c r="P96" s="65"/>
     </row>
-    <row r="97" spans="3:16">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="66"/>
       <c r="D97" s="66"/>
       <c r="I97" s="65"/>
@@ -7678,7 +7431,7 @@
       <c r="N97" s="65"/>
       <c r="P97" s="65"/>
     </row>
-    <row r="98" spans="3:16">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="66"/>
       <c r="D98" s="66"/>
       <c r="I98" s="65"/>
@@ -7689,7 +7442,7 @@
       <c r="N98" s="65"/>
       <c r="P98" s="65"/>
     </row>
-    <row r="99" spans="3:16">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="66"/>
       <c r="D99" s="66"/>
       <c r="I99" s="65"/>
@@ -7700,7 +7453,7 @@
       <c r="N99" s="65"/>
       <c r="P99" s="65"/>
     </row>
-    <row r="100" spans="3:16">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="66"/>
       <c r="D100" s="66"/>
       <c r="I100" s="65"/>
@@ -7711,7 +7464,7 @@
       <c r="N100" s="65"/>
       <c r="P100" s="65"/>
     </row>
-    <row r="101" spans="3:16">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="66"/>
       <c r="D101" s="66"/>
       <c r="I101" s="65"/>
@@ -7722,7 +7475,7 @@
       <c r="N101" s="65"/>
       <c r="P101" s="65"/>
     </row>
-    <row r="102" spans="3:16">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="66"/>
       <c r="D102" s="66"/>
       <c r="I102" s="65"/>
@@ -7733,18 +7486,13 @@
       <c r="N102" s="65"/>
       <c r="P102" s="65"/>
     </row>
-    <row r="103" spans="3:16">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C103" s="66"/>
       <c r="D103" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7759,23 +7507,23 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.125" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="45"/>
+    <col min="7" max="7" width="10.140625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.140625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -7788,7 +7536,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>10</v>
@@ -7803,7 +7551,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -7816,7 +7564,7 @@
       <c r="K4" s="54"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>12</v>
@@ -7845,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -7858,14 +7606,14 @@
       <c r="K6" s="52"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="115" t="s">
         <v>48</v>
@@ -7874,22 +7622,22 @@
         <v>51</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="113" t="s">
         <v>37</v>
@@ -7902,10 +7650,10 @@
       <c r="J8" s="54"/>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="108"/>
@@ -7916,7 +7664,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="113"/>
       <c r="D10" s="59"/>
@@ -7928,18 +7676,18 @@
       <c r="J10" s="54"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:12" ht="16">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="113" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="111"/>
       <c r="G11" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="61" t="s">
         <v>52</v>
@@ -7948,51 +7696,51 @@
         <v>52</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="122" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
       <c r="C12" s="113"/>
       <c r="D12" s="62"/>
       <c r="E12" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="152" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>143</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>144</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>51</v>
@@ -8007,15 +7755,15 @@
         <v>42309</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E15" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>145</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>146</v>
       </c>
       <c r="H15" s="45">
         <v>2014</v>
@@ -8027,15 +7775,15 @@
         <v>42309</v>
       </c>
       <c r="K15" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="154" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E16" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>51</v>
@@ -8050,20 +7798,15 @@
         <v>42309</v>
       </c>
       <c r="K16" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>182</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8075,23 +7818,23 @@
       <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
     <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="7" style="98"/>
-    <col min="18" max="18" width="9.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="7" style="98"/>
-    <col min="22" max="22" width="9.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="24" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>24</v>
@@ -8119,7 +7862,7 @@
       <c r="T2" s="102"/>
       <c r="U2" s="102"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="99"/>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -8141,10 +7884,10 @@
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="99"/>
       <c r="C4" s="134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="108"/>
       <c r="E4" s="108"/>
@@ -8169,7 +7912,7 @@
       <c r="X4" s="108"/>
       <c r="Y4" s="108"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="99"/>
       <c r="C5" s="108"/>
       <c r="D5" s="108"/>
@@ -8195,7 +7938,7 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="99"/>
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
@@ -8221,7 +7964,7 @@
       <c r="X6" s="108"/>
       <c r="Y6" s="108"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
@@ -8247,7 +7990,7 @@
       <c r="X7" s="108"/>
       <c r="Y7" s="108"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="99"/>
       <c r="C8" s="108"/>
       <c r="D8" s="108"/>
@@ -8273,7 +8016,7 @@
       <c r="X8" s="108"/>
       <c r="Y8" s="108"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="99"/>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
@@ -8299,7 +8042,7 @@
       <c r="X9" s="108"/>
       <c r="Y9" s="108"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="99"/>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
@@ -8325,7 +8068,7 @@
       <c r="X10" s="108"/>
       <c r="Y10" s="108"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="99"/>
       <c r="C11" s="108"/>
       <c r="D11" s="108"/>
@@ -8351,7 +8094,7 @@
       <c r="X11" s="108"/>
       <c r="Y11" s="108"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="99"/>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
@@ -8377,7 +8120,7 @@
       <c r="X12" s="108"/>
       <c r="Y12" s="108"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="99"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
@@ -8403,7 +8146,7 @@
       <c r="X13" s="108"/>
       <c r="Y13" s="108"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="99"/>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
@@ -8429,7 +8172,7 @@
       <c r="X14" s="108"/>
       <c r="Y14" s="108"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="99"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
@@ -8454,7 +8197,7 @@
       <c r="X15" s="108"/>
       <c r="Y15" s="108"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="99"/>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
@@ -8479,7 +8222,7 @@
       <c r="X16" s="108"/>
       <c r="Y16" s="108"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="99"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -8505,7 +8248,7 @@
       <c r="X17" s="108"/>
       <c r="Y17" s="108"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="99"/>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
@@ -8531,7 +8274,7 @@
       <c r="X18" s="108"/>
       <c r="Y18" s="108"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="99"/>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
@@ -8557,7 +8300,7 @@
       <c r="X19" s="108"/>
       <c r="Y19" s="108"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="99"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
@@ -8582,7 +8325,7 @@
       <c r="X20" s="108"/>
       <c r="Y20" s="108"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="99"/>
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
@@ -8607,7 +8350,7 @@
       <c r="X21" s="108"/>
       <c r="Y21" s="108"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="99"/>
       <c r="C22" s="108"/>
       <c r="D22" s="108">
@@ -8639,7 +8382,7 @@
       <c r="X22" s="108"/>
       <c r="Y22" s="108"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="99"/>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -8647,10 +8390,10 @@
         <v>432</v>
       </c>
       <c r="G23" s="125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="108"/>
       <c r="K23" s="108"/>
@@ -8669,7 +8412,7 @@
       <c r="X23" s="108"/>
       <c r="Y23" s="108"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -8681,7 +8424,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="108"/>
       <c r="K24" s="108"/>
@@ -8700,7 +8443,7 @@
       <c r="X24" s="108"/>
       <c r="Y24" s="108"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="99"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -8731,7 +8474,7 @@
       <c r="X25" s="108"/>
       <c r="Y25" s="108"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="99"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -8739,7 +8482,7 @@
         <v>55.9</v>
       </c>
       <c r="G26" s="125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="108" t="s">
         <v>50</v>
@@ -8761,7 +8504,7 @@
       <c r="X26" s="108"/>
       <c r="Y26" s="108"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -8792,7 +8535,7 @@
       <c r="X27" s="108"/>
       <c r="Y27" s="108"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99"/>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
@@ -8813,68 +8556,68 @@
       <c r="X28" s="108"/>
       <c r="Y28" s="108"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="99"/>
       <c r="D29" s="108"/>
       <c r="E29" s="108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" s="108"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="99"/>
       <c r="D30" s="108"/>
       <c r="E30" s="108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J30" s="108"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
       <c r="F32" s="125"/>
       <c r="G32" s="125"/>
       <c r="H32" s="109"/>
     </row>
-    <row r="33" spans="2:18" customFormat="1" ht="16">
+    <row r="33" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="99"/>
       <c r="F33" s="126"/>
       <c r="G33" s="125"/>
       <c r="H33" s="109"/>
     </row>
-    <row r="34" spans="2:18" customFormat="1" ht="16">
+    <row r="34" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99"/>
       <c r="F34" s="125"/>
       <c r="G34" s="125"/>
       <c r="H34" s="109"/>
     </row>
-    <row r="35" spans="2:18" customFormat="1" ht="16">
+    <row r="35" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="F35" s="125"/>
       <c r="G35" s="125"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="2:18" customFormat="1" ht="16">
+    <row r="36" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="F36">
         <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" customFormat="1" ht="16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="F37">
         <v>1000</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" customFormat="1" ht="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="E38" s="108"/>
       <c r="F38">
@@ -8882,10 +8625,10 @@
         <v>49500</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" customFormat="1" ht="16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="99"/>
       <c r="E39" s="108"/>
       <c r="F39">
@@ -8893,10 +8636,10 @@
         <v>5.9595959595959598E-3</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" customFormat="1" ht="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99"/>
       <c r="I40" s="98"/>
       <c r="J40" s="98"/>
@@ -8909,7 +8652,7 @@
       <c r="Q40" s="98"/>
       <c r="R40" s="98"/>
     </row>
-    <row r="41" spans="2:18" customFormat="1" ht="16">
+    <row r="41" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99"/>
       <c r="I41" s="98"/>
       <c r="J41" s="98"/>
@@ -8922,13 +8665,13 @@
       <c r="Q41" s="98"/>
       <c r="R41" s="98"/>
     </row>
-    <row r="42" spans="2:18" customFormat="1" ht="16">
+    <row r="42" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="99"/>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I42" s="98"/>
       <c r="J42" s="98"/>
@@ -8941,14 +8684,14 @@
       <c r="Q42" s="98"/>
       <c r="R42" s="98"/>
     </row>
-    <row r="43" spans="2:18" customFormat="1" ht="16">
+    <row r="43" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99"/>
       <c r="F43">
         <f>F42*3600</f>
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I43" s="98"/>
       <c r="J43" s="98"/>
@@ -8961,7 +8704,7 @@
       <c r="Q43" s="98"/>
       <c r="R43" s="98"/>
     </row>
-    <row r="44" spans="2:18" customFormat="1" ht="16">
+    <row r="44" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="99"/>
       <c r="F44">
         <f>F43*1000</f>
@@ -8981,7 +8724,7 @@
       <c r="Q44" s="98"/>
       <c r="R44" s="98"/>
     </row>
-    <row r="45" spans="2:18" customFormat="1" ht="16">
+    <row r="45" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="99"/>
       <c r="I45" s="98"/>
       <c r="J45" s="98"/>
@@ -8994,7 +8737,7 @@
       <c r="Q45" s="98"/>
       <c r="R45" s="98"/>
     </row>
-    <row r="46" spans="2:18" customFormat="1" ht="16">
+    <row r="46" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99"/>
       <c r="F46">
         <v>1.4999999999999999E-2</v>
@@ -9014,7 +8757,7 @@
       <c r="Q46" s="98"/>
       <c r="R46" s="98"/>
     </row>
-    <row r="47" spans="2:18" customFormat="1" ht="16">
+    <row r="47" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="99"/>
       <c r="I47" s="98"/>
       <c r="J47" s="98"/>
@@ -9027,7 +8770,7 @@
       <c r="Q47" s="98"/>
       <c r="R47" s="98"/>
     </row>
-    <row r="48" spans="2:18" customFormat="1" ht="16">
+    <row r="48" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99"/>
       <c r="I48" s="98"/>
       <c r="J48" s="98"/>
@@ -9040,7 +8783,7 @@
       <c r="Q48" s="98"/>
       <c r="R48" s="98"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" ht="16">
+    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
       <c r="I49" s="98"/>
       <c r="J49" s="98"/>
@@ -9053,7 +8796,7 @@
       <c r="Q49" s="98"/>
       <c r="R49" s="98"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" ht="16">
+    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
       <c r="I50" s="98"/>
       <c r="J50" s="98"/>
@@ -9070,7 +8813,7 @@
       <c r="U50" s="98"/>
       <c r="V50" s="98"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" ht="16">
+    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="99"/>
       <c r="I51" s="98"/>
       <c r="J51" s="98"/>
@@ -9087,7 +8830,7 @@
       <c r="U51" s="98"/>
       <c r="V51" s="98"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" ht="16">
+    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="99"/>
       <c r="I52" s="98"/>
       <c r="J52" s="98"/>
@@ -9100,7 +8843,7 @@
       <c r="Q52" s="98"/>
       <c r="R52" s="98"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" ht="16">
+    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="99"/>
       <c r="I53" s="98"/>
       <c r="J53" s="98"/>
@@ -9113,7 +8856,7 @@
       <c r="Q53" s="98"/>
       <c r="R53" s="98"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" ht="16">
+    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="99"/>
       <c r="I54" s="98"/>
       <c r="J54" s="98"/>
@@ -9126,7 +8869,7 @@
       <c r="Q54" s="98"/>
       <c r="R54" s="98"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" ht="16">
+    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="99"/>
       <c r="I55" s="98"/>
       <c r="J55" s="98"/>
@@ -9139,7 +8882,7 @@
       <c r="Q55" s="98"/>
       <c r="R55" s="98"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" ht="16">
+    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="99"/>
       <c r="I56" s="98"/>
       <c r="J56" s="98"/>
@@ -9152,7 +8895,7 @@
       <c r="Q56" s="98"/>
       <c r="R56" s="98"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" ht="16">
+    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="99"/>
       <c r="I57" s="98"/>
       <c r="J57" s="98"/>
@@ -9165,7 +8908,7 @@
       <c r="Q57" s="98"/>
       <c r="R57" s="98"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" ht="16">
+    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99"/>
       <c r="I58" s="98"/>
       <c r="J58" s="98"/>
@@ -9178,7 +8921,7 @@
       <c r="Q58" s="98"/>
       <c r="R58" s="98"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" ht="16">
+    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99"/>
       <c r="I59" s="98"/>
       <c r="J59" s="98"/>
@@ -9191,10 +8934,10 @@
       <c r="Q59" s="98"/>
       <c r="R59" s="98"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="60" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="99"/>
     </row>
-    <row r="61" spans="2:25" s="24" customFormat="1">
+    <row r="61" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="102"/>
       <c r="C61" s="102" t="s">
         <v>24</v>
@@ -9222,10 +8965,10 @@
       <c r="T61" s="102"/>
       <c r="U61" s="102"/>
     </row>
-    <row r="62" spans="2:25" customFormat="1" ht="16">
+    <row r="62" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="C62" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="108"/>
       <c r="E62" s="108"/>
@@ -9250,72 +8993,72 @@
       <c r="X62" s="108"/>
       <c r="Y62" s="108"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" ht="16">
+    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="99"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" ht="16">
+    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99"/>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64">
         <v>6.55</v>
       </c>
       <c r="G64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" customFormat="1" ht="16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="99"/>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65">
         <v>6.3</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" customFormat="1" ht="16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99"/>
       <c r="E66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66">
         <v>6.41</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" customFormat="1" ht="16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="F67">
         <f>AVERAGE(F64,F65,F66)</f>
         <v>6.419999999999999</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" customFormat="1" ht="16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="F68">
         <f>F67/1055.05585</f>
         <v>6.084985927522225E-3</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" customFormat="1" ht="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="99"/>
     </row>
-    <row r="70" spans="2:9" customFormat="1" ht="16">
+    <row r="70" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="99"/>
       <c r="D70" s="148"/>
       <c r="E70" s="148"/>
@@ -9324,10 +9067,10 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="G70" s="148" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" customFormat="1" ht="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="99"/>
       <c r="D71" s="148"/>
       <c r="E71" s="148"/>
@@ -9336,10 +9079,10 @@
         <v>0.91074681238615662</v>
       </c>
       <c r="G71" s="148" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" customFormat="1" ht="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99"/>
       <c r="D72" s="148"/>
       <c r="E72" s="146"/>
@@ -9347,7 +9090,7 @@
       <c r="G72" s="146"/>
       <c r="H72" s="147"/>
     </row>
-    <row r="73" spans="2:9" customFormat="1" ht="16">
+    <row r="73" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="99"/>
       <c r="D73" s="148"/>
       <c r="E73" s="148"/>
@@ -9356,44 +9099,44 @@
         <v>5.5418815369054873E-3</v>
       </c>
       <c r="G73" s="148" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" customFormat="1" ht="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="99"/>
     </row>
-    <row r="75" spans="2:9" customFormat="1" ht="16">
+    <row r="75" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="99"/>
     </row>
-    <row r="76" spans="2:9" customFormat="1" ht="16">
+    <row r="76" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="99"/>
       <c r="I76" s="149"/>
     </row>
-    <row r="77" spans="2:9" customFormat="1" ht="16">
+    <row r="77" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="99"/>
     </row>
-    <row r="78" spans="2:9" customFormat="1" ht="16">
+    <row r="78" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="99"/>
     </row>
-    <row r="79" spans="2:9" customFormat="1" ht="16">
+    <row r="79" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="99"/>
     </row>
-    <row r="80" spans="2:9" customFormat="1" ht="16">
+    <row r="80" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="99"/>
     </row>
-    <row r="81" spans="2:25" customFormat="1" ht="16">
+    <row r="81" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="99"/>
     </row>
-    <row r="82" spans="2:25" customFormat="1" ht="16">
+    <row r="82" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99"/>
     </row>
-    <row r="83" spans="2:25" customFormat="1" ht="16">
+    <row r="83" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="99"/>
     </row>
-    <row r="84" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="84" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="99"/>
     </row>
-    <row r="85" spans="2:25" s="24" customFormat="1">
+    <row r="85" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="102"/>
       <c r="C85" s="102" t="s">
         <v>24</v>
@@ -9421,7 +9164,7 @@
       <c r="T85" s="102"/>
       <c r="U85" s="102"/>
     </row>
-    <row r="86" spans="2:25" customFormat="1" ht="16">
+    <row r="86" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="99"/>
       <c r="C86" s="108"/>
       <c r="D86" s="108"/>
@@ -9447,10 +9190,10 @@
       <c r="X86" s="108"/>
       <c r="Y86" s="108"/>
     </row>
-    <row r="87" spans="2:25" customFormat="1" ht="16">
+    <row r="87" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="99"/>
       <c r="C87" s="123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
@@ -9475,7 +9218,7 @@
       <c r="X87" s="108"/>
       <c r="Y87" s="108"/>
     </row>
-    <row r="88" spans="2:25" customFormat="1" ht="16">
+    <row r="88" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="99"/>
       <c r="C88" s="122"/>
       <c r="D88" s="108"/>
@@ -9501,7 +9244,7 @@
       <c r="X88" s="108"/>
       <c r="Y88" s="108"/>
     </row>
-    <row r="89" spans="2:25" customFormat="1" ht="16">
+    <row r="89" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="99"/>
       <c r="C89" s="108"/>
       <c r="E89" s="108"/>
@@ -9526,7 +9269,7 @@
       <c r="X89" s="108"/>
       <c r="Y89" s="108"/>
     </row>
-    <row r="90" spans="2:25" customFormat="1" ht="16">
+    <row r="90" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="99"/>
       <c r="C90" s="108"/>
       <c r="D90" s="108"/>
@@ -9552,7 +9295,7 @@
       <c r="X90" s="108"/>
       <c r="Y90" s="108"/>
     </row>
-    <row r="91" spans="2:25" customFormat="1" ht="16">
+    <row r="91" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="99"/>
       <c r="C91" s="108"/>
       <c r="D91" s="124"/>
@@ -9570,7 +9313,7 @@
       <c r="X91" s="108"/>
       <c r="Y91" s="108"/>
     </row>
-    <row r="92" spans="2:25" customFormat="1" ht="16">
+    <row r="92" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="99"/>
       <c r="C92" s="108"/>
       <c r="D92" s="108"/>
@@ -9588,7 +9331,7 @@
       <c r="X92" s="108"/>
       <c r="Y92" s="108"/>
     </row>
-    <row r="93" spans="2:25" customFormat="1" ht="16">
+    <row r="93" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="99"/>
       <c r="C93" s="108"/>
       <c r="D93" s="108"/>
@@ -9596,7 +9339,7 @@
         <v>295</v>
       </c>
       <c r="G93" s="108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O93" s="108"/>
       <c r="P93" s="108"/>
@@ -9610,7 +9353,7 @@
       <c r="X93" s="108"/>
       <c r="Y93" s="108"/>
     </row>
-    <row r="94" spans="2:25" customFormat="1" ht="16">
+    <row r="94" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="99"/>
       <c r="C94" s="108"/>
       <c r="D94" s="108"/>
@@ -9619,7 +9362,7 @@
         <v>5.9595959595959589E-3</v>
       </c>
       <c r="G94" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O94" s="108"/>
       <c r="P94" s="108"/>
@@ -9633,7 +9376,7 @@
       <c r="X94" s="108"/>
       <c r="Y94" s="108"/>
     </row>
-    <row r="95" spans="2:25" customFormat="1" ht="16">
+    <row r="95" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="99"/>
       <c r="C95" s="108"/>
       <c r="D95" s="108"/>
@@ -9651,19 +9394,19 @@
       <c r="X95" s="108"/>
       <c r="Y95" s="108"/>
     </row>
-    <row r="96" spans="2:25" customFormat="1" ht="16">
+    <row r="96" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="99"/>
       <c r="C96" s="108"/>
       <c r="D96" s="108"/>
       <c r="E96" s="108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F96" s="108">
         <f>AVERAGE(F94,F73)</f>
         <v>5.7507387482507236E-3</v>
       </c>
       <c r="G96" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O96" s="108"/>
       <c r="P96" s="108"/>
@@ -9677,7 +9420,7 @@
       <c r="X96" s="108"/>
       <c r="Y96" s="108"/>
     </row>
-    <row r="97" spans="2:25" customFormat="1" ht="16">
+    <row r="97" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="99"/>
       <c r="C97" s="108"/>
       <c r="D97" s="108"/>
@@ -9695,7 +9438,7 @@
       <c r="X97" s="108"/>
       <c r="Y97" s="108"/>
     </row>
-    <row r="98" spans="2:25" customFormat="1" ht="16">
+    <row r="98" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="99"/>
       <c r="C98" s="108"/>
       <c r="D98" s="108"/>
@@ -9713,7 +9456,7 @@
       <c r="X98" s="108"/>
       <c r="Y98" s="108"/>
     </row>
-    <row r="99" spans="2:25" customFormat="1" ht="16">
+    <row r="99" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="99"/>
       <c r="C99" s="108"/>
       <c r="D99" s="108"/>
@@ -9731,7 +9474,7 @@
       <c r="X99" s="108"/>
       <c r="Y99" s="108"/>
     </row>
-    <row r="100" spans="2:25" customFormat="1" ht="16">
+    <row r="100" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="99"/>
       <c r="C100" s="108"/>
       <c r="D100" s="108"/>
@@ -9750,7 +9493,7 @@
       <c r="X100" s="108"/>
       <c r="Y100" s="108"/>
     </row>
-    <row r="101" spans="2:25" customFormat="1" ht="16">
+    <row r="101" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="99"/>
       <c r="C101" s="108"/>
       <c r="D101" s="108"/>
@@ -9768,7 +9511,7 @@
       <c r="X101" s="108"/>
       <c r="Y101" s="108"/>
     </row>
-    <row r="102" spans="2:25" customFormat="1" ht="16">
+    <row r="102" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="99"/>
       <c r="C102" s="108"/>
       <c r="D102" s="108"/>
@@ -9786,7 +9529,7 @@
       <c r="X102" s="108"/>
       <c r="Y102" s="108"/>
     </row>
-    <row r="103" spans="2:25" customFormat="1" ht="16">
+    <row r="103" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="99"/>
       <c r="C103" s="108"/>
       <c r="D103" s="108"/>
@@ -9804,7 +9547,7 @@
       <c r="X103" s="108"/>
       <c r="Y103" s="108"/>
     </row>
-    <row r="104" spans="2:25" customFormat="1" ht="16">
+    <row r="104" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="99"/>
       <c r="C104" s="108"/>
       <c r="D104" s="108"/>
@@ -9823,7 +9566,7 @@
       <c r="X104" s="108"/>
       <c r="Y104" s="108"/>
     </row>
-    <row r="105" spans="2:25" customFormat="1" ht="16">
+    <row r="105" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="99"/>
       <c r="C105" s="108"/>
       <c r="D105" s="108"/>
@@ -9842,7 +9585,7 @@
       <c r="X105" s="108"/>
       <c r="Y105" s="108"/>
     </row>
-    <row r="106" spans="2:25" customFormat="1" ht="16">
+    <row r="106" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="99"/>
       <c r="C106" s="108"/>
       <c r="D106" s="108"/>
@@ -9861,7 +9604,7 @@
       <c r="X106" s="108"/>
       <c r="Y106" s="108"/>
     </row>
-    <row r="107" spans="2:25" customFormat="1" ht="16">
+    <row r="107" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="99"/>
       <c r="C107" s="108"/>
       <c r="D107" s="108"/>
@@ -9880,7 +9623,7 @@
       <c r="X107" s="108"/>
       <c r="Y107" s="108"/>
     </row>
-    <row r="108" spans="2:25" customFormat="1" ht="16">
+    <row r="108" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="99"/>
       <c r="C108" s="108"/>
       <c r="D108" s="108"/>
@@ -9899,7 +9642,7 @@
       <c r="X108" s="108"/>
       <c r="Y108" s="108"/>
     </row>
-    <row r="109" spans="2:25" customFormat="1" ht="16">
+    <row r="109" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="99"/>
       <c r="C109" s="108"/>
       <c r="D109" s="108"/>
@@ -9918,7 +9661,7 @@
       <c r="X109" s="108"/>
       <c r="Y109" s="108"/>
     </row>
-    <row r="110" spans="2:25" customFormat="1" ht="16">
+    <row r="110" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="99"/>
       <c r="C110" s="108"/>
       <c r="D110" s="108"/>
@@ -9937,7 +9680,7 @@
       <c r="X110" s="108"/>
       <c r="Y110" s="108"/>
     </row>
-    <row r="111" spans="2:25" customFormat="1" ht="16">
+    <row r="111" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="99"/>
       <c r="C111" s="108"/>
       <c r="D111" s="108"/>
@@ -9956,278 +9699,278 @@
       <c r="X111" s="108"/>
       <c r="Y111" s="108"/>
     </row>
-    <row r="112" spans="2:25" customFormat="1" ht="16">
+    <row r="112" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="99"/>
       <c r="F112" s="108"/>
       <c r="G112" s="108"/>
     </row>
-    <row r="113" spans="2:7" customFormat="1" ht="16">
+    <row r="113" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="99"/>
       <c r="F113" s="108"/>
       <c r="G113" s="108"/>
     </row>
-    <row r="114" spans="2:7" customFormat="1" ht="16">
+    <row r="114" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="99"/>
       <c r="F114" s="108"/>
       <c r="G114" s="108"/>
     </row>
-    <row r="115" spans="2:7" customFormat="1" ht="16">
+    <row r="115" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="99"/>
       <c r="F115" s="108"/>
       <c r="G115" s="108"/>
     </row>
-    <row r="116" spans="2:7" customFormat="1" ht="16">
+    <row r="116" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="99"/>
       <c r="F116" s="108"/>
       <c r="G116" s="108"/>
     </row>
-    <row r="117" spans="2:7" customFormat="1" ht="16">
+    <row r="117" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="99"/>
       <c r="F117" s="108"/>
       <c r="G117" s="108"/>
     </row>
-    <row r="118" spans="2:7" customFormat="1" ht="16">
+    <row r="118" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="99"/>
       <c r="F118" s="108"/>
       <c r="G118" s="108"/>
     </row>
-    <row r="119" spans="2:7" customFormat="1" ht="16">
+    <row r="119" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="99"/>
       <c r="F119" s="108"/>
       <c r="G119" s="108"/>
     </row>
-    <row r="120" spans="2:7" customFormat="1" ht="16">
+    <row r="120" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="99"/>
       <c r="F120" s="108"/>
       <c r="G120" s="108"/>
     </row>
-    <row r="121" spans="2:7" customFormat="1" ht="16">
+    <row r="121" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="99"/>
       <c r="F121" s="108"/>
       <c r="G121" s="108"/>
     </row>
-    <row r="122" spans="2:7" customFormat="1" ht="16">
+    <row r="122" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="99"/>
       <c r="F122" s="108"/>
       <c r="G122" s="108"/>
     </row>
-    <row r="123" spans="2:7" customFormat="1" ht="16">
+    <row r="123" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="99"/>
       <c r="F123" s="108"/>
       <c r="G123" s="108"/>
     </row>
-    <row r="124" spans="2:7" customFormat="1" ht="16">
+    <row r="124" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="99"/>
       <c r="F124" s="108"/>
       <c r="G124" s="108"/>
     </row>
-    <row r="125" spans="2:7" customFormat="1" ht="16">
+    <row r="125" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="99"/>
       <c r="F125" s="108"/>
       <c r="G125" s="108"/>
     </row>
-    <row r="126" spans="2:7" customFormat="1" ht="16">
+    <row r="126" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="99"/>
       <c r="F126" s="108"/>
       <c r="G126" s="108"/>
     </row>
-    <row r="127" spans="2:7" customFormat="1" ht="16">
+    <row r="127" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="99"/>
       <c r="F127" s="108"/>
       <c r="G127" s="108"/>
     </row>
-    <row r="128" spans="2:7" customFormat="1" ht="16">
+    <row r="128" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="99"/>
       <c r="F128" s="108"/>
       <c r="G128" s="108"/>
     </row>
-    <row r="129" spans="2:7" customFormat="1" ht="16">
+    <row r="129" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="99"/>
       <c r="F129" s="108"/>
       <c r="G129" s="108"/>
     </row>
-    <row r="130" spans="2:7" customFormat="1" ht="16">
+    <row r="130" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="99"/>
       <c r="F130" s="108"/>
       <c r="G130" s="108"/>
     </row>
-    <row r="131" spans="2:7" customFormat="1" ht="16">
+    <row r="131" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="99"/>
       <c r="F131" s="108"/>
       <c r="G131" s="108"/>
     </row>
-    <row r="132" spans="2:7" customFormat="1" ht="16">
+    <row r="132" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="99"/>
       <c r="F132" s="108"/>
       <c r="G132" s="108"/>
     </row>
-    <row r="133" spans="2:7" customFormat="1" ht="16">
+    <row r="133" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="99"/>
       <c r="F133" s="108"/>
       <c r="G133" s="108"/>
     </row>
-    <row r="134" spans="2:7" customFormat="1" ht="16">
+    <row r="134" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="99"/>
       <c r="G134" s="108"/>
     </row>
-    <row r="135" spans="2:7" customFormat="1" ht="16">
+    <row r="135" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="99"/>
       <c r="G135" s="108"/>
     </row>
-    <row r="136" spans="2:7" customFormat="1" ht="16">
+    <row r="136" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="99"/>
       <c r="G136" s="108"/>
     </row>
-    <row r="137" spans="2:7" customFormat="1" ht="16">
+    <row r="137" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="99"/>
       <c r="G137" s="108"/>
     </row>
-    <row r="138" spans="2:7" customFormat="1" ht="16">
+    <row r="138" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="99"/>
       <c r="G138" s="108"/>
     </row>
-    <row r="139" spans="2:7" customFormat="1" ht="16">
+    <row r="139" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="99"/>
       <c r="G139" s="108"/>
     </row>
-    <row r="140" spans="2:7" customFormat="1" ht="16">
+    <row r="140" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="99"/>
       <c r="G140" s="108"/>
     </row>
-    <row r="141" spans="2:7" customFormat="1" ht="16">
+    <row r="141" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="99"/>
       <c r="G141" s="108"/>
     </row>
-    <row r="142" spans="2:7" customFormat="1" ht="16">
+    <row r="142" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="99"/>
       <c r="G142" s="108"/>
     </row>
-    <row r="143" spans="2:7" customFormat="1" ht="16">
+    <row r="143" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="99"/>
       <c r="G143" s="108"/>
     </row>
-    <row r="144" spans="2:7" customFormat="1" ht="16">
+    <row r="144" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="99"/>
       <c r="G144" s="108"/>
     </row>
-    <row r="145" spans="2:2" customFormat="1" ht="16">
+    <row r="145" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="99"/>
     </row>
-    <row r="146" spans="2:2" customFormat="1" ht="16">
+    <row r="146" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="99"/>
     </row>
-    <row r="147" spans="2:2" customFormat="1" ht="16">
+    <row r="147" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="99"/>
     </row>
-    <row r="148" spans="2:2" customFormat="1" ht="16">
+    <row r="148" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="99"/>
     </row>
-    <row r="149" spans="2:2" customFormat="1" ht="16">
+    <row r="149" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="99"/>
     </row>
-    <row r="150" spans="2:2" customFormat="1" ht="16">
+    <row r="150" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="99"/>
     </row>
-    <row r="151" spans="2:2" customFormat="1" ht="16">
+    <row r="151" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="99"/>
     </row>
-    <row r="152" spans="2:2" customFormat="1" ht="16">
+    <row r="152" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="99"/>
     </row>
-    <row r="153" spans="2:2" customFormat="1" ht="16">
+    <row r="153" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="99"/>
     </row>
-    <row r="154" spans="2:2" customFormat="1" ht="16">
+    <row r="154" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="99"/>
     </row>
-    <row r="155" spans="2:2" customFormat="1" ht="16">
+    <row r="155" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="99"/>
     </row>
-    <row r="156" spans="2:2" customFormat="1" ht="16">
+    <row r="156" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="99"/>
     </row>
-    <row r="157" spans="2:2" customFormat="1" ht="16">
+    <row r="157" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="99"/>
     </row>
-    <row r="158" spans="2:2" customFormat="1" ht="16">
+    <row r="158" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="99"/>
     </row>
-    <row r="159" spans="2:2" customFormat="1" ht="16">
+    <row r="159" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="99"/>
     </row>
-    <row r="160" spans="2:2" customFormat="1" ht="16">
+    <row r="160" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="99"/>
     </row>
-    <row r="161" spans="2:2" customFormat="1" ht="16">
+    <row r="161" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="99"/>
     </row>
-    <row r="162" spans="2:2" customFormat="1" ht="16">
+    <row r="162" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="99"/>
     </row>
-    <row r="163" spans="2:2" customFormat="1" ht="16">
+    <row r="163" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="99"/>
     </row>
-    <row r="164" spans="2:2" customFormat="1" ht="16">
+    <row r="164" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="99"/>
     </row>
-    <row r="165" spans="2:2" customFormat="1" ht="16">
+    <row r="165" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="99"/>
     </row>
-    <row r="166" spans="2:2" customFormat="1" ht="16">
+    <row r="166" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="99"/>
     </row>
-    <row r="167" spans="2:2" customFormat="1" ht="16">
+    <row r="167" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="99"/>
     </row>
-    <row r="168" spans="2:2" customFormat="1" ht="16">
+    <row r="168" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="99"/>
     </row>
-    <row r="169" spans="2:2" customFormat="1" ht="16">
+    <row r="169" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="99"/>
     </row>
-    <row r="170" spans="2:2" customFormat="1" ht="16">
+    <row r="170" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="99"/>
     </row>
-    <row r="171" spans="2:2" customFormat="1" ht="16">
+    <row r="171" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="99"/>
     </row>
-    <row r="172" spans="2:2" customFormat="1" ht="16">
+    <row r="172" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="99"/>
     </row>
-    <row r="173" spans="2:2" customFormat="1" ht="16">
+    <row r="173" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="99"/>
     </row>
-    <row r="174" spans="2:2" customFormat="1" ht="16">
+    <row r="174" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="99"/>
     </row>
-    <row r="175" spans="2:2" customFormat="1" ht="16">
+    <row r="175" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="99"/>
     </row>
-    <row r="176" spans="2:2" customFormat="1" ht="16">
+    <row r="176" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="99"/>
     </row>
-    <row r="177" spans="2:14" customFormat="1" ht="16">
+    <row r="177" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="99"/>
     </row>
-    <row r="178" spans="2:14" customFormat="1" ht="16">
+    <row r="178" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="99"/>
     </row>
-    <row r="179" spans="2:14" customFormat="1" ht="16">
+    <row r="179" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="99"/>
     </row>
-    <row r="180" spans="2:14" customFormat="1" ht="16">
+    <row r="180" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="99"/>
     </row>
-    <row r="181" spans="2:14" customFormat="1" ht="16">
+    <row r="181" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="99"/>
     </row>
-    <row r="182" spans="2:14" customFormat="1" ht="16">
+    <row r="182" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="99"/>
     </row>
-    <row r="183" spans="2:14" customFormat="1" ht="16">
+    <row r="183" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="99"/>
     </row>
-    <row r="184" spans="2:14" customFormat="1" ht="16">
+    <row r="184" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="99"/>
       <c r="H184" s="98"/>
       <c r="I184" s="98"/>
@@ -10237,7 +9980,7 @@
       <c r="M184" s="98"/>
       <c r="N184" s="98"/>
     </row>
-    <row r="185" spans="2:14" customFormat="1" ht="16">
+    <row r="185" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="99"/>
       <c r="H185" s="98"/>
       <c r="I185" s="98"/>
@@ -10247,7 +9990,7 @@
       <c r="M185" s="98"/>
       <c r="N185" s="98"/>
     </row>
-    <row r="186" spans="2:14" customFormat="1" ht="16">
+    <row r="186" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="99"/>
       <c r="H186" s="98"/>
       <c r="I186" s="98"/>
@@ -10257,7 +10000,7 @@
       <c r="M186" s="98"/>
       <c r="N186" s="98"/>
     </row>
-    <row r="187" spans="2:14" customFormat="1" ht="16">
+    <row r="187" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="99"/>
       <c r="H187" s="98"/>
       <c r="I187" s="98"/>
@@ -10267,7 +10010,7 @@
       <c r="M187" s="98"/>
       <c r="N187" s="98"/>
     </row>
-    <row r="188" spans="2:14" customFormat="1" ht="16">
+    <row r="188" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="99"/>
       <c r="H188" s="98"/>
       <c r="I188" s="98"/>
@@ -10277,7 +10020,7 @@
       <c r="M188" s="98"/>
       <c r="N188" s="98"/>
     </row>
-    <row r="189" spans="2:14" customFormat="1" ht="16">
+    <row r="189" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="99"/>
       <c r="H189" s="98"/>
       <c r="I189" s="98"/>
@@ -10287,7 +10030,7 @@
       <c r="M189" s="98"/>
       <c r="N189" s="98"/>
     </row>
-    <row r="190" spans="2:14" customFormat="1" ht="16">
+    <row r="190" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="99"/>
       <c r="H190" s="98"/>
       <c r="I190" s="98"/>
@@ -10297,7 +10040,7 @@
       <c r="M190" s="98"/>
       <c r="N190" s="98"/>
     </row>
-    <row r="191" spans="2:14" customFormat="1" ht="16">
+    <row r="191" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="99"/>
       <c r="H191" s="98"/>
       <c r="I191" s="98"/>
@@ -10307,7 +10050,7 @@
       <c r="M191" s="98"/>
       <c r="N191" s="98"/>
     </row>
-    <row r="192" spans="2:14" customFormat="1" ht="16">
+    <row r="192" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="99"/>
       <c r="H192" s="98"/>
       <c r="I192" s="98"/>
@@ -10317,7 +10060,7 @@
       <c r="M192" s="98"/>
       <c r="N192" s="98"/>
     </row>
-    <row r="193" spans="2:14" customFormat="1" ht="16">
+    <row r="193" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="99"/>
       <c r="H193" s="98"/>
       <c r="I193" s="98"/>
@@ -10327,7 +10070,7 @@
       <c r="M193" s="98"/>
       <c r="N193" s="98"/>
     </row>
-    <row r="194" spans="2:14" customFormat="1" ht="16">
+    <row r="194" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="99"/>
       <c r="H194" s="98"/>
       <c r="I194" s="98"/>
@@ -10337,7 +10080,7 @@
       <c r="M194" s="98"/>
       <c r="N194" s="98"/>
     </row>
-    <row r="195" spans="2:14" customFormat="1" ht="16">
+    <row r="195" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="99"/>
       <c r="H195" s="98"/>
       <c r="I195" s="98"/>
@@ -10347,7 +10090,7 @@
       <c r="M195" s="98"/>
       <c r="N195" s="98"/>
     </row>
-    <row r="196" spans="2:14" customFormat="1" ht="16">
+    <row r="196" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="99"/>
       <c r="H196" s="98"/>
       <c r="I196" s="98"/>
@@ -10357,7 +10100,7 @@
       <c r="M196" s="98"/>
       <c r="N196" s="98"/>
     </row>
-    <row r="197" spans="2:14" customFormat="1" ht="16">
+    <row r="197" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="99"/>
       <c r="H197" s="98"/>
       <c r="I197" s="98"/>
@@ -10367,7 +10110,7 @@
       <c r="M197" s="98"/>
       <c r="N197" s="98"/>
     </row>
-    <row r="198" spans="2:14" customFormat="1" ht="16">
+    <row r="198" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="99"/>
       <c r="H198" s="98"/>
       <c r="I198" s="98"/>
@@ -10377,7 +10120,7 @@
       <c r="M198" s="98"/>
       <c r="N198" s="98"/>
     </row>
-    <row r="199" spans="2:14" customFormat="1" ht="16">
+    <row r="199" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="99"/>
       <c r="H199" s="98"/>
       <c r="I199" s="98"/>
@@ -10387,7 +10130,7 @@
       <c r="M199" s="98"/>
       <c r="N199" s="98"/>
     </row>
-    <row r="200" spans="2:14" customFormat="1" ht="16">
+    <row r="200" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="99"/>
       <c r="H200" s="98"/>
       <c r="I200" s="98"/>
@@ -10397,7 +10140,7 @@
       <c r="M200" s="98"/>
       <c r="N200" s="98"/>
     </row>
-    <row r="201" spans="2:14" customFormat="1" ht="16">
+    <row r="201" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="99"/>
       <c r="H201" s="98"/>
       <c r="I201" s="98"/>
@@ -10407,7 +10150,7 @@
       <c r="M201" s="98"/>
       <c r="N201" s="98"/>
     </row>
-    <row r="202" spans="2:14" customFormat="1" ht="16">
+    <row r="202" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="99"/>
       <c r="H202" s="98"/>
       <c r="I202" s="98"/>
@@ -10417,7 +10160,7 @@
       <c r="M202" s="98"/>
       <c r="N202" s="98"/>
     </row>
-    <row r="203" spans="2:14" customFormat="1" ht="16">
+    <row r="203" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="99"/>
       <c r="H203" s="98"/>
       <c r="I203" s="98"/>
@@ -10427,7 +10170,7 @@
       <c r="M203" s="98"/>
       <c r="N203" s="98"/>
     </row>
-    <row r="204" spans="2:14" customFormat="1" ht="16">
+    <row r="204" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="99"/>
       <c r="H204" s="98"/>
       <c r="I204" s="98"/>
@@ -10437,7 +10180,7 @@
       <c r="M204" s="98"/>
       <c r="N204" s="98"/>
     </row>
-    <row r="205" spans="2:14" customFormat="1" ht="16">
+    <row r="205" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="99"/>
       <c r="H205" s="98"/>
       <c r="I205" s="98"/>
@@ -10447,7 +10190,7 @@
       <c r="M205" s="98"/>
       <c r="N205" s="98"/>
     </row>
-    <row r="206" spans="2:14" customFormat="1" ht="16">
+    <row r="206" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="99"/>
       <c r="H206" s="98"/>
       <c r="I206" s="98"/>
@@ -10457,7 +10200,7 @@
       <c r="M206" s="98"/>
       <c r="N206" s="98"/>
     </row>
-    <row r="207" spans="2:14" customFormat="1" ht="16">
+    <row r="207" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="99"/>
       <c r="H207" s="98"/>
       <c r="I207" s="98"/>
@@ -10467,7 +10210,7 @@
       <c r="M207" s="98"/>
       <c r="N207" s="98"/>
     </row>
-    <row r="208" spans="2:14" customFormat="1" ht="16">
+    <row r="208" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="99"/>
       <c r="H208" s="98"/>
       <c r="I208" s="98"/>
@@ -10477,7 +10220,7 @@
       <c r="M208" s="98"/>
       <c r="N208" s="98"/>
     </row>
-    <row r="209" spans="2:14" customFormat="1" ht="16">
+    <row r="209" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="99"/>
       <c r="F209" s="98"/>
       <c r="H209" s="98"/>
@@ -10488,7 +10231,7 @@
       <c r="M209" s="98"/>
       <c r="N209" s="98"/>
     </row>
-    <row r="210" spans="2:14" customFormat="1" ht="16">
+    <row r="210" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="99"/>
       <c r="F210" s="98"/>
       <c r="H210" s="98"/>
@@ -10499,7 +10242,7 @@
       <c r="M210" s="98"/>
       <c r="N210" s="98"/>
     </row>
-    <row r="211" spans="2:14" customFormat="1" ht="16">
+    <row r="211" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="99"/>
       <c r="F211" s="98"/>
       <c r="H211" s="98"/>
@@ -10510,7 +10253,7 @@
       <c r="M211" s="98"/>
       <c r="N211" s="98"/>
     </row>
-    <row r="212" spans="2:14" customFormat="1" ht="16">
+    <row r="212" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="99"/>
       <c r="F212" s="98"/>
       <c r="H212" s="98"/>
@@ -10521,7 +10264,7 @@
       <c r="M212" s="98"/>
       <c r="N212" s="98"/>
     </row>
-    <row r="213" spans="2:14" customFormat="1" ht="16">
+    <row r="213" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="99"/>
       <c r="F213" s="98"/>
       <c r="H213" s="98"/>
@@ -10532,7 +10275,7 @@
       <c r="M213" s="98"/>
       <c r="N213" s="98"/>
     </row>
-    <row r="214" spans="2:14" customFormat="1" ht="16">
+    <row r="214" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="99"/>
       <c r="F214" s="98"/>
       <c r="H214" s="98"/>
@@ -10543,7 +10286,7 @@
       <c r="M214" s="98"/>
       <c r="N214" s="98"/>
     </row>
-    <row r="215" spans="2:14" customFormat="1" ht="16">
+    <row r="215" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="99"/>
       <c r="F215" s="98"/>
       <c r="H215" s="98"/>
@@ -10554,7 +10297,7 @@
       <c r="M215" s="98"/>
       <c r="N215" s="98"/>
     </row>
-    <row r="216" spans="2:14" customFormat="1" ht="16">
+    <row r="216" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="99"/>
       <c r="F216" s="98"/>
       <c r="H216" s="98"/>
@@ -10565,7 +10308,7 @@
       <c r="M216" s="98"/>
       <c r="N216" s="98"/>
     </row>
-    <row r="217" spans="2:14" customFormat="1" ht="16">
+    <row r="217" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="99"/>
       <c r="F217" s="98"/>
       <c r="H217" s="98"/>
@@ -10576,7 +10319,7 @@
       <c r="M217" s="98"/>
       <c r="N217" s="98"/>
     </row>
-    <row r="218" spans="2:14" customFormat="1" ht="16">
+    <row r="218" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="99"/>
       <c r="F218" s="98"/>
       <c r="H218" s="98"/>
@@ -10587,7 +10330,7 @@
       <c r="M218" s="98"/>
       <c r="N218" s="98"/>
     </row>
-    <row r="219" spans="2:14" customFormat="1" ht="16">
+    <row r="219" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="99"/>
       <c r="F219" s="98"/>
       <c r="H219" s="98"/>
@@ -10602,11 +10345,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10618,19 +10356,19 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="138"/>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -10641,10 +10379,10 @@
       <c r="H1" s="138"/>
       <c r="I1" s="138"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="138"/>
       <c r="B2" s="195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -10654,7 +10392,7 @@
       <c r="H2" s="138"/>
       <c r="I2" s="138"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="138"/>
       <c r="B3" s="198"/>
       <c r="C3" s="199"/>
@@ -10665,18 +10403,18 @@
       <c r="H3" s="138"/>
       <c r="I3" s="138"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="138"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="206"/>
       <c r="F4" s="139"/>
       <c r="G4" s="139"/>
       <c r="H4" s="138"/>
       <c r="I4" s="138"/>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="138"/>
       <c r="B5" s="138"/>
       <c r="C5" s="138"/>
@@ -10687,7 +10425,7 @@
       <c r="H5" s="138"/>
       <c r="I5" s="138"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="138"/>
       <c r="B6" s="140"/>
       <c r="C6" s="20"/>
@@ -10698,11 +10436,11 @@
       <c r="H6" s="20"/>
       <c r="I6" s="141"/>
     </row>
-    <row r="7" spans="1:9" ht="18">
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="90"/>
       <c r="C7" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>4</v>
@@ -10714,37 +10452,37 @@
         <v>3</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="92"/>
     </row>
-    <row r="8" spans="1:9" ht="19" thickBot="1">
+    <row r="8" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
       <c r="I8" s="42"/>
     </row>
-    <row r="9" spans="1:9" ht="19" thickBot="1">
+    <row r="9" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="23"/>
       <c r="C9" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="E9" s="143">
         <v>1.0980000000000001</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="144">
         <v>42221</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="42"/>
     </row>
@@ -10753,11 +10491,6 @@
     <mergeCell ref="B2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10769,15 +10502,15 @@
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="36"/>
       <c r="C2" s="170"/>
       <c r="D2" s="20"/>
@@ -10788,40 +10521,40 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="90"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="91" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="M3" s="125" t="s">
         <v>134</v>
-      </c>
-      <c r="M3" s="125" t="s">
-        <v>135</v>
       </c>
       <c r="N3" s="125"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -10832,7 +10565,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="M4" s="125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N4" s="125">
         <v>12</v>
@@ -10840,10 +10573,10 @@
       <c r="O4" s="125"/>
       <c r="P4" s="125"/>
     </row>
-    <row r="5" spans="2:16" ht="17" thickBot="1">
+    <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="31"/>
@@ -10853,7 +10586,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="M5" s="125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N5" s="125">
         <v>1.008</v>
@@ -10861,20 +10594,20 @@
       <c r="O5" s="125"/>
       <c r="P5" s="125"/>
     </row>
-    <row r="6" spans="2:16" ht="17" thickBot="1">
+    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="18"/>
       <c r="D6" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="120">
         <v>96.78</v>
       </c>
       <c r="M6" s="171" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N6" s="171">
         <v>16</v>
@@ -10882,14 +10615,14 @@
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
     </row>
-    <row r="7" spans="2:16" ht="17" thickBot="1">
+    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="18"/>
       <c r="D7" s="161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="120">
         <v>2.78</v>
@@ -10899,40 +10632,40 @@
       <c r="O7" s="125"/>
       <c r="P7" s="125"/>
     </row>
-    <row r="8" spans="2:16" ht="17" thickBot="1">
+    <row r="8" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="120">
         <v>0.37</v>
       </c>
       <c r="M8" s="125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
     </row>
-    <row r="9" spans="2:16" ht="17" thickBot="1">
+    <row r="9" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="F9" s="120">
         <v>0.06</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9" s="125">
         <v>0.74850299399999998</v>
@@ -10940,7 +10673,7 @@
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
     </row>
-    <row r="10" spans="2:16" ht="17" thickBot="1">
+    <row r="10" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="18"/>
       <c r="D10" s="34"/>
@@ -10962,7 +10695,7 @@
         <v>5.5564771409599999E-2</v>
       </c>
       <c r="M10" s="125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N10" s="125">
         <v>0.79872204499999999</v>
@@ -10970,7 +10703,7 @@
       <c r="O10" s="125"/>
       <c r="P10" s="125"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -10981,7 +10714,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="M11" s="125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11" s="125">
         <v>0.81699346399999995</v>
@@ -10989,10 +10722,10 @@
       <c r="O11" s="125"/>
       <c r="P11" s="125"/>
     </row>
-    <row r="12" spans="2:16" ht="17" thickBot="1">
+    <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="31"/>
@@ -11002,49 +10735,49 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="M12" s="125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N12" s="125">
         <v>0.82644628099999995</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="17" thickBot="1">
+    <row r="13" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="18"/>
       <c r="D13" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="120">
         <v>92.03</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="17" thickBot="1">
+    <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="18"/>
       <c r="D14" s="161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="120">
         <v>5.75</v>
       </c>
       <c r="M14" s="125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="17" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
       <c r="D15" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="120">
         <v>1.31</v>
@@ -11057,22 +10790,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="17" thickBot="1">
+    <row r="16" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="F16" s="120">
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="18"/>
       <c r="D17" s="34"/>
@@ -11094,7 +10827,7 @@
         <v>5.5495958933970364E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -11105,10 +10838,10 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="M18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -11119,10 +10852,10 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1">
+    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="31"/>
@@ -11132,65 +10865,65 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="2:13" ht="17" thickBot="1">
+    <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="18"/>
       <c r="D21" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="120">
         <v>90.91</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="17" thickBot="1">
+    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="18"/>
       <c r="D22" s="161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="120">
         <v>6.43</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1">
+    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="18"/>
       <c r="D23" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="120">
         <v>1.66</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="17" thickBot="1">
+    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23"/>
       <c r="C24" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="F24" s="120">
         <v>0.74</v>
       </c>
       <c r="K24" s="193" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L24" s="193"/>
     </row>
-    <row r="25" spans="2:13" ht="17" thickBot="1">
+    <row r="25" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="18"/>
       <c r="D25" s="34"/>
@@ -11212,7 +10945,7 @@
         <v>5.5666643949681481E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="23"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -11223,10 +10956,10 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="17" thickBot="1">
+    <row r="27" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -11238,14 +10971,14 @@
       <c r="K27" s="182"/>
       <c r="L27" s="182"/>
     </row>
-    <row r="28" spans="2:13" ht="17" thickBot="1">
+    <row r="28" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="18"/>
       <c r="D28" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="183">
         <v>91.4</v>
@@ -11257,14 +10990,14 @@
       <c r="K28" s="182"/>
       <c r="L28" s="182"/>
     </row>
-    <row r="29" spans="2:13" ht="17" thickBot="1">
+    <row r="29" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="18"/>
       <c r="D29" s="161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="187">
         <v>7.35</v>
@@ -11276,14 +11009,14 @@
       <c r="K29" s="182"/>
       <c r="L29" s="182"/>
     </row>
-    <row r="30" spans="2:13" ht="17" thickBot="1">
+    <row r="30" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="18"/>
       <c r="D30" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="183">
         <v>0.56999999999999995</v>
@@ -11295,16 +11028,16 @@
       <c r="K30" s="182"/>
       <c r="L30" s="182"/>
     </row>
-    <row r="31" spans="2:13" ht="17" thickBot="1">
+    <row r="31" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="184" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="F31" s="183">
         <v>0.05</v>
@@ -11314,11 +11047,11 @@
       <c r="I31" s="182"/>
       <c r="J31" s="182"/>
       <c r="K31" s="193" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L31" s="182"/>
     </row>
-    <row r="32" spans="2:13" ht="17" thickBot="1">
+    <row r="32" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="18"/>
       <c r="D32" s="34"/>
@@ -11342,7 +11075,7 @@
       </c>
       <c r="L32" s="193"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="23"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -11353,7 +11086,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="23"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -11364,10 +11097,10 @@
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="2:12" ht="17" thickBot="1">
+    <row r="35" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="31"/>
@@ -11377,65 +11110,65 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="2:12" ht="17" thickBot="1">
+    <row r="36" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="18"/>
       <c r="D36" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="120">
         <v>89.55</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="17" thickBot="1">
+    <row r="37" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="18"/>
       <c r="D37" s="161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" s="120">
         <v>8.1999999999999993</v>
       </c>
       <c r="K37" s="188"/>
     </row>
-    <row r="38" spans="2:12" ht="17" thickBot="1">
+    <row r="38" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="18"/>
       <c r="D38" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="120">
         <v>1.3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="17" thickBot="1">
+    <row r="39" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="F39" s="120">
         <v>0.31</v>
       </c>
       <c r="K39" s="193" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="17" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="18"/>
       <c r="D40" s="34"/>
@@ -11458,7 +11191,7 @@
       </c>
       <c r="L40" s="193"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="23"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -11469,10 +11202,10 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="2:12" ht="17" thickBot="1">
+    <row r="42" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="31"/>
@@ -11482,64 +11215,64 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="2:12" ht="17" thickBot="1">
+    <row r="43" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="18"/>
       <c r="D43" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F43" s="120">
         <v>88.93</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="17" thickBot="1">
+    <row r="44" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="18"/>
       <c r="D44" s="161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="120">
         <v>8.42</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="17" thickBot="1">
+    <row r="45" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="18"/>
       <c r="D45" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45" s="120">
         <v>1.59</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="17" thickBot="1">
+    <row r="46" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="F46" s="120">
         <v>0.37</v>
       </c>
       <c r="K46" s="192" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="17" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="18"/>
       <c r="D47" s="34"/>
@@ -11562,7 +11295,7 @@
       </c>
       <c r="L47" s="192"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="23"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -11573,7 +11306,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="2:13" ht="17" thickBot="1">
+    <row r="49" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
@@ -11584,12 +11317,12 @@
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="36"/>
       <c r="C50" s="170"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="90"/>
       <c r="C51" s="19" t="s">
         <v>7</v>
@@ -11603,10 +11336,10 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="17" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -11615,16 +11348,16 @@
       <c r="G52" s="31"/>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="2:13" ht="17" thickBot="1">
+    <row r="53" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="F53" s="120">
         <f>E76</f>
@@ -11636,19 +11369,19 @@
         <v>1.5836063016690064E-3</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="17" thickBot="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
       <c r="C54" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="F54" s="120">
         <f t="shared" ref="F54:F55" si="0">E77</f>
@@ -11660,19 +11393,19 @@
         <v>5.2292934019653728E-4</v>
       </c>
       <c r="J54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="17" thickBot="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
       <c r="C55" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="F55" s="120">
         <f t="shared" si="0"/>
@@ -11684,16 +11417,16 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="17" thickBot="1">
+    <row r="56" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="23"/>
       <c r="C56" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="F56" s="120">
         <f>E83</f>
@@ -11705,7 +11438,7 @@
         <v>6.6067486597287922E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="23"/>
       <c r="C57" s="18"/>
       <c r="D57" s="133"/>
@@ -11713,7 +11446,7 @@
       <c r="F57" s="133"/>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="23"/>
       <c r="C58" s="18"/>
       <c r="D58" s="34"/>
@@ -11721,15 +11454,15 @@
       <c r="F58" s="34"/>
       <c r="G58" s="22"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M63" s="192"/>
     </row>
-    <row r="67" spans="3:6">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E67">
         <f>0.0025</f>
         <v>2.5000000000000001E-3</v>
@@ -11738,187 +11471,187 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="3:6">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76">
         <v>4061</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E77">
         <v>1341</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E78">
         <f>6411</f>
         <v>6411</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E79">
         <v>6342</v>
       </c>
       <c r="F79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E82">
         <v>1676</v>
       </c>
       <c r="F82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7">
-      <c r="D83" t="s">
-        <v>172</v>
       </c>
       <c r="E83">
         <f>E82*E78/E79</f>
         <v>1694.2346263008515</v>
       </c>
       <c r="F83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="3:7">
-      <c r="C87" t="s">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="3:7">
-      <c r="D90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D91">
         <v>2013</v>
       </c>
     </row>
-    <row r="96" spans="3:7">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E97">
         <v>0.22</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E98">
         <v>0.31</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E100">
         <v>0.53</v>
       </c>
       <c r="F100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E104">
         <f>E96/$E$100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:6">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E105">
         <f t="shared" ref="E105:E107" si="1">E97/$E$100</f>
         <v>0.41509433962264147</v>
       </c>
     </row>
-    <row r="106" spans="4:6">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
         <v>0.58490566037735847</v>
       </c>
     </row>
-    <row r="107" spans="4:6">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
@@ -11929,10 +11662,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/lng.carrier.xlsx
+++ b/carriers_source_analyses/lng.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44300" yWindow="-4200" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1380" yWindow="2680" windowWidth="26160" windowHeight="23280" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -24,7 +24,6 @@
   <externalReferences>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="205">
   <si>
     <t>Source</t>
   </si>
@@ -323,9 +322,6 @@
     <t>Running Month Average</t>
   </si>
   <si>
-    <t>http://www.ecb.europa.eu/stats/exchange/eurofxref/html/eurofxref-graph-usd.en.html</t>
-  </si>
-  <si>
     <t>USD/euro</t>
   </si>
   <si>
@@ -357,51 +353,6 @@
   </si>
   <si>
     <t>average</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Average landed price for LNG in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE, ES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and UK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; CNSS for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NL </t>
-    </r>
   </si>
   <si>
     <t>2013</t>
@@ -702,6 +653,45 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>https://bluegoldresearch.com/global-lng-prices</t>
+  </si>
+  <si>
+    <t>Blue Gold research</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Average price</t>
+  </si>
+  <si>
+    <t>Mmbtu per MJ</t>
+  </si>
+  <si>
+    <t>USD/mj</t>
+  </si>
+  <si>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
+  </si>
+  <si>
+    <t>Blue Gold Research</t>
+  </si>
+  <si>
+    <t>Took Blue Gold research, most up to date source</t>
   </si>
 </sst>
 </file>
@@ -864,6 +854,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,6 +862,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,6 +870,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,6 +878,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,17 +886,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,6 +913,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,6 +926,7 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -943,6 +942,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1049,7 +1049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1387,6 +1387,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1887,7 +1902,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2097,14 +2112,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2169,13 +2180,28 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,24 +2216,18 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="494">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2757,16 +2777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6617</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>117061</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304791</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>61844</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2783,8 +2803,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7449921" y="12231757"/>
-          <a:ext cx="10495732" cy="4318000"/>
+          <a:off x="11922530" y="8083825"/>
+          <a:ext cx="7911558" cy="4318000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,16 +2815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>231915</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>640523</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>193261</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>240751</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2821,8 +2841,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7443305" y="17890435"/>
-          <a:ext cx="10336696" cy="3175000"/>
+          <a:off x="7410176" y="7487477"/>
+          <a:ext cx="7827618" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>569833</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>209825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>77304</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>34884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10928616" y="12810434"/>
+          <a:ext cx="5205905" cy="3226450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3257,29 +3315,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3746,11 +3781,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3945,22 +3980,22 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -3970,30 +4005,30 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="195" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="207"/>
+      <c r="B2" s="191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="193"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="208"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="209"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="199"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
@@ -4085,8 +4120,8 @@
         <v>43</v>
       </c>
       <c r="E11" s="116">
-        <f>'Research data'!G7</f>
-        <v>5.7507387482507236E-3</v>
+        <f>'Research data'!T7</f>
+        <v>6.7239166522267491E-3</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="103"/>
@@ -4112,7 +4147,7 @@
       <c r="G12" s="103"/>
       <c r="H12" s="30"/>
       <c r="I12" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -4132,7 +4167,7 @@
       <c r="G13" s="103"/>
       <c r="H13" s="30"/>
       <c r="I13" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="42"/>
     </row>
@@ -4152,7 +4187,7 @@
       <c r="G14" s="103"/>
       <c r="H14" s="30"/>
       <c r="I14" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14" s="42"/>
     </row>
@@ -4187,80 +4222,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="153"/>
-      <c r="B2" s="195" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="191" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="153"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="153"/>
-      <c r="B6" s="155"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -4268,7 +4303,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="156"/>
+      <c r="J6" s="152"/>
     </row>
     <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
@@ -4293,872 +4328,872 @@
       <c r="J7" s="92"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="153"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="160"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="156"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="153"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="160"/>
+        <v>106</v>
+      </c>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="160"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="162" t="s">
-        <v>109</v>
+      <c r="A11" s="149"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="159">
         <f>'Research data'!G14</f>
         <v>0</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="161" t="s">
+      <c r="G11" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="157"/>
+      <c r="I11" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="156"/>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="149"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="158" t="s">
         <v>110</v>
-      </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="160"/>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="162" t="s">
-        <v>112</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="163">
+      <c r="E12" s="159">
         <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J12" s="160"/>
+      <c r="G12" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="157"/>
+      <c r="I12" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="194" t="s">
-        <v>191</v>
+      <c r="A13" s="149"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="190" t="s">
+        <v>189</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="163">
+      <c r="E13" s="159">
         <f>'Research data'!G16+'Research data'!G17</f>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="161"/>
-      <c r="I13" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="160"/>
+      <c r="G13" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="157"/>
+      <c r="I13" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="156"/>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="162" t="s">
-        <v>114</v>
+      <c r="A14" s="149"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="159">
         <f>'Research data'!G18+'Research data'!G19</f>
         <v>2.4836063016690064E-3</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="J14" s="160"/>
+      <c r="G14" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="157"/>
+      <c r="I14" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="162" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="163">
+      <c r="E15" s="159">
         <f>'Research data'!G20</f>
         <v>5.5564771409599999E-2</v>
       </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" s="160"/>
+      <c r="G15" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="157"/>
+      <c r="I15" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="162" t="s">
-        <v>192</v>
+      <c r="A16" s="149"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="158" t="s">
+        <v>190</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="163">
+      <c r="E16" s="159">
         <v>0</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="160"/>
+      <c r="G16" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="157"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="162" t="s">
-        <v>115</v>
+      <c r="A17" s="149"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="163">
+      <c r="E17" s="159">
         <f>'Research data'!G21</f>
         <v>0</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="164" t="s">
+      <c r="G17" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="157"/>
+      <c r="I17" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="156"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="149"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="156"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="149"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="160"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="153"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="160"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="160"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="162" t="s">
-        <v>109</v>
+      <c r="A20" s="149"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="163">
+      <c r="E20" s="159">
         <f>'Research data'!G25</f>
         <v>0</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="161" t="s">
+      <c r="G20" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="157"/>
+      <c r="I20" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="156"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="149"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="158" t="s">
         <v>110</v>
-      </c>
-      <c r="H20" s="161"/>
-      <c r="I20" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="160"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="162" t="s">
-        <v>112</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="163">
+      <c r="E21" s="159">
         <f>'Research data'!G26</f>
         <v>0</v>
       </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="161"/>
-      <c r="I21" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="160"/>
+      <c r="G21" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="157"/>
+      <c r="I21" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="194" t="s">
-        <v>191</v>
+      <c r="A22" s="149"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="190" t="s">
+        <v>189</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="163">
+      <c r="E22" s="159">
         <f>'Research data'!G27+'Research data'!G28</f>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="161"/>
-      <c r="I22" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="160"/>
+      <c r="G22" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="157"/>
+      <c r="I22" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="162" t="s">
-        <v>114</v>
+      <c r="A23" s="149"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="163">
+      <c r="E23" s="159">
         <f>'Research data'!G29 + 'Research data'!G30</f>
         <v>1.4229293401965373E-3</v>
       </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="161"/>
-      <c r="I23" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="160"/>
+      <c r="G23" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="157"/>
+      <c r="I23" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="162" t="s">
+      <c r="A24" s="149"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="163">
+      <c r="E24" s="159">
         <f>'Research data'!G31</f>
         <v>5.5495958933970364E-2</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="161"/>
-      <c r="I24" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J24" s="160"/>
+      <c r="G24" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="157"/>
+      <c r="I24" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="153"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="162" t="s">
-        <v>192</v>
+      <c r="A25" s="149"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="158" t="s">
+        <v>190</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="163">
+      <c r="E25" s="159">
         <v>0</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="161"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="160"/>
+      <c r="G25" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="157"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="162" t="s">
-        <v>115</v>
+      <c r="A26" s="149"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="163">
+      <c r="E26" s="159">
         <f>'Research data'!G32</f>
         <v>0.41509433962264147</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="161"/>
-      <c r="I26" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="160"/>
+      <c r="G26" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="157"/>
+      <c r="I26" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="156"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="153"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="162"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="156"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="153"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="161" t="s">
-        <v>141</v>
+      <c r="A28" s="149"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="157" t="s">
+        <v>139</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="153"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="162" t="s">
-        <v>109</v>
+      <c r="A29" s="149"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="163">
+      <c r="E29" s="159">
         <f>'Research data'!G36</f>
         <v>0</v>
       </c>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161" t="s">
+      <c r="F29" s="157"/>
+      <c r="G29" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="157"/>
+      <c r="I29" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="156"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="149"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="158" t="s">
         <v>110</v>
-      </c>
-      <c r="H29" s="161"/>
-      <c r="I29" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J29" s="160"/>
-    </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="153"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="162" t="s">
-        <v>112</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="163">
+      <c r="E30" s="159">
         <f>'Research data'!G37</f>
         <v>0</v>
       </c>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="161"/>
-      <c r="I30" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J30" s="160"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="157"/>
+      <c r="I30" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="153"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="191" t="s">
-        <v>113</v>
+      <c r="A31" s="149"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="187" t="s">
+        <v>111</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="163">
+      <c r="E31" s="159">
         <f>'Research data'!G38+'Research data'!G39</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="161"/>
-      <c r="I31" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" s="160"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="157"/>
+      <c r="I31" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="153"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="162" t="s">
-        <v>114</v>
+      <c r="A32" s="149"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="163">
+      <c r="E32" s="159">
         <f>'Research data'!G40+'Research data'!G41</f>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="161"/>
-      <c r="I32" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="J32" s="160"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="157"/>
+      <c r="I32" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="153"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="162" t="s">
+      <c r="A33" s="149"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="163">
+      <c r="E33" s="159">
         <f>'Research data'!G42</f>
         <v>5.5666643949681481E-2</v>
       </c>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="161"/>
-      <c r="I33" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="160"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="157"/>
+      <c r="I33" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="162" t="s">
-        <v>192</v>
+      <c r="A34" s="149"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="158" t="s">
+        <v>190</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="163">
+      <c r="E34" s="159">
         <v>0</v>
       </c>
       <c r="F34" s="22"/>
-      <c r="G34" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="161"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="160"/>
+      <c r="G34" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="157"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="162" t="s">
-        <v>115</v>
+      <c r="A35" s="149"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="163">
+      <c r="E35" s="159">
         <f>'Research data'!G43</f>
         <v>0.58490566037735847</v>
       </c>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="161"/>
-      <c r="I35" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" s="160"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="157"/>
+      <c r="I35" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="153"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="162"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="158"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153"/>
-      <c r="B37" s="157"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="160"/>
+        <v>155</v>
+      </c>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="156"/>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="153"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="191" t="s">
-        <v>109</v>
+      <c r="A38" s="149"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="187" t="s">
+        <v>107</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="163">
+      <c r="E38" s="159">
         <f>'Research data'!G47</f>
         <v>0</v>
       </c>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161" t="s">
+      <c r="F38" s="157"/>
+      <c r="G38" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="157"/>
+      <c r="I38" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="156"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="149"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="187" t="s">
         <v>110</v>
-      </c>
-      <c r="H38" s="161"/>
-      <c r="I38" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J38" s="160"/>
-    </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="153"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="191" t="s">
-        <v>112</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="163">
+      <c r="E39" s="159">
         <f>'Research data'!G48</f>
         <v>0</v>
       </c>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="161"/>
-      <c r="I39" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="J39" s="160"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="157"/>
+      <c r="I39" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="156"/>
     </row>
     <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="153"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="191" t="s">
-        <v>113</v>
+      <c r="A40" s="149"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="187" t="s">
+        <v>111</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="163">
+      <c r="E40" s="159">
         <f>'Research data'!G49+'Research data'!G50</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="161"/>
-      <c r="I40" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="J40" s="160"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="157"/>
+      <c r="I40" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="153"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="191" t="s">
-        <v>114</v>
+      <c r="A41" s="149"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="187" t="s">
+        <v>112</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="163">
+      <c r="E41" s="159">
         <f>'Research data'!G51+'Research data'!G52</f>
         <v>1.5606748659728791E-3</v>
       </c>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="161"/>
-      <c r="I41" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="160"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="157"/>
+      <c r="I41" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="153"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="191" t="s">
+      <c r="A42" s="149"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="187" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="163">
+      <c r="E42" s="159">
         <f>'Research data'!G53</f>
         <v>5.5452212002454322E-2</v>
       </c>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="161"/>
-      <c r="I42" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J42" s="160"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="157"/>
+      <c r="I42" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="156"/>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="153"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="162" t="s">
-        <v>192</v>
+      <c r="A43" s="149"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="158" t="s">
+        <v>190</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="163">
+      <c r="E43" s="159">
         <v>0</v>
       </c>
       <c r="F43" s="22"/>
-      <c r="G43" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="161"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="160"/>
+      <c r="G43" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="157"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="156"/>
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="153"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="191" t="s">
-        <v>115</v>
+      <c r="A44" s="149"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="187" t="s">
+        <v>113</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="163">
+      <c r="E44" s="159">
         <f>'Research data'!G54</f>
         <v>0</v>
       </c>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="161"/>
-      <c r="I44" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="J44" s="160"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="157"/>
+      <c r="I44" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="156"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="153"/>
-      <c r="B45" s="157"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="J45" s="160"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="153"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="J45" s="156"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="153"/>
-      <c r="B46" s="157"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="J46" s="160"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="153"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="J46" s="156"/>
     </row>
     <row r="47" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="153"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="160"/>
+      <c r="A47" s="149"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="156"/>
     </row>
     <row r="48" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153"/>
-      <c r="J48" s="169"/>
+      <c r="A48" s="149"/>
+      <c r="J48" s="165"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="153"/>
+      <c r="A49" s="149"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="153"/>
+      <c r="A50" s="149"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="153"/>
+      <c r="A51" s="149"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="153"/>
+      <c r="A52" s="149"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="153"/>
+      <c r="A53" s="149"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="153"/>
+      <c r="A54" s="149"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="153"/>
+      <c r="A55" s="149"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
+      <c r="A56" s="149"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="153"/>
+      <c r="A57" s="149"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="153"/>
+      <c r="A58" s="149"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="153"/>
+      <c r="A59" s="149"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="153"/>
+      <c r="A60" s="149"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="153"/>
+      <c r="A61" s="149"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="153"/>
+      <c r="A62" s="149"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="153"/>
+      <c r="A63" s="149"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="153"/>
+      <c r="A64" s="149"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="153"/>
+      <c r="A65" s="149"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="153"/>
+      <c r="A66" s="149"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="153"/>
+      <c r="A67" s="149"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="153"/>
+      <c r="A68" s="149"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="153"/>
+      <c r="A69" s="149"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="153"/>
+      <c r="A70" s="149"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="153"/>
+      <c r="A71" s="149"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="153"/>
+      <c r="A72" s="149"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="153"/>
+      <c r="A73" s="149"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="153"/>
+      <c r="A74" s="149"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="153"/>
+      <c r="A75" s="149"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="153"/>
+      <c r="A76" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5175,41 +5210,43 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:W103"/>
+  <dimension ref="B1:X103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" style="66" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="66" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="65" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.5" style="66" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="66" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="65" customWidth="1"/>
     <col min="18" max="18" width="3" style="65" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="65"/>
-    <col min="21" max="21" width="51.42578125" style="65" customWidth="1"/>
-    <col min="22" max="16384" width="10.7109375" style="65"/>
+    <col min="19" max="19" width="10.83203125" style="65"/>
+    <col min="20" max="20" width="15.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="65"/>
+    <col min="22" max="22" width="51.5" style="65" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q1" s="66"/>
       <c r="R1" s="66"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -5229,9 +5266,10 @@
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
       <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
-    </row>
-    <row r="3" spans="2:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="69"/>
+      <c r="V2" s="70"/>
+    </row>
+    <row r="3" spans="2:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="96" t="s">
         <v>29</v>
@@ -5258,22 +5296,25 @@
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R3" s="63"/>
       <c r="S3" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="U3" s="63"/>
+      <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -5292,10 +5333,11 @@
       <c r="Q4" s="95"/>
       <c r="R4" s="95"/>
       <c r="S4" s="93"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="93"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
         <v>55</v>
@@ -5317,9 +5359,10 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="16"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="105" t="s">
         <v>35</v>
@@ -5349,9 +5392,10 @@
       <c r="R6" s="17"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="16"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>36</v>
@@ -5367,17 +5411,17 @@
       </c>
       <c r="G7" s="112">
         <f>AVERAGE(K7,M7)</f>
-        <v>5.7507387482507236E-3</v>
+        <v>5.5760032564948925E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="112">
         <f>Notes!F73</f>
-        <v>5.5418815369054873E-3</v>
+        <v>5.192410553393827E-3</v>
       </c>
       <c r="L7" s="17"/>
-      <c r="M7" s="151">
+      <c r="M7" s="147">
         <f>Notes!F94</f>
         <v>5.9595959595959589E-3</v>
       </c>
@@ -5387,12 +5431,16 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="150" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="147">
+        <f>Notes!F116</f>
+        <v>6.7239166522267491E-3</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="214" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="127" t="s">
         <v>53</v>
@@ -5426,9 +5474,10 @@
       <c r="R8" s="17"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="114"/>
-    </row>
-    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="16"/>
+      <c r="V8" s="114"/>
+    </row>
+    <row r="9" spans="2:24" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="117" t="s">
         <v>56</v>
@@ -5458,9 +5507,10 @@
       <c r="R9" s="17"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="16"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="107" t="s">
         <v>37</v>
@@ -5494,17 +5544,18 @@
       <c r="R10" s="17"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="16"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
       <c r="E11" s="107"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="172"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="172"/>
+      <c r="I11" s="168"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -5516,1475 +5567,1517 @@
       <c r="R11" s="17"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="157"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="153"/>
       <c r="C12" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
+        <v>106</v>
+      </c>
+      <c r="D12" s="154"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="119"/>
-    </row>
-    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="157"/>
-      <c r="C13" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="161"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="119"/>
+    </row>
+    <row r="13" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="153"/>
+      <c r="C13" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="157"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="66"/>
-    </row>
-    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="157"/>
-      <c r="C14" s="162" t="s">
-        <v>109</v>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="153"/>
+      <c r="C14" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="163">
-        <f>'[3]Research data'!G16</f>
+      <c r="E14" s="159">
+        <f>'[2]Research data'!G16</f>
         <v>3.3995999999999999E-4</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="177">
+      <c r="G14" s="173">
         <f>O14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="154"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="17"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="179">
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="175">
         <v>0</v>
       </c>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="66"/>
-    </row>
-    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="157"/>
-      <c r="C15" s="162" t="s">
-        <v>112</v>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="153"/>
+      <c r="C15" s="158" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="163">
-        <f>'[3]Research data'!G17</f>
+      <c r="E15" s="159">
+        <f>'[2]Research data'!G17</f>
         <v>8.8163000000000005E-2</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="173">
         <f>O15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="175"/>
-      <c r="I15" s="154"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="17"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="180">
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="176">
         <v>0</v>
       </c>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="66"/>
-    </row>
-    <row r="16" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="157"/>
-      <c r="C16" s="162" t="s">
-        <v>148</v>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="153"/>
+      <c r="C16" s="158" t="s">
+        <v>146</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="163">
-        <f>'[3]Research data'!G18</f>
+      <c r="E16" s="159">
+        <f>'[2]Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="177">
+      <c r="G16" s="173">
         <f>Q16</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H16" s="175"/>
-      <c r="I16" s="154"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="17"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="179">
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="175">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="66"/>
-    </row>
-    <row r="17" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="157"/>
-      <c r="C17" s="162" t="s">
-        <v>149</v>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="153"/>
+      <c r="C17" s="158" t="s">
+        <v>147</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="163">
-        <f>'[3]Research data'!G19</f>
+      <c r="E17" s="159">
+        <f>'[2]Research data'!G19</f>
         <v>0.153</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="177">
+      <c r="G17" s="173">
         <f t="shared" ref="G17" si="0">Q17</f>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H17" s="175"/>
-      <c r="I17" s="154"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="150"/>
       <c r="J17" s="17"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
       <c r="O17" s="65"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="179">
+      <c r="P17" s="149"/>
+      <c r="Q17" s="175">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="66"/>
-    </row>
-    <row r="18" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="157"/>
-      <c r="C18" s="162" t="s">
-        <v>114</v>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="153"/>
+      <c r="C18" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="163">
-        <f>'[3]Research data'!G20</f>
+      <c r="E18" s="159">
+        <f>'[2]Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="177">
+      <c r="G18" s="173">
         <f>S18</f>
         <v>1.5836063016690064E-3</v>
       </c>
-      <c r="H18" s="175"/>
-      <c r="I18" s="154"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="150"/>
       <c r="J18" s="17"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
       <c r="O18" s="65"/>
-      <c r="P18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="179">
+      <c r="P18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="175">
         <f>fce_notes!H53</f>
         <v>1.5836063016690064E-3</v>
       </c>
-      <c r="T18" s="153"/>
-      <c r="U18" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="V18" s="66"/>
-    </row>
-    <row r="19" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="157"/>
-      <c r="C19" s="162" t="s">
-        <v>150</v>
+      <c r="T18" s="213"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="174" t="s">
+        <v>175</v>
+      </c>
+      <c r="W18" s="66"/>
+    </row>
+    <row r="19" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="153"/>
+      <c r="C19" s="158" t="s">
+        <v>148</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="163">
-        <f>'[3]Research data'!G21</f>
+      <c r="E19" s="159">
+        <f>'[2]Research data'!G21</f>
         <v>0</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="177">
+      <c r="G19" s="173">
         <f>Q19</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H19" s="175"/>
-      <c r="I19" s="154"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="150"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
       <c r="O19" s="65"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="179">
+      <c r="P19" s="149"/>
+      <c r="Q19" s="175">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="R19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="66"/>
-    </row>
-    <row r="20" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="157"/>
-      <c r="C20" s="162" t="s">
+      <c r="R19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="66"/>
+    </row>
+    <row r="20" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="153"/>
+      <c r="C20" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="163">
-        <f>'[3]Research data'!G22</f>
+      <c r="E20" s="159">
+        <f>'[2]Research data'!G22</f>
         <v>0</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="177">
+      <c r="G20" s="173">
         <f>S20</f>
         <v>5.5564771409599999E-2</v>
       </c>
-      <c r="H20" s="175"/>
-      <c r="I20" s="154"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="150"/>
       <c r="J20" s="17"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
       <c r="O20" s="65"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="179">
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="175">
         <f>fce_notes!J10</f>
         <v>5.5564771409599999E-2</v>
       </c>
-      <c r="T20" s="153"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="66"/>
-    </row>
-    <row r="21" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="157"/>
-      <c r="C21" s="162" t="s">
-        <v>115</v>
+      <c r="T20" s="213"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="174"/>
+      <c r="W20" s="66"/>
+    </row>
+    <row r="21" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="153"/>
+      <c r="C21" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="165">
-        <f>'[3]Research data'!G22</f>
+      <c r="E21" s="161">
+        <f>'[2]Research data'!G22</f>
         <v>0</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="177">
+      <c r="G21" s="173">
         <f>fce_notes!E104</f>
         <v>0</v>
       </c>
-      <c r="H21" s="175"/>
-      <c r="I21" s="154"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="150"/>
       <c r="J21" s="17"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="177">
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="173">
         <v>0</v>
       </c>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="178"/>
-      <c r="V21" s="66"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="157"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="66"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="153"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="154"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="150"/>
       <c r="J22" s="17"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
       <c r="O22" s="65"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="178"/>
-      <c r="V22" s="66"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="157"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="66"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="153"/>
       <c r="C23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
+        <v>106</v>
+      </c>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="66"/>
-    </row>
-    <row r="24" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="157"/>
-      <c r="C24" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="161"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="66"/>
+    </row>
+    <row r="24" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="153"/>
+      <c r="C24" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="157"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="66"/>
-    </row>
-    <row r="25" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="157"/>
-      <c r="C25" s="162" t="s">
-        <v>109</v>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="66"/>
+    </row>
+    <row r="25" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="153"/>
+      <c r="C25" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="163">
-        <f>'[3]Research data'!G27</f>
+      <c r="E25" s="159">
+        <f>'[2]Research data'!G27</f>
         <v>0</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="177">
+      <c r="G25" s="173">
         <f>O25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="175"/>
-      <c r="I25" s="154"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="150"/>
       <c r="J25" s="17"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="179">
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="175">
         <v>0</v>
       </c>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="66"/>
-    </row>
-    <row r="26" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="157"/>
-      <c r="C26" s="162" t="s">
-        <v>112</v>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="174"/>
+      <c r="W25" s="66"/>
+    </row>
+    <row r="26" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="153"/>
+      <c r="C26" s="158" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="163">
-        <f>'[3]Research data'!G28</f>
+      <c r="E26" s="159">
+        <f>'[2]Research data'!G28</f>
         <v>0.124</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="177">
+      <c r="G26" s="173">
         <f>O26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="175"/>
-      <c r="I26" s="154"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="150"/>
       <c r="J26" s="17"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="180">
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="176">
         <v>0</v>
       </c>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="178"/>
-      <c r="V26" s="66"/>
-    </row>
-    <row r="27" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="157"/>
-      <c r="C27" s="162" t="s">
-        <v>148</v>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="66"/>
+    </row>
+    <row r="27" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="153"/>
+      <c r="C27" s="158" t="s">
+        <v>146</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="163">
-        <f>'[3]Research data'!G29</f>
+      <c r="E27" s="159">
+        <f>'[2]Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="177">
+      <c r="G27" s="173">
         <f>Q27</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H27" s="175"/>
-      <c r="I27" s="154"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="150"/>
       <c r="J27" s="17"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="179">
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="175">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="66"/>
-    </row>
-    <row r="28" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="157"/>
-      <c r="C28" s="162" t="s">
-        <v>149</v>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="66"/>
+    </row>
+    <row r="28" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="153"/>
+      <c r="C28" s="158" t="s">
+        <v>147</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="163">
-        <f>'[3]Research data'!G30</f>
+      <c r="E28" s="159">
+        <f>'[2]Research data'!G30</f>
         <v>0</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="177">
+      <c r="G28" s="173">
         <f t="shared" ref="G28" si="1">Q28</f>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="154"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="150"/>
       <c r="J28" s="17"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
       <c r="O28" s="65"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="179">
+      <c r="P28" s="149"/>
+      <c r="Q28" s="175">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="178"/>
-      <c r="V28" s="66"/>
-    </row>
-    <row r="29" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="157"/>
-      <c r="C29" s="162" t="s">
-        <v>114</v>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="66"/>
+    </row>
+    <row r="29" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="153"/>
+      <c r="C29" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="163">
-        <f>'[3]Research data'!G31</f>
+      <c r="E29" s="159">
+        <f>'[2]Research data'!G31</f>
         <v>0</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="177">
+      <c r="G29" s="173">
         <f>S29</f>
         <v>5.2292934019653728E-4</v>
       </c>
-      <c r="H29" s="175"/>
-      <c r="I29" s="154"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="150"/>
       <c r="J29" s="17"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
       <c r="O29" s="65"/>
-      <c r="P29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="179">
+      <c r="P29" s="149"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="175">
         <f>fce_notes!H54</f>
         <v>5.2292934019653728E-4</v>
       </c>
-      <c r="T29" s="153"/>
-      <c r="U29" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="V29" s="66"/>
-    </row>
-    <row r="30" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="157"/>
-      <c r="C30" s="162" t="s">
-        <v>150</v>
+      <c r="T29" s="213"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="174" t="s">
+        <v>175</v>
+      </c>
+      <c r="W29" s="66"/>
+    </row>
+    <row r="30" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="153"/>
+      <c r="C30" s="158" t="s">
+        <v>148</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="163">
-        <f>'[3]Research data'!G32</f>
+      <c r="E30" s="159">
+        <f>'[2]Research data'!G32</f>
         <v>1.0756399999999999E-2</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="177">
+      <c r="G30" s="173">
         <f>Q30</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H30" s="175"/>
-      <c r="I30" s="154"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="150"/>
       <c r="J30" s="17"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
       <c r="O30" s="65"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="179">
+      <c r="P30" s="149"/>
+      <c r="Q30" s="175">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="R30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="66"/>
-    </row>
-    <row r="31" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="157"/>
-      <c r="C31" s="162" t="s">
+      <c r="R30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="66"/>
+    </row>
+    <row r="31" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="153"/>
+      <c r="C31" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="163">
-        <f>'[3]Research data'!G33</f>
+      <c r="E31" s="159">
+        <f>'[2]Research data'!G33</f>
         <v>1.5815200000000001E-3</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="177">
+      <c r="G31" s="173">
         <f>S31</f>
         <v>5.5495958933970364E-2</v>
       </c>
-      <c r="H31" s="175"/>
-      <c r="I31" s="154"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="150"/>
       <c r="J31" s="17"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
       <c r="O31" s="65"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="179">
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="175">
         <f>fce_notes!J17</f>
         <v>5.5495958933970364E-2</v>
       </c>
-      <c r="T31" s="153"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="66"/>
-    </row>
-    <row r="32" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="157"/>
-      <c r="C32" s="162" t="s">
-        <v>115</v>
+      <c r="T31" s="213"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="66"/>
+    </row>
+    <row r="32" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="153"/>
+      <c r="C32" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="165">
-        <f>'[3]Research data'!G33</f>
+      <c r="E32" s="161">
+        <f>'[2]Research data'!G33</f>
         <v>1.5815200000000001E-3</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="177">
+      <c r="G32" s="173">
         <f>fce_notes!E105</f>
         <v>0.41509433962264147</v>
       </c>
-      <c r="H32" s="175"/>
-      <c r="I32" s="154"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="150"/>
       <c r="J32" s="17"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="177">
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="173">
         <v>0.05</v>
       </c>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="66"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="157"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="66"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="153"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="154"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="150"/>
       <c r="J33" s="17"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
       <c r="O33" s="65"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="178"/>
-      <c r="V33" s="66"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="157"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="66"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B34" s="153"/>
       <c r="C34" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="158"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
+        <v>106</v>
+      </c>
+      <c r="D34" s="154"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="153"/>
-      <c r="S34" s="153"/>
-      <c r="T34" s="153"/>
-      <c r="U34" s="178"/>
-      <c r="V34" s="66"/>
-    </row>
-    <row r="35" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="157"/>
-      <c r="C35" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="161"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="174"/>
+      <c r="W34" s="66"/>
+    </row>
+    <row r="35" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="153"/>
+      <c r="C35" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="157"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="153"/>
-      <c r="R35" s="153"/>
-      <c r="S35" s="153"/>
-      <c r="T35" s="153"/>
-      <c r="U35" s="178"/>
-      <c r="V35" s="66"/>
-    </row>
-    <row r="36" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="157"/>
-      <c r="C36" s="162" t="s">
-        <v>109</v>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="149"/>
+      <c r="Q35" s="149"/>
+      <c r="R35" s="149"/>
+      <c r="S35" s="149"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="149"/>
+      <c r="V35" s="174"/>
+      <c r="W35" s="66"/>
+    </row>
+    <row r="36" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="153"/>
+      <c r="C36" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="163">
-        <f>'[3]Research data'!G38</f>
+      <c r="E36" s="159">
+        <f>'[2]Research data'!G38</f>
         <v>0</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="177">
+      <c r="G36" s="173">
         <f>O36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="175"/>
-      <c r="I36" s="154"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="150"/>
       <c r="J36" s="17"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="179">
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="175">
         <v>0</v>
       </c>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="178"/>
-      <c r="V36" s="66"/>
-    </row>
-    <row r="37" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="157"/>
-      <c r="C37" s="162" t="s">
-        <v>112</v>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="174"/>
+      <c r="W36" s="66"/>
+    </row>
+    <row r="37" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="153"/>
+      <c r="C37" s="158" t="s">
+        <v>110</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="163">
-        <f>'[3]Research data'!G39</f>
+      <c r="E37" s="159">
+        <f>'[2]Research data'!G39</f>
         <v>0</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="177">
+      <c r="G37" s="173">
         <f>O37</f>
         <v>0</v>
       </c>
-      <c r="H37" s="175"/>
-      <c r="I37" s="154"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="150"/>
       <c r="J37" s="17"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="180">
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="176">
         <v>0</v>
       </c>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="178"/>
-      <c r="V37" s="66"/>
-    </row>
-    <row r="38" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="157"/>
-      <c r="C38" s="162" t="s">
-        <v>148</v>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="174"/>
+      <c r="W37" s="66"/>
+    </row>
+    <row r="38" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="153"/>
+      <c r="C38" s="158" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="163">
-        <f>'[3]Research data'!G40</f>
+      <c r="E38" s="159">
+        <f>'[2]Research data'!G40</f>
         <v>0</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="177">
+      <c r="G38" s="173">
         <f>Q38</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H38" s="175"/>
-      <c r="I38" s="154"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="150"/>
       <c r="J38" s="17"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="179">
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="175">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="178"/>
-      <c r="V38" s="66"/>
-    </row>
-    <row r="39" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="157"/>
-      <c r="C39" s="162" t="s">
-        <v>149</v>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="174"/>
+      <c r="W38" s="66"/>
+    </row>
+    <row r="39" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="153"/>
+      <c r="C39" s="158" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="163">
-        <f>'[3]Research data'!G41</f>
+      <c r="E39" s="159">
+        <f>'[2]Research data'!G41</f>
         <v>3.6559299999999999E-3</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="177">
+      <c r="G39" s="173">
         <f t="shared" ref="G39" si="2">Q39</f>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H39" s="175"/>
-      <c r="I39" s="154"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="150"/>
       <c r="J39" s="17"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
       <c r="O39" s="65"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="179">
+      <c r="P39" s="149"/>
+      <c r="Q39" s="175">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="R39" s="153"/>
-      <c r="S39" s="153"/>
-      <c r="T39" s="153"/>
-      <c r="U39" s="178"/>
-      <c r="V39" s="66"/>
-    </row>
-    <row r="40" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="157"/>
-      <c r="C40" s="162" t="s">
-        <v>114</v>
+      <c r="R39" s="149"/>
+      <c r="S39" s="149"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="174"/>
+      <c r="W39" s="66"/>
+    </row>
+    <row r="40" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="153"/>
+      <c r="C40" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="163">
-        <f>'[3]Research data'!G42</f>
+      <c r="E40" s="159">
+        <f>'[2]Research data'!G42</f>
         <v>8.0710999999999999E-4</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="177">
+      <c r="G40" s="173">
         <f>S40</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H40" s="175"/>
-      <c r="I40" s="154"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="150"/>
       <c r="J40" s="17"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
       <c r="O40" s="65"/>
-      <c r="P40" s="153"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="179">
+      <c r="P40" s="149"/>
+      <c r="R40" s="149"/>
+      <c r="S40" s="175">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="T40" s="153"/>
-      <c r="U40" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="V40" s="66"/>
-    </row>
-    <row r="41" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="157"/>
-      <c r="C41" s="162" t="s">
-        <v>150</v>
+      <c r="T40" s="213"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="174" t="s">
+        <v>175</v>
+      </c>
+      <c r="W40" s="66"/>
+    </row>
+    <row r="41" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="153"/>
+      <c r="C41" s="158" t="s">
+        <v>148</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="163">
-        <f>'[3]Research data'!G43</f>
+      <c r="E41" s="159">
+        <f>'[2]Research data'!G43</f>
         <v>2.1007E-4</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="177">
+      <c r="G41" s="173">
         <f>Q41</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H41" s="175"/>
-      <c r="I41" s="154"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="150"/>
       <c r="J41" s="17"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="149"/>
       <c r="O41" s="65"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="179">
+      <c r="P41" s="149"/>
+      <c r="Q41" s="175">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="R41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="178"/>
-      <c r="V41" s="66"/>
-    </row>
-    <row r="42" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="157"/>
-      <c r="C42" s="162" t="s">
+      <c r="R41" s="149"/>
+      <c r="U41" s="149"/>
+      <c r="V41" s="174"/>
+      <c r="W41" s="66"/>
+    </row>
+    <row r="42" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="153"/>
+      <c r="C42" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="163">
-        <f>'[3]Research data'!G44</f>
+      <c r="E42" s="159">
+        <f>'[2]Research data'!G44</f>
         <v>8.7446399999999994E-2</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="177">
+      <c r="G42" s="173">
         <f>S42</f>
         <v>5.5666643949681481E-2</v>
       </c>
-      <c r="H42" s="175"/>
-      <c r="I42" s="154"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="150"/>
       <c r="J42" s="17"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
       <c r="O42" s="65"/>
-      <c r="P42" s="153"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="153"/>
-      <c r="S42" s="179">
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="149"/>
+      <c r="S42" s="175">
         <f>fce_notes!J25</f>
         <v>5.5666643949681481E-2</v>
       </c>
-      <c r="T42" s="153"/>
-      <c r="U42" s="178"/>
-      <c r="V42" s="66"/>
-    </row>
-    <row r="43" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="157"/>
-      <c r="C43" s="162" t="s">
-        <v>115</v>
+      <c r="T42" s="213"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="66"/>
+    </row>
+    <row r="43" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="153"/>
+      <c r="C43" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="165">
-        <f>'[3]Research data'!G44</f>
+      <c r="E43" s="161">
+        <f>'[2]Research data'!G44</f>
         <v>8.7446399999999994E-2</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="177">
+      <c r="G43" s="173">
         <f>fce_notes!E106</f>
         <v>0.58490566037735847</v>
       </c>
-      <c r="H43" s="175"/>
-      <c r="I43" s="154"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="150"/>
       <c r="J43" s="17"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="177">
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="173">
         <v>0</v>
       </c>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="178"/>
-      <c r="V43" s="66"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="157"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
+      <c r="P43" s="149"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="149"/>
+      <c r="V43" s="174"/>
+      <c r="W43" s="66"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B44" s="153"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="154"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="150"/>
       <c r="J44" s="17"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
-      <c r="N44" s="153"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="149"/>
+      <c r="N44" s="149"/>
       <c r="O44" s="65"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="153"/>
-      <c r="S44" s="153"/>
-      <c r="T44" s="153"/>
-      <c r="U44" s="178"/>
-      <c r="V44" s="66"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="157"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="149"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="149"/>
+      <c r="T44" s="149"/>
+      <c r="U44" s="149"/>
+      <c r="V44" s="174"/>
+      <c r="W44" s="66"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B45" s="153"/>
       <c r="C45" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="22"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="178"/>
-      <c r="V45" s="66"/>
-    </row>
-    <row r="46" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="157"/>
-      <c r="C46" s="161" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="161"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="149"/>
+      <c r="N45" s="149"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="149"/>
+      <c r="Q45" s="149"/>
+      <c r="R45" s="149"/>
+      <c r="S45" s="149"/>
+      <c r="T45" s="149"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="174"/>
+      <c r="W45" s="66"/>
+    </row>
+    <row r="46" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="153"/>
+      <c r="C46" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="157"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="153"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
-      <c r="N46" s="153"/>
-      <c r="O46" s="153"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="153"/>
-      <c r="R46" s="153"/>
-      <c r="S46" s="153"/>
-      <c r="T46" s="153"/>
-      <c r="U46" s="178"/>
-      <c r="V46" s="66"/>
-    </row>
-    <row r="47" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="157"/>
-      <c r="C47" s="162" t="s">
-        <v>109</v>
+      <c r="K46" s="149"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="149"/>
+      <c r="S46" s="149"/>
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="174"/>
+      <c r="W46" s="66"/>
+    </row>
+    <row r="47" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="153"/>
+      <c r="C47" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="190">
-        <f>'[3]Research data'!G49</f>
+      <c r="E47" s="186">
+        <f>'[2]Research data'!G49</f>
         <v>0</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="177">
+      <c r="G47" s="173">
         <f>O47</f>
         <v>0</v>
       </c>
-      <c r="H47" s="175"/>
-      <c r="I47" s="154"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="150"/>
       <c r="J47" s="17"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="179">
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="175">
         <v>0</v>
       </c>
-      <c r="P47" s="153"/>
-      <c r="Q47" s="153"/>
-      <c r="R47" s="153"/>
-      <c r="S47" s="153"/>
-      <c r="T47" s="153"/>
-      <c r="U47" s="178"/>
-      <c r="V47" s="66"/>
-    </row>
-    <row r="48" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="157"/>
-      <c r="C48" s="162" t="s">
-        <v>112</v>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="149"/>
+      <c r="S47" s="149"/>
+      <c r="T47" s="149"/>
+      <c r="U47" s="149"/>
+      <c r="V47" s="174"/>
+      <c r="W47" s="66"/>
+    </row>
+    <row r="48" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="153"/>
+      <c r="C48" s="158" t="s">
+        <v>110</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="190">
-        <f>'[3]Research data'!G50</f>
+      <c r="E48" s="186">
+        <f>'[2]Research data'!G50</f>
         <v>1.1964799999999999E-2</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="177">
+      <c r="G48" s="173">
         <f>O48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="175"/>
-      <c r="I48" s="154"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="150"/>
       <c r="J48" s="17"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
-      <c r="N48" s="153"/>
-      <c r="O48" s="180">
+      <c r="L48" s="149"/>
+      <c r="M48" s="149"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="176">
         <v>0</v>
       </c>
-      <c r="P48" s="153"/>
-      <c r="Q48" s="153"/>
-      <c r="R48" s="153"/>
-      <c r="S48" s="153"/>
-      <c r="T48" s="153"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="66"/>
-    </row>
-    <row r="49" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="157"/>
-      <c r="C49" s="162" t="s">
-        <v>148</v>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="149"/>
+      <c r="R48" s="149"/>
+      <c r="S48" s="149"/>
+      <c r="T48" s="149"/>
+      <c r="U48" s="149"/>
+      <c r="V48" s="174"/>
+      <c r="W48" s="66"/>
+    </row>
+    <row r="49" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="153"/>
+      <c r="C49" s="158" t="s">
+        <v>146</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="190">
-        <f>'[3]Research data'!G51</f>
+      <c r="E49" s="186">
+        <f>'[2]Research data'!G51</f>
         <v>2.0680500000000001E-3</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="177">
+      <c r="G49" s="173">
         <f>Q49</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H49" s="175"/>
-      <c r="I49" s="154"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="150"/>
       <c r="J49" s="17"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="179">
+      <c r="L49" s="149"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="149"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="175">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="R49" s="153"/>
-      <c r="S49" s="153"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="178"/>
-      <c r="V49" s="66"/>
-    </row>
-    <row r="50" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="157"/>
-      <c r="C50" s="162" t="s">
-        <v>149</v>
+      <c r="R49" s="149"/>
+      <c r="S49" s="149"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="174"/>
+      <c r="W49" s="66"/>
+    </row>
+    <row r="50" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="153"/>
+      <c r="C50" s="158" t="s">
+        <v>147</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="190">
-        <f>'[3]Research data'!G52</f>
+      <c r="E50" s="186">
+        <f>'[2]Research data'!G52</f>
         <v>2.4298000000000001E-4</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="177">
+      <c r="G50" s="173">
         <f t="shared" ref="G50" si="3">Q50</f>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H50" s="175"/>
-      <c r="I50" s="154"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="150"/>
       <c r="J50" s="17"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="153"/>
-      <c r="N50" s="153"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
       <c r="O50" s="65"/>
-      <c r="P50" s="153"/>
-      <c r="Q50" s="179">
+      <c r="P50" s="149"/>
+      <c r="Q50" s="175">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="R50" s="153"/>
-      <c r="S50" s="153"/>
-      <c r="T50" s="153"/>
-      <c r="U50" s="178"/>
-      <c r="V50" s="66"/>
-    </row>
-    <row r="51" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="157"/>
-      <c r="C51" s="162" t="s">
-        <v>114</v>
+      <c r="R50" s="149"/>
+      <c r="S50" s="149"/>
+      <c r="T50" s="149"/>
+      <c r="U50" s="149"/>
+      <c r="V50" s="174"/>
+      <c r="W50" s="66"/>
+    </row>
+    <row r="51" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="153"/>
+      <c r="C51" s="158" t="s">
+        <v>112</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="190">
-        <f>'[3]Research data'!G53</f>
+      <c r="E51" s="186">
+        <f>'[2]Research data'!G53</f>
         <v>9.9245600000000003E-2</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="177">
+      <c r="G51" s="173">
         <f>S51</f>
         <v>6.6067486597287922E-4</v>
       </c>
-      <c r="H51" s="175"/>
-      <c r="I51" s="154"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="150"/>
       <c r="J51" s="17"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="153"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="149"/>
+      <c r="N51" s="149"/>
       <c r="O51" s="65"/>
-      <c r="P51" s="153"/>
-      <c r="R51" s="153"/>
-      <c r="S51" s="179">
+      <c r="P51" s="149"/>
+      <c r="R51" s="149"/>
+      <c r="S51" s="175">
         <f>fce_notes!H56</f>
         <v>6.6067486597287922E-4</v>
       </c>
-      <c r="T51" s="153"/>
-      <c r="U51" s="178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="157"/>
-      <c r="C52" s="162" t="s">
-        <v>150</v>
+      <c r="T51" s="213"/>
+      <c r="U51" s="149"/>
+      <c r="V51" s="174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="153"/>
+      <c r="C52" s="158" t="s">
+        <v>148</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="190">
-        <f>'[3]Research data'!G54</f>
+      <c r="E52" s="186">
+        <f>'[2]Research data'!G54</f>
         <v>0</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="177">
+      <c r="G52" s="173">
         <f>Q52</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H52" s="175"/>
-      <c r="I52" s="154"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="150"/>
       <c r="J52" s="17"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
+      <c r="L52" s="149"/>
+      <c r="M52" s="149"/>
+      <c r="N52" s="149"/>
       <c r="O52" s="65"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="179">
+      <c r="P52" s="149"/>
+      <c r="Q52" s="175">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="R52" s="153"/>
-      <c r="T52" s="153"/>
-      <c r="U52" s="178"/>
-    </row>
-    <row r="53" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="157"/>
-      <c r="C53" s="162" t="s">
+      <c r="R52" s="149"/>
+      <c r="U52" s="149"/>
+      <c r="V52" s="174"/>
+    </row>
+    <row r="53" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="153"/>
+      <c r="C53" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="190">
-        <f>'[3]Research data'!G55</f>
+      <c r="E53" s="186">
+        <f>'[2]Research data'!G55</f>
         <v>0</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="177">
+      <c r="G53" s="173">
         <f>S53</f>
         <v>5.5452212002454322E-2</v>
       </c>
-      <c r="H53" s="175"/>
-      <c r="I53" s="154"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="150"/>
       <c r="J53" s="17"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="153"/>
-      <c r="N53" s="153"/>
+      <c r="L53" s="149"/>
+      <c r="M53" s="149"/>
+      <c r="N53" s="149"/>
       <c r="O53" s="65"/>
-      <c r="P53" s="153"/>
-      <c r="Q53" s="153"/>
-      <c r="R53" s="153"/>
-      <c r="S53" s="179">
+      <c r="P53" s="149"/>
+      <c r="Q53" s="149"/>
+      <c r="R53" s="149"/>
+      <c r="S53" s="175">
         <f>AVERAGE(fce_notes!J32, fce_notes!J40, fce_notes!J47)</f>
         <v>5.5452212002454322E-2</v>
       </c>
-      <c r="T53" s="153"/>
-      <c r="U53" s="178"/>
-    </row>
-    <row r="54" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="157"/>
-      <c r="C54" s="162" t="s">
-        <v>115</v>
+      <c r="T53" s="213"/>
+      <c r="U53" s="149"/>
+      <c r="V53" s="174"/>
+    </row>
+    <row r="54" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="153"/>
+      <c r="C54" s="158" t="s">
+        <v>113</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="165">
-        <f>'[3]Research data'!G55</f>
+      <c r="E54" s="161">
+        <f>'[2]Research data'!G55</f>
         <v>0</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="177">
+      <c r="G54" s="173">
         <f>fce_notes!E107</f>
         <v>0</v>
       </c>
-      <c r="H54" s="175"/>
-      <c r="I54" s="154"/>
+      <c r="H54" s="171"/>
+      <c r="I54" s="150"/>
       <c r="J54" s="17"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="153"/>
-      <c r="N54" s="153"/>
-      <c r="O54" s="177">
+      <c r="L54" s="149"/>
+      <c r="M54" s="149"/>
+      <c r="N54" s="149"/>
+      <c r="O54" s="173">
         <v>0</v>
       </c>
-      <c r="P54" s="153"/>
-      <c r="Q54" s="153"/>
-      <c r="R54" s="153"/>
-      <c r="S54" s="153"/>
-      <c r="T54" s="153"/>
-      <c r="U54" s="178"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="157"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="149"/>
+      <c r="R54" s="149"/>
+      <c r="S54" s="149"/>
+      <c r="T54" s="149"/>
+      <c r="U54" s="149"/>
+      <c r="V54" s="174"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B55" s="153"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
       <c r="F55" s="22"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="175"/>
-      <c r="I55" s="154"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="150"/>
       <c r="J55" s="17"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="153"/>
+      <c r="L55" s="149"/>
+      <c r="M55" s="149"/>
+      <c r="N55" s="149"/>
       <c r="O55" s="65"/>
-      <c r="P55" s="153"/>
-      <c r="Q55" s="153"/>
-      <c r="R55" s="153"/>
-      <c r="S55" s="153"/>
-      <c r="T55" s="153"/>
-      <c r="U55" s="178"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="153"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
+      <c r="P55" s="149"/>
+      <c r="Q55" s="149"/>
+      <c r="R55" s="149"/>
+      <c r="S55" s="149"/>
+      <c r="T55" s="149"/>
+      <c r="U55" s="149"/>
+      <c r="V55" s="174"/>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B56" s="149"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
       <c r="F56" s="22"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="175"/>
-      <c r="I56" s="154"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="150"/>
       <c r="J56" s="17"/>
-      <c r="L56" s="153"/>
-      <c r="M56" s="153"/>
-      <c r="N56" s="153"/>
+      <c r="L56" s="149"/>
+      <c r="M56" s="149"/>
+      <c r="N56" s="149"/>
       <c r="O56" s="65"/>
-      <c r="P56" s="153"/>
-      <c r="Q56" s="153"/>
-      <c r="R56" s="153"/>
-      <c r="S56" s="153"/>
-      <c r="T56" s="153"/>
-      <c r="U56" s="178"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="149"/>
+      <c r="R56" s="149"/>
+      <c r="S56" s="149"/>
+      <c r="T56" s="149"/>
+      <c r="U56" s="149"/>
+      <c r="V56" s="174"/>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="149"/>
+      <c r="F57" s="149"/>
+      <c r="G57" s="149"/>
       <c r="I57" s="65"/>
       <c r="J57" s="65"/>
       <c r="L57" s="65"/>
@@ -6992,7 +7085,7 @@
       <c r="N57" s="65"/>
       <c r="P57" s="65"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
       <c r="I58" s="65"/>
@@ -7002,7 +7095,7 @@
       <c r="N58" s="65"/>
       <c r="P58" s="65"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C59" s="66"/>
       <c r="D59" s="66"/>
       <c r="I59" s="65"/>
@@ -7013,7 +7106,7 @@
       <c r="N59" s="65"/>
       <c r="P59" s="65"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C60" s="66"/>
       <c r="D60" s="66"/>
       <c r="I60" s="65"/>
@@ -7024,7 +7117,7 @@
       <c r="N60" s="65"/>
       <c r="P60" s="65"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
       <c r="I61" s="65"/>
@@ -7035,7 +7128,7 @@
       <c r="N61" s="65"/>
       <c r="P61" s="65"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C62" s="66"/>
       <c r="D62" s="66"/>
       <c r="I62" s="65"/>
@@ -7046,7 +7139,7 @@
       <c r="N62" s="65"/>
       <c r="P62" s="65"/>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C63" s="66"/>
       <c r="D63" s="66"/>
       <c r="I63" s="65"/>
@@ -7057,7 +7150,7 @@
       <c r="N63" s="65"/>
       <c r="P63" s="65"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C64" s="66"/>
       <c r="D64" s="66"/>
       <c r="I64" s="65"/>
@@ -7503,23 +7596,23 @@
   </sheetPr>
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.140625" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="45"/>
+    <col min="7" max="7" width="10.1640625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.1640625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7631,7 +7724,7 @@
         <v>69</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L7" s="54" t="s">
         <v>66</v>
@@ -7699,7 +7792,7 @@
         <v>71</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" s="122" t="s">
         <v>70</v>
@@ -7710,37 +7803,46 @@
       <c r="C12" s="113"/>
       <c r="D12" s="62"/>
       <c r="E12" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>97</v>
-      </c>
       <c r="H12" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="152" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="I12" s="148" t="s">
+        <v>100</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
+      <c r="E13" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" s="169">
+        <v>43040</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>51</v>
@@ -7751,19 +7853,19 @@
       <c r="I14" s="45">
         <v>2011</v>
       </c>
-      <c r="J14" s="173">
+      <c r="J14" s="169">
         <v>42309</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E15" s="154" t="s">
-        <v>144</v>
+      <c r="E15" s="150" t="s">
+        <v>142</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H15" s="45">
         <v>2014</v>
@@ -7771,19 +7873,19 @@
       <c r="I15" s="45">
         <v>2013</v>
       </c>
-      <c r="J15" s="173">
+      <c r="J15" s="169">
         <v>42309</v>
       </c>
-      <c r="K15" s="174" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" s="154" t="s">
-        <v>147</v>
+      <c r="K15" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="150" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E16" s="45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>51</v>
@@ -7794,14 +7896,14 @@
       <c r="I16" s="45">
         <v>2011</v>
       </c>
-      <c r="J16" s="173">
+      <c r="J16" s="169">
         <v>42309</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -7814,22 +7916,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y219"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
-    <col min="3" max="5" width="7" style="98"/>
+    <col min="3" max="4" width="7" style="98"/>
+    <col min="5" max="5" width="13.1640625" style="98" customWidth="1"/>
     <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="7" style="98"/>
-    <col min="18" max="18" width="9.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="98"/>
+    <col min="11" max="11" width="14.6640625" style="98" customWidth="1"/>
+    <col min="12" max="17" width="7" style="98"/>
+    <col min="18" max="18" width="9.5" style="98" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="7" style="98"/>
-    <col min="22" max="22" width="9.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="98" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
@@ -8605,7 +8710,7 @@
         <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
@@ -8614,7 +8719,7 @@
         <v>1000</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
@@ -8625,7 +8730,7 @@
         <v>49500</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
@@ -8668,10 +8773,10 @@
     <row r="42" spans="2:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="99"/>
       <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
         <v>116</v>
-      </c>
-      <c r="H42" t="s">
-        <v>118</v>
       </c>
       <c r="I42" s="98"/>
       <c r="J42" s="98"/>
@@ -8691,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I43" s="98"/>
       <c r="J43" s="98"/>
@@ -8934,10 +9039,10 @@
       <c r="Q59" s="98"/>
       <c r="R59" s="98"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99"/>
     </row>
-    <row r="61" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="102"/>
       <c r="C61" s="102" t="s">
         <v>24</v>
@@ -8965,10 +9070,10 @@
       <c r="T61" s="102"/>
       <c r="U61" s="102"/>
     </row>
-    <row r="62" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="C62" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" s="108"/>
       <c r="E62" s="108"/>
@@ -8993,10 +9098,10 @@
       <c r="X62" s="108"/>
       <c r="Y62" s="108"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="99"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99"/>
       <c r="E64" t="s">
         <v>81</v>
@@ -9008,7 +9113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="99"/>
       <c r="D65">
         <v>20</v>
@@ -9023,7 +9128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99"/>
       <c r="E66" t="s">
         <v>80</v>
@@ -9035,7 +9140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="F67">
         <f>AVERAGE(F64,F65,F66)</f>
@@ -9045,7 +9150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="F68">
         <f>F67/1055.05585</f>
@@ -9055,88 +9160,88 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="99"/>
     </row>
-    <row r="70" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="99"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148">
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145">
         <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="G70" s="148" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="G70" s="145" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="99"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148">
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="145">
         <f>1/F70</f>
-        <v>0.91074681238615662</v>
-      </c>
-      <c r="G71" s="148" t="s">
+        <v>0.85331512927724218</v>
+      </c>
+      <c r="G71" s="145" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="146"/>
-      <c r="H72" s="147"/>
-    </row>
-    <row r="73" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="145"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="143"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="144"/>
+    </row>
+    <row r="73" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="99"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="148">
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="145">
         <f>F68*F71</f>
-        <v>5.5418815369054873E-3</v>
-      </c>
-      <c r="G73" s="148" t="s">
+        <v>5.192410553393827E-3</v>
+      </c>
+      <c r="G73" s="145" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="99"/>
     </row>
-    <row r="75" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="99"/>
     </row>
-    <row r="76" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="99"/>
-      <c r="I76" s="149"/>
-    </row>
-    <row r="77" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I76" s="146"/>
+    </row>
+    <row r="77" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="99"/>
     </row>
-    <row r="78" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="99"/>
     </row>
-    <row r="79" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="99"/>
     </row>
-    <row r="80" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="99"/>
     </row>
-    <row r="81" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="99"/>
     </row>
-    <row r="82" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99"/>
     </row>
-    <row r="83" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="99"/>
     </row>
-    <row r="84" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="99"/>
     </row>
-    <row r="85" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:25" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="102"/>
       <c r="C85" s="102" t="s">
         <v>24</v>
@@ -9164,7 +9269,7 @@
       <c r="T85" s="102"/>
       <c r="U85" s="102"/>
     </row>
-    <row r="86" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="99"/>
       <c r="C86" s="108"/>
       <c r="D86" s="108"/>
@@ -9190,10 +9295,10 @@
       <c r="X86" s="108"/>
       <c r="Y86" s="108"/>
     </row>
-    <row r="87" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="99"/>
       <c r="C87" s="123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
@@ -9218,7 +9323,7 @@
       <c r="X87" s="108"/>
       <c r="Y87" s="108"/>
     </row>
-    <row r="88" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="99"/>
       <c r="C88" s="122"/>
       <c r="D88" s="108"/>
@@ -9244,7 +9349,7 @@
       <c r="X88" s="108"/>
       <c r="Y88" s="108"/>
     </row>
-    <row r="89" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="99"/>
       <c r="C89" s="108"/>
       <c r="E89" s="108"/>
@@ -9269,7 +9374,7 @@
       <c r="X89" s="108"/>
       <c r="Y89" s="108"/>
     </row>
-    <row r="90" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="99"/>
       <c r="C90" s="108"/>
       <c r="D90" s="108"/>
@@ -9295,7 +9400,7 @@
       <c r="X90" s="108"/>
       <c r="Y90" s="108"/>
     </row>
-    <row r="91" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="99"/>
       <c r="C91" s="108"/>
       <c r="D91" s="124"/>
@@ -9313,7 +9418,7 @@
       <c r="X91" s="108"/>
       <c r="Y91" s="108"/>
     </row>
-    <row r="92" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="99"/>
       <c r="C92" s="108"/>
       <c r="D92" s="108"/>
@@ -9331,7 +9436,7 @@
       <c r="X92" s="108"/>
       <c r="Y92" s="108"/>
     </row>
-    <row r="93" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="99"/>
       <c r="C93" s="108"/>
       <c r="D93" s="108"/>
@@ -9339,7 +9444,7 @@
         <v>295</v>
       </c>
       <c r="G93" s="108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O93" s="108"/>
       <c r="P93" s="108"/>
@@ -9353,7 +9458,7 @@
       <c r="X93" s="108"/>
       <c r="Y93" s="108"/>
     </row>
-    <row r="94" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="99"/>
       <c r="C94" s="108"/>
       <c r="D94" s="108"/>
@@ -9376,7 +9481,7 @@
       <c r="X94" s="108"/>
       <c r="Y94" s="108"/>
     </row>
-    <row r="95" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="99"/>
       <c r="C95" s="108"/>
       <c r="D95" s="108"/>
@@ -9394,16 +9499,16 @@
       <c r="X95" s="108"/>
       <c r="Y95" s="108"/>
     </row>
-    <row r="96" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="99"/>
       <c r="C96" s="108"/>
       <c r="D96" s="108"/>
       <c r="E96" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F96" s="108">
         <f>AVERAGE(F94,F73)</f>
-        <v>5.7507387482507236E-3</v>
+        <v>5.5760032564948925E-3</v>
       </c>
       <c r="G96" s="108" t="s">
         <v>77</v>
@@ -9420,7 +9525,7 @@
       <c r="X96" s="108"/>
       <c r="Y96" s="108"/>
     </row>
-    <row r="97" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="99"/>
       <c r="C97" s="108"/>
       <c r="D97" s="108"/>
@@ -9438,7 +9543,7 @@
       <c r="X97" s="108"/>
       <c r="Y97" s="108"/>
     </row>
-    <row r="98" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="99"/>
       <c r="C98" s="108"/>
       <c r="D98" s="108"/>
@@ -9456,7 +9561,7 @@
       <c r="X98" s="108"/>
       <c r="Y98" s="108"/>
     </row>
-    <row r="99" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="99"/>
       <c r="C99" s="108"/>
       <c r="D99" s="108"/>
@@ -9474,7 +9579,7 @@
       <c r="X99" s="108"/>
       <c r="Y99" s="108"/>
     </row>
-    <row r="100" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="99"/>
       <c r="C100" s="108"/>
       <c r="D100" s="108"/>
@@ -9493,7 +9598,7 @@
       <c r="X100" s="108"/>
       <c r="Y100" s="108"/>
     </row>
-    <row r="101" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="99"/>
       <c r="C101" s="108"/>
       <c r="D101" s="108"/>
@@ -9511,7 +9616,7 @@
       <c r="X101" s="108"/>
       <c r="Y101" s="108"/>
     </row>
-    <row r="102" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="99"/>
       <c r="C102" s="108"/>
       <c r="D102" s="108"/>
@@ -9529,7 +9634,7 @@
       <c r="X102" s="108"/>
       <c r="Y102" s="108"/>
     </row>
-    <row r="103" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="99"/>
       <c r="C103" s="108"/>
       <c r="D103" s="108"/>
@@ -9547,7 +9652,7 @@
       <c r="X103" s="108"/>
       <c r="Y103" s="108"/>
     </row>
-    <row r="104" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="99"/>
       <c r="C104" s="108"/>
       <c r="D104" s="108"/>
@@ -9566,7 +9671,7 @@
       <c r="X104" s="108"/>
       <c r="Y104" s="108"/>
     </row>
-    <row r="105" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="99"/>
       <c r="C105" s="108"/>
       <c r="D105" s="108"/>
@@ -9585,7 +9690,7 @@
       <c r="X105" s="108"/>
       <c r="Y105" s="108"/>
     </row>
-    <row r="106" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="99"/>
       <c r="C106" s="108"/>
       <c r="D106" s="108"/>
@@ -9604,7 +9709,7 @@
       <c r="X106" s="108"/>
       <c r="Y106" s="108"/>
     </row>
-    <row r="107" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="99"/>
       <c r="C107" s="108"/>
       <c r="D107" s="108"/>
@@ -9623,7 +9728,7 @@
       <c r="X107" s="108"/>
       <c r="Y107" s="108"/>
     </row>
-    <row r="108" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="99"/>
       <c r="C108" s="108"/>
       <c r="D108" s="108"/>
@@ -9642,7 +9747,7 @@
       <c r="X108" s="108"/>
       <c r="Y108" s="108"/>
     </row>
-    <row r="109" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="99"/>
       <c r="C109" s="108"/>
       <c r="D109" s="108"/>
@@ -9668,8 +9773,24 @@
       <c r="E110" s="108"/>
       <c r="F110" s="108"/>
       <c r="G110" s="108"/>
-      <c r="O110" s="108"/>
-      <c r="P110" s="108"/>
+      <c r="K110" t="s">
+        <v>85</v>
+      </c>
+      <c r="L110" t="s">
+        <v>194</v>
+      </c>
+      <c r="M110" t="s">
+        <v>195</v>
+      </c>
+      <c r="N110" t="s">
+        <v>196</v>
+      </c>
+      <c r="O110" t="s">
+        <v>197</v>
+      </c>
+      <c r="P110" t="s">
+        <v>198</v>
+      </c>
       <c r="Q110" s="108"/>
       <c r="R110" s="108"/>
       <c r="S110" s="108"/>
@@ -9680,15 +9801,31 @@
       <c r="X110" s="108"/>
       <c r="Y110" s="108"/>
     </row>
-    <row r="111" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="99"/>
       <c r="C111" s="108"/>
       <c r="D111" s="108"/>
       <c r="E111" s="108"/>
       <c r="F111" s="108"/>
       <c r="G111" s="108"/>
-      <c r="O111" s="108"/>
-      <c r="P111" s="108"/>
+      <c r="K111" s="206">
+        <v>41648</v>
+      </c>
+      <c r="L111">
+        <v>13.9</v>
+      </c>
+      <c r="M111">
+        <v>13.5</v>
+      </c>
+      <c r="N111">
+        <v>8.5</v>
+      </c>
+      <c r="O111">
+        <v>11.2</v>
+      </c>
+      <c r="P111">
+        <v>13.3</v>
+      </c>
       <c r="Q111" s="108"/>
       <c r="R111" s="108"/>
       <c r="S111" s="108"/>
@@ -9699,206 +9836,917 @@
       <c r="X111" s="108"/>
       <c r="Y111" s="108"/>
     </row>
-    <row r="112" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="99"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-    </row>
-    <row r="113" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>199</v>
+      </c>
+      <c r="F112" s="208">
+        <f>AVERAGE(L148:P149)</f>
+        <v>8.3200000000000021</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="K112" s="206">
+        <v>41649</v>
+      </c>
+      <c r="L112">
+        <v>14.3</v>
+      </c>
+      <c r="M112">
+        <v>13.9</v>
+      </c>
+      <c r="N112">
+        <v>9</v>
+      </c>
+      <c r="O112">
+        <v>11.8</v>
+      </c>
+      <c r="P112">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B113" s="99"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-    </row>
-    <row r="114" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>1055.8699999999999</v>
+      </c>
+      <c r="G113" t="s">
+        <v>200</v>
+      </c>
+      <c r="K113" s="206">
+        <v>41650</v>
+      </c>
+      <c r="L113">
+        <v>11.3</v>
+      </c>
+      <c r="M113">
+        <v>10.9</v>
+      </c>
+      <c r="N113">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O113">
+        <v>9.6</v>
+      </c>
+      <c r="P113">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="99"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-    </row>
-    <row r="115" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="98">
+        <f>F112/F113</f>
+        <v>7.8797579247445269E-3</v>
+      </c>
+      <c r="G114" s="207" t="s">
+        <v>201</v>
+      </c>
+      <c r="K114" s="206">
+        <v>41651</v>
+      </c>
+      <c r="L114">
+        <v>9.9</v>
+      </c>
+      <c r="M114">
+        <v>9.5</v>
+      </c>
+      <c r="N114">
+        <v>8.5</v>
+      </c>
+      <c r="O114">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P114">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="99"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="108"/>
-    </row>
-    <row r="116" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="98">
+        <f>Exchange_rates!E9</f>
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="G115" s="207" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115" s="206">
+        <v>42005</v>
+      </c>
+      <c r="L115">
+        <v>9.9</v>
+      </c>
+      <c r="M115">
+        <v>9.5</v>
+      </c>
+      <c r="N115">
+        <v>7.1</v>
+      </c>
+      <c r="O115">
+        <v>7.8</v>
+      </c>
+      <c r="P115">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="99"/>
-      <c r="F116" s="108"/>
-      <c r="G116" s="108"/>
-    </row>
-    <row r="117" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="98">
+        <f>F114/F115</f>
+        <v>6.7239166522267491E-3</v>
+      </c>
+      <c r="G116" s="207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K116" s="206">
+        <v>42006</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>6.6</v>
+      </c>
+      <c r="N116">
+        <v>7.5</v>
+      </c>
+      <c r="O116">
+        <v>7.1</v>
+      </c>
+      <c r="P116">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="99"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="108"/>
-    </row>
-    <row r="118" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="98"/>
+      <c r="G117" s="207"/>
+      <c r="K117" s="206">
+        <v>42007</v>
+      </c>
+      <c r="L117">
+        <v>7.6</v>
+      </c>
+      <c r="M117">
+        <v>7.3</v>
+      </c>
+      <c r="N117">
+        <v>6.9</v>
+      </c>
+      <c r="O117">
+        <v>7.2</v>
+      </c>
+      <c r="P117">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="99"/>
-      <c r="F118" s="108"/>
-      <c r="G118" s="108"/>
-    </row>
-    <row r="119" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="98"/>
+      <c r="G118" s="207"/>
+      <c r="K118" s="206">
+        <v>42008</v>
+      </c>
+      <c r="L118">
+        <v>6.9</v>
+      </c>
+      <c r="M118">
+        <v>6.7</v>
+      </c>
+      <c r="N118">
+        <v>6.6</v>
+      </c>
+      <c r="O118">
+        <v>6.8</v>
+      </c>
+      <c r="P118">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="99"/>
-      <c r="F119" s="108"/>
-      <c r="G119" s="108"/>
-    </row>
-    <row r="120" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="98"/>
+      <c r="G119" s="207"/>
+      <c r="K119" s="206">
+        <v>42009</v>
+      </c>
+      <c r="L119">
+        <v>7.3</v>
+      </c>
+      <c r="M119">
+        <v>7.1</v>
+      </c>
+      <c r="N119">
+        <v>6.5</v>
+      </c>
+      <c r="O119">
+        <v>6.8</v>
+      </c>
+      <c r="P119">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="99"/>
-      <c r="F120" s="108"/>
-      <c r="G120" s="108"/>
-    </row>
-    <row r="121" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="98"/>
+      <c r="G120" s="207"/>
+      <c r="K120" s="206">
+        <v>42010</v>
+      </c>
+      <c r="L120">
+        <v>7.6</v>
+      </c>
+      <c r="M120">
+        <v>7.4</v>
+      </c>
+      <c r="N120">
+        <v>6.6</v>
+      </c>
+      <c r="O120">
+        <v>6.7</v>
+      </c>
+      <c r="P120">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="99"/>
-      <c r="F121" s="108"/>
-      <c r="G121" s="108"/>
-    </row>
-    <row r="122" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="98"/>
+      <c r="G121" s="207"/>
+      <c r="K121" s="206">
+        <v>42011</v>
+      </c>
+      <c r="L121">
+        <v>7.7</v>
+      </c>
+      <c r="M121">
+        <v>7.6</v>
+      </c>
+      <c r="N121">
+        <v>6.7</v>
+      </c>
+      <c r="O121">
+        <v>7.1</v>
+      </c>
+      <c r="P121">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="99"/>
-      <c r="F122" s="108"/>
-      <c r="G122" s="108"/>
-    </row>
-    <row r="123" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="98"/>
+      <c r="G122" s="207"/>
+      <c r="K122" s="206">
+        <v>42012</v>
+      </c>
+      <c r="L122">
+        <v>8</v>
+      </c>
+      <c r="M122">
+        <v>7.8</v>
+      </c>
+      <c r="N122">
+        <v>6.3</v>
+      </c>
+      <c r="O122">
+        <v>6.7</v>
+      </c>
+      <c r="P122">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="99"/>
-      <c r="F123" s="108"/>
-      <c r="G123" s="108"/>
-    </row>
-    <row r="124" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F123" s="98"/>
+      <c r="G123" s="207"/>
+      <c r="K123" s="206">
+        <v>42013</v>
+      </c>
+      <c r="L123">
+        <v>7.2</v>
+      </c>
+      <c r="M123">
+        <v>7.7</v>
+      </c>
+      <c r="N123">
+        <v>6.4</v>
+      </c>
+      <c r="O123">
+        <v>6.5</v>
+      </c>
+      <c r="P123">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="99"/>
-      <c r="F124" s="108"/>
-      <c r="G124" s="108"/>
-    </row>
-    <row r="125" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F124" s="98"/>
+      <c r="G124" s="207"/>
+      <c r="K124" s="206">
+        <v>42014</v>
+      </c>
+      <c r="L124">
+        <v>6.7</v>
+      </c>
+      <c r="M124">
+        <v>6.6</v>
+      </c>
+      <c r="N124">
+        <v>6.4</v>
+      </c>
+      <c r="O124">
+        <v>6.3</v>
+      </c>
+      <c r="P124">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="99"/>
-      <c r="F125" s="108"/>
-      <c r="G125" s="108"/>
-    </row>
-    <row r="126" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="98"/>
+      <c r="G125" s="207"/>
+      <c r="K125" s="206">
+        <v>42015</v>
+      </c>
+      <c r="L125">
+        <v>7.4</v>
+      </c>
+      <c r="M125">
+        <v>7.3</v>
+      </c>
+      <c r="N125">
+        <v>5.8</v>
+      </c>
+      <c r="O125">
+        <v>6.3</v>
+      </c>
+      <c r="P125">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="99"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="108"/>
-    </row>
-    <row r="127" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="98"/>
+      <c r="G126" s="207"/>
+      <c r="K126" s="206">
+        <v>42016</v>
+      </c>
+      <c r="L126">
+        <v>7.2</v>
+      </c>
+      <c r="M126">
+        <v>7</v>
+      </c>
+      <c r="N126">
+        <v>5.4</v>
+      </c>
+      <c r="O126">
+        <v>6.1</v>
+      </c>
+      <c r="P126">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="99"/>
       <c r="F127" s="108"/>
       <c r="G127" s="108"/>
-    </row>
-    <row r="128" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K127" s="206">
+        <v>42370</v>
+      </c>
+      <c r="L127">
+        <v>6</v>
+      </c>
+      <c r="M127">
+        <v>5.9</v>
+      </c>
+      <c r="N127">
+        <v>4.7</v>
+      </c>
+      <c r="O127">
+        <v>5.4</v>
+      </c>
+      <c r="P127">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="99"/>
       <c r="F128" s="108"/>
       <c r="G128" s="108"/>
-    </row>
-    <row r="129" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K128" s="206">
+        <v>42371</v>
+      </c>
+      <c r="L128">
+        <v>5.2</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>4.2</v>
+      </c>
+      <c r="O128">
+        <v>4.7</v>
+      </c>
+      <c r="P128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="99"/>
       <c r="F129" s="108"/>
       <c r="G129" s="108"/>
-    </row>
-    <row r="130" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K129" s="206">
+        <v>42372</v>
+      </c>
+      <c r="L129">
+        <v>4.3</v>
+      </c>
+      <c r="M129">
+        <v>4.2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>4.3</v>
+      </c>
+      <c r="P129">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="99"/>
       <c r="F130" s="108"/>
       <c r="G130" s="108"/>
-    </row>
-    <row r="131" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K130" s="206">
+        <v>42373</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P130">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="99"/>
       <c r="F131" s="108"/>
       <c r="G131" s="108"/>
-    </row>
-    <row r="132" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K131" s="206">
+        <v>42374</v>
+      </c>
+      <c r="L131">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M131">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N131">
+        <v>4.2</v>
+      </c>
+      <c r="O131">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P131">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="99"/>
       <c r="F132" s="108"/>
       <c r="G132" s="108"/>
-    </row>
-    <row r="133" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K132" s="206">
+        <v>42375</v>
+      </c>
+      <c r="L132">
+        <v>4.8</v>
+      </c>
+      <c r="M132">
+        <v>4.7</v>
+      </c>
+      <c r="N132">
+        <v>4.8</v>
+      </c>
+      <c r="O132">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P132">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="99"/>
       <c r="F133" s="108"/>
       <c r="G133" s="108"/>
-    </row>
-    <row r="134" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="206">
+        <v>42376</v>
+      </c>
+      <c r="L133">
+        <v>5.4</v>
+      </c>
+      <c r="M133">
+        <v>5.3</v>
+      </c>
+      <c r="N133">
+        <v>4.7</v>
+      </c>
+      <c r="O133">
+        <v>5</v>
+      </c>
+      <c r="P133">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="99"/>
       <c r="G134" s="108"/>
-    </row>
-    <row r="135" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K134" s="206">
+        <v>42377</v>
+      </c>
+      <c r="L134">
+        <v>5.5</v>
+      </c>
+      <c r="M134">
+        <v>5.4</v>
+      </c>
+      <c r="N134">
+        <v>4.5</v>
+      </c>
+      <c r="O134">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P134">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="99"/>
       <c r="G135" s="108"/>
-    </row>
-    <row r="136" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K135" s="206">
+        <v>42378</v>
+      </c>
+      <c r="L135">
+        <v>5.4</v>
+      </c>
+      <c r="M135">
+        <v>5.3</v>
+      </c>
+      <c r="N135">
+        <v>4.5</v>
+      </c>
+      <c r="O135">
+        <v>5.2</v>
+      </c>
+      <c r="P135">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="99"/>
       <c r="G136" s="108"/>
-    </row>
-    <row r="137" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K136" s="206">
+        <v>42379</v>
+      </c>
+      <c r="L136">
+        <v>6.3</v>
+      </c>
+      <c r="M136">
+        <v>6.2</v>
+      </c>
+      <c r="N136">
+        <v>5.8</v>
+      </c>
+      <c r="O136">
+        <v>6</v>
+      </c>
+      <c r="P136">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="99"/>
       <c r="G137" s="108"/>
-    </row>
-    <row r="138" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K137" s="206">
+        <v>42380</v>
+      </c>
+      <c r="L137">
+        <v>7.2</v>
+      </c>
+      <c r="M137">
+        <v>7</v>
+      </c>
+      <c r="N137">
+        <v>6.3</v>
+      </c>
+      <c r="O137">
+        <v>6.5</v>
+      </c>
+      <c r="P137">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="99"/>
       <c r="G138" s="108"/>
-    </row>
-    <row r="139" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="206">
+        <v>42381</v>
+      </c>
+      <c r="L138">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M138">
+        <v>8.6</v>
+      </c>
+      <c r="N138">
+        <v>5.5</v>
+      </c>
+      <c r="O138">
+        <v>6.8</v>
+      </c>
+      <c r="P138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="99"/>
       <c r="G139" s="108"/>
-    </row>
-    <row r="140" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K139" s="206">
+        <v>42736</v>
+      </c>
+      <c r="L139">
+        <v>9.1</v>
+      </c>
+      <c r="M139">
+        <v>8.9</v>
+      </c>
+      <c r="N139">
+        <v>6.5</v>
+      </c>
+      <c r="O139">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P139">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="99"/>
       <c r="G140" s="108"/>
-    </row>
-    <row r="141" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K140" s="206">
+        <v>42737</v>
+      </c>
+      <c r="L140">
+        <v>6.7</v>
+      </c>
+      <c r="M140">
+        <v>6.5</v>
+      </c>
+      <c r="N140">
+        <v>6.3</v>
+      </c>
+      <c r="O140">
+        <v>6.6</v>
+      </c>
+      <c r="P140">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="99"/>
       <c r="G141" s="108"/>
-    </row>
-    <row r="142" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K141" s="206">
+        <v>42738</v>
+      </c>
+      <c r="L141">
+        <v>5.8</v>
+      </c>
+      <c r="M141">
+        <v>5.6</v>
+      </c>
+      <c r="N141">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O141">
+        <v>5.3</v>
+      </c>
+      <c r="P141">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="99"/>
       <c r="G142" s="108"/>
-    </row>
-    <row r="143" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K142" s="206">
+        <v>42739</v>
+      </c>
+      <c r="L142">
+        <v>5.3</v>
+      </c>
+      <c r="M142">
+        <v>5.2</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142">
+        <v>5.2</v>
+      </c>
+      <c r="P142">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="99"/>
       <c r="G143" s="108"/>
-    </row>
-    <row r="144" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K143" s="206">
+        <v>42740</v>
+      </c>
+      <c r="L143">
+        <v>5.7</v>
+      </c>
+      <c r="M143">
+        <v>5.5</v>
+      </c>
+      <c r="N143">
+        <v>4.8</v>
+      </c>
+      <c r="O143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P143">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="99"/>
       <c r="G144" s="108"/>
-    </row>
-    <row r="145" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K144" s="206">
+        <v>42741</v>
+      </c>
+      <c r="L144">
+        <v>5.4</v>
+      </c>
+      <c r="M144">
+        <v>5.3</v>
+      </c>
+      <c r="N144">
+        <v>4.7</v>
+      </c>
+      <c r="O144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P144">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="99"/>
-    </row>
-    <row r="146" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K145" s="206">
+        <v>42742</v>
+      </c>
+      <c r="L145">
+        <v>5.4</v>
+      </c>
+      <c r="M145">
+        <v>5.3</v>
+      </c>
+      <c r="N145">
+        <v>4.7</v>
+      </c>
+      <c r="O145">
+        <v>5.2</v>
+      </c>
+      <c r="P145">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="99"/>
-    </row>
-    <row r="147" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K146" s="206">
+        <v>42743</v>
+      </c>
+      <c r="L146">
+        <v>6.1</v>
+      </c>
+      <c r="M146">
+        <v>5.9</v>
+      </c>
+      <c r="N146">
+        <v>5.4</v>
+      </c>
+      <c r="O146">
+        <v>5.5</v>
+      </c>
+      <c r="P146">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="99"/>
-    </row>
-    <row r="148" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K147" s="206">
+        <v>42744</v>
+      </c>
+      <c r="L147">
+        <v>6.7</v>
+      </c>
+      <c r="M147">
+        <v>6.2</v>
+      </c>
+      <c r="N147">
+        <v>6.7</v>
+      </c>
+      <c r="O147">
+        <v>6.5</v>
+      </c>
+      <c r="P147">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="99"/>
-    </row>
-    <row r="149" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K148" s="206">
+        <v>42745</v>
+      </c>
+      <c r="L148">
+        <v>8.6</v>
+      </c>
+      <c r="M148">
+        <v>7.7</v>
+      </c>
+      <c r="N148">
+        <v>8</v>
+      </c>
+      <c r="O148">
+        <v>7.8</v>
+      </c>
+      <c r="P148">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="99"/>
-    </row>
-    <row r="150" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K149" s="206">
+        <v>42746</v>
+      </c>
+      <c r="L149">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M149">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N149">
+        <v>6.7</v>
+      </c>
+      <c r="O149">
+        <v>8.4</v>
+      </c>
+      <c r="P149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="99"/>
     </row>
-    <row r="151" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="99"/>
     </row>
-    <row r="152" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="99"/>
     </row>
-    <row r="153" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="99"/>
     </row>
-    <row r="154" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="99"/>
     </row>
-    <row r="155" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="99"/>
     </row>
-    <row r="156" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="99"/>
     </row>
-    <row r="157" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="99"/>
     </row>
-    <row r="158" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="99"/>
     </row>
-    <row r="159" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="99"/>
     </row>
-    <row r="160" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="99"/>
     </row>
     <row r="161" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10353,18 +11201,18 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="76" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10381,12 +11229,12 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="138"/>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="139"/>
       <c r="G2" s="139"/>
       <c r="H2" s="138"/>
@@ -10394,10 +11242,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="138"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="200"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="139"/>
       <c r="G3" s="139"/>
       <c r="H3" s="138"/>
@@ -10405,10 +11253,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="138"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="205"/>
       <c r="F4" s="139"/>
       <c r="G4" s="139"/>
       <c r="H4" s="138"/>
@@ -10472,17 +11320,17 @@
       <c r="D9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="143">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="142" t="s">
+      <c r="E9" s="209">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="144">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="145" t="s">
-        <v>89</v>
+      <c r="G9" s="211">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="212" t="s">
+        <v>202</v>
       </c>
       <c r="I9" s="42"/>
     </row>
@@ -10504,15 +11352,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="36"/>
-      <c r="C2" s="170"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -10527,28 +11375,28 @@
         <v>7</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="91" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="125" t="s">
         <v>132</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="125" t="s">
-        <v>134</v>
       </c>
       <c r="N3" s="125"/>
       <c r="O3" s="125"/>
@@ -10565,7 +11413,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="M4" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N4" s="125">
         <v>12</v>
@@ -10576,7 +11424,7 @@
     <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="31"/>
@@ -10586,7 +11434,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="M5" s="125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N5" s="125">
         <v>1.008</v>
@@ -10597,19 +11445,19 @@
     <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="161" t="s">
-        <v>119</v>
+      <c r="D6" s="157" t="s">
+        <v>117</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="120">
         <v>96.78</v>
       </c>
-      <c r="M6" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="N6" s="171">
+      <c r="M6" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="167">
         <v>16</v>
       </c>
       <c r="O6" s="125"/>
@@ -10618,11 +11466,11 @@
     <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="161" t="s">
-        <v>124</v>
+      <c r="D7" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" s="120">
         <v>2.78</v>
@@ -10635,17 +11483,17 @@
     <row r="8" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="161" t="s">
-        <v>125</v>
+      <c r="D8" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="120">
         <v>0.37</v>
       </c>
       <c r="M8" s="125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
@@ -10653,19 +11501,19 @@
     <row r="9" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="120">
         <v>0.06</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N9" s="125">
         <v>0.74850299399999998</v>
@@ -10695,7 +11543,7 @@
         <v>5.5564771409599999E-2</v>
       </c>
       <c r="M10" s="125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N10" s="125">
         <v>0.79872204499999999</v>
@@ -10714,7 +11562,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="M11" s="125" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N11" s="125">
         <v>0.81699346399999995</v>
@@ -10725,7 +11573,7 @@
     <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="31"/>
@@ -10735,7 +11583,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="M12" s="125" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N12" s="125">
         <v>0.82644628099999995</v>
@@ -10744,11 +11592,11 @@
     <row r="13" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="161" t="s">
-        <v>119</v>
+      <c r="D13" s="157" t="s">
+        <v>117</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="120">
         <v>92.03</v>
@@ -10757,27 +11605,27 @@
     <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="161" t="s">
-        <v>124</v>
+      <c r="D14" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="120">
         <v>5.75</v>
       </c>
       <c r="M14" s="125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="161" t="s">
-        <v>125</v>
+      <c r="D15" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="120">
         <v>1.31</v>
@@ -10793,13 +11641,13 @@
     <row r="16" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" s="133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" s="120">
         <v>0.45</v>
@@ -10838,7 +11686,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="M18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -10855,7 +11703,7 @@
     <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="31"/>
@@ -10868,11 +11716,11 @@
     <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="161" t="s">
-        <v>119</v>
+      <c r="D21" s="157" t="s">
+        <v>117</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21" s="120">
         <v>90.91</v>
@@ -10881,11 +11729,11 @@
     <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="161" t="s">
-        <v>124</v>
+      <c r="D22" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="120">
         <v>6.43</v>
@@ -10894,11 +11742,11 @@
     <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="161" t="s">
-        <v>125</v>
+      <c r="D23" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" s="120">
         <v>1.66</v>
@@ -10907,21 +11755,21 @@
     <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23"/>
       <c r="C24" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" s="133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F24" s="120">
         <v>0.74</v>
       </c>
-      <c r="K24" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" s="193"/>
+      <c r="K24" s="189" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="189"/>
     </row>
     <row r="25" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
@@ -10959,7 +11807,7 @@
     <row r="27" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -10968,112 +11816,112 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
     </row>
     <row r="28" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="161" t="s">
-        <v>119</v>
+      <c r="D28" s="157" t="s">
+        <v>117</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="183">
+        <v>128</v>
+      </c>
+      <c r="F28" s="179">
         <v>91.4</v>
       </c>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
     </row>
     <row r="29" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="161" t="s">
-        <v>124</v>
+      <c r="D29" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="187">
+        <v>128</v>
+      </c>
+      <c r="F29" s="183">
         <v>7.35</v>
       </c>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
     </row>
     <row r="30" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="161" t="s">
-        <v>125</v>
+      <c r="D30" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="183">
+        <v>128</v>
+      </c>
+      <c r="F30" s="179">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
     </row>
     <row r="31" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="184" t="s">
-        <v>129</v>
+        <v>186</v>
+      </c>
+      <c r="D31" s="180" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="183">
+        <v>128</v>
+      </c>
+      <c r="F31" s="179">
         <v>0.05</v>
       </c>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="182"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="189" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="178"/>
     </row>
     <row r="32" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="18"/>
       <c r="D32" s="34"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="185">
+      <c r="F32" s="178"/>
+      <c r="G32" s="181">
         <f>F28*$N$9+F29*$N$10+F30*$N$11+F31*$N$12</f>
         <v>74.790789270880012</v>
       </c>
-      <c r="H32" s="185">
+      <c r="H32" s="181">
         <f>G32*10/$N$4</f>
         <v>62.325657725733343</v>
       </c>
-      <c r="I32" s="185">
+      <c r="I32" s="181">
         <f>H32*($N$4+2*$N$6)/1000</f>
         <v>2.7423289399322672</v>
       </c>
-      <c r="J32" s="186">
+      <c r="J32" s="182">
         <f>I32/M$15</f>
         <v>5.5400584645096305E-2</v>
       </c>
-      <c r="L32" s="193"/>
+      <c r="L32" s="189"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="23"/>
@@ -11100,7 +11948,7 @@
     <row r="35" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="31"/>
@@ -11113,11 +11961,11 @@
     <row r="36" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="161" t="s">
-        <v>119</v>
+      <c r="D36" s="157" t="s">
+        <v>117</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" s="120">
         <v>89.55</v>
@@ -11126,25 +11974,25 @@
     <row r="37" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="161" t="s">
-        <v>124</v>
+      <c r="D37" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37" s="120">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K37" s="188"/>
+      <c r="K37" s="184"/>
     </row>
     <row r="38" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="161" t="s">
-        <v>125</v>
+      <c r="D38" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" s="120">
         <v>1.3</v>
@@ -11153,19 +12001,19 @@
     <row r="39" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D39" s="133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F39" s="120">
         <v>0.31</v>
       </c>
-      <c r="K39" s="193" t="s">
-        <v>189</v>
+      <c r="K39" s="189" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -11189,7 +12037,7 @@
         <f>I40/M$15</f>
         <v>5.5478706468155552E-2</v>
       </c>
-      <c r="L40" s="193"/>
+      <c r="L40" s="189"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="23"/>
@@ -11205,7 +12053,7 @@
     <row r="42" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="31"/>
@@ -11218,11 +12066,11 @@
     <row r="43" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="161" t="s">
-        <v>119</v>
+      <c r="D43" s="157" t="s">
+        <v>117</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" s="120">
         <v>88.93</v>
@@ -11231,11 +12079,11 @@
     <row r="44" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="161" t="s">
-        <v>124</v>
+      <c r="D44" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F44" s="120">
         <v>8.42</v>
@@ -11244,11 +12092,11 @@
     <row r="45" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="161" t="s">
-        <v>125</v>
+      <c r="D45" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F45" s="120">
         <v>1.59</v>
@@ -11257,19 +12105,19 @@
     <row r="46" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D46" s="133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F46" s="120">
         <v>0.37</v>
       </c>
-      <c r="K46" s="192" t="s">
-        <v>189</v>
+      <c r="K46" s="188" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -11293,7 +12141,7 @@
         <f>I47/M$15</f>
         <v>5.5477344894111116E-2</v>
       </c>
-      <c r="L47" s="192"/>
+      <c r="L47" s="188"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="23"/>
@@ -11319,7 +12167,7 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="36"/>
-      <c r="C50" s="170"/>
+      <c r="C50" s="166"/>
       <c r="D50" s="20"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
@@ -11336,7 +12184,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -11351,68 +12199,68 @@
     <row r="53" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F53" s="120">
         <f>E76</f>
         <v>4061</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="181">
+      <c r="H53" s="177">
         <f>F53/F55*E67</f>
         <v>1.5836063016690064E-3</v>
       </c>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
       <c r="C54" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F54" s="120">
         <f t="shared" ref="F54:F55" si="0">E77</f>
         <v>1341</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="181">
+      <c r="H54" s="177">
         <f>F54/F55*E67</f>
         <v>5.2292934019653728E-4</v>
       </c>
       <c r="J54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
       <c r="C55" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F55" s="120">
         <f t="shared" si="0"/>
         <v>6411</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="181">
+      <c r="H55" s="177">
         <f>$E$67</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -11420,20 +12268,20 @@
     <row r="56" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="23"/>
       <c r="C56" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="F56" s="120">
         <f>E83</f>
         <v>1694.2346263008515</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="181">
+      <c r="H56" s="177">
         <f>F56/F55*E67</f>
         <v>6.6067486597287922E-4</v>
       </c>
@@ -11456,11 +12304,11 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M63" s="192"/>
+      <c r="M63" s="188"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E67">
@@ -11473,88 +12321,88 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E76">
         <v>4061</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E77">
         <v>1341</v>
       </c>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E78">
         <f>6411</f>
         <v>6411</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E79">
         <v>6342</v>
       </c>
       <c r="F79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E82">
         <v>1676</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E83">
         <f>E82*E78/E79</f>
         <v>1694.2346263008515</v>
       </c>
       <c r="F83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.2">
@@ -11564,67 +12412,67 @@
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E97">
         <v>0.22</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E98">
         <v>0.31</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E100">
         <v>0.53</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E104">
         <f>E96/$E$100</f>
@@ -11633,7 +12481,7 @@
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E105">
         <f t="shared" ref="E105:E107" si="1">E97/$E$100</f>
@@ -11642,7 +12490,7 @@
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
@@ -11651,7 +12499,7 @@
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
